--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1358.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1358.xlsx
@@ -9276,29 +9276,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.01182110103618285</v>
+        <v>0.02482431217598398</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0.0001666041637574853</v>
+        <v>0.0004998124912724559</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0</v>
+        <v>0.03309264000000001</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0</v>
+        <v>0.0004664008535966151</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0</v>
+        <v>0.09309264</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0</v>
+        <v>0.0004759192383638927</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0</v>
+        <v>0.15309264</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0</v>
+        <v>0.00045281636271516</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.02482431217598398</v>
+        <v>0.02750633297910574</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0004998124912724559</v>
+        <v>0.001584733773912176</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.03309264000000001</v>
+        <v>0.1142594074234443</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0004664008535966151</v>
+        <v>0.001399202560789845</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.09309264</v>
+        <v>0.2942049040291137</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0004617830233629849</v>
+        <v>0.001427757715091678</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.15309264</v>
+        <v>0.4741504006347833</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0004961711208474626</v>
+        <v>0.00135844908814548</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.02651016844155625</v>
+        <v>0.02889779226211147</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001520544620691782</v>
+        <v>0.003169467547824351</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.08738630426493521</v>
+        <v>0.1322920971786107</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00145977578214784</v>
+        <v>0.003178506644000405</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.2318108021711877</v>
+        <v>0.3372793716926096</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001399024614639014</v>
+        <v>0.003178793630475801</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.3832346002675852</v>
+        <v>0.5508575607431031</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001498546475856089</v>
+        <v>0.003178097061360763</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.02937443110985801</v>
+        <v>0.03171913506307032</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002280816931037672</v>
+        <v>0.004754201321736527</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.1142594074234443</v>
+        <v>0.1457472651335879</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.00230049794212929</v>
+        <v>0.004767759966000608</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.2942049040291138</v>
+        <v>0.3707594313161084</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002084848415065451</v>
+        <v>0.004768190445713701</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.4741504006347833</v>
+        <v>0.6060618677431915</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002195306951149073</v>
+        <v>0.004767145592041145</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.03012625083756858</v>
+        <v>0.03603129731169429</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003041089241383563</v>
+        <v>0.006338935095648702</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.1200785547340976</v>
+        <v>0.1572797035176465</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002919551564295679</v>
+        <v>0.006357013288000811</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.3098954826995506</v>
+        <v>0.4019651017280743</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002798049229278028</v>
+        <v>0.006357587260951601</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.5042334841004317</v>
+        <v>0.6478795090940479</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002997092951712177</v>
+        <v>0.006356194122721526</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0001666041637574853</v>
+        <v>0.0004998124912724559</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01182110103618285</v>
+        <v>0.02482431217598398</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.03176910717283958</v>
+        <v>0.03689521493769533</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003801361551729454</v>
+        <v>0.007923668869560876</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.1272789999897398</v>
+        <v>0.1667287337852516</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003649439455369599</v>
+        <v>0.007946266610001014</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.3303846981577196</v>
+        <v>0.4263037235442303</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003497561536597535</v>
+        <v>0.007946984076189502</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.5410368945053214</v>
+        <v>0.6917017777578388</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003746366189640221</v>
+        <v>0.007945242653401909</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.03130647966382263</v>
+        <v>0.03937182387078546</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004561633862075344</v>
+        <v>0.009508402643473053</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.1356187883100376</v>
+        <v>0.1752336773908688</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004379327346443519</v>
+        <v>0.009535519932001217</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.3516910363708347</v>
+        <v>0.4497826373802989</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004197073843917043</v>
+        <v>0.009536380891427401</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.5741483484016179</v>
+        <v>0.7235199666967309</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004495639427568266</v>
+        <v>0.00953429118408229</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.03374184785866934</v>
+        <v>0.03652206004067665</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005321906172421236</v>
+        <v>0.01109313641738523</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.141105119397852</v>
+        <v>0.1814338557889634</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005109215237517439</v>
+        <v>0.01112477325400142</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.368532689501932</v>
+        <v>0.4611091838520033</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.00489658615123655</v>
+        <v>0.0111257777066653</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.5966017678974699</v>
+        <v>0.7529253688728911</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00524491266549631</v>
+        <v>0.01112333971476267</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.0350786913055313</v>
+        <v>0.0394068593770809</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006082178482767126</v>
+        <v>0.0126778701912974</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.1493451929560444</v>
+        <v>0.1845685904340007</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005839103128591359</v>
+        <v>0.01271402657600162</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.3827278497140476</v>
+        <v>0.4778907035750662</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005596098458556057</v>
+        <v>0.0127151745219032</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.6239310751010259</v>
+        <v>0.7717092772484851</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005994185903424354</v>
+        <v>0.01271238824544305</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.03432048955256017</v>
+        <v>0.04108715780971017</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006842450793113017</v>
+        <v>0.01426260396520958</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.1551462086874756</v>
+        <v>0.1890772027804462</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006568991019665279</v>
+        <v>0.01430327989800182</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.3986947091702179</v>
+        <v>0.4854345371652105</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006295610765875564</v>
+        <v>0.0143045713371411</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.6540701921204346</v>
+        <v>0.7854629847856803</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006743459141352399</v>
+        <v>0.01430143677612344</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.03847072214790753</v>
+        <v>0.04162389126827648</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007602723103458908</v>
+        <v>0.01584733773912175</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.1601153662950069</v>
+        <v>0.1934990142827651</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007298878910739198</v>
+        <v>0.01589253322000203</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.4143514600334788</v>
+        <v>0.4935480252381589</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.00699512307319507</v>
+        <v>0.015893968152379</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.6824530410638449</v>
+        <v>0.7961777844466434</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007492732379280442</v>
+        <v>0.01589048530680382</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.03853286863972501</v>
+        <v>0.04107799568249178</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008362995413804799</v>
+        <v>0.01743207151303393</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1666598654814994</v>
+        <v>0.1944733463954229</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008028766801813119</v>
+        <v>0.01748178654200223</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.4271162944668667</v>
+        <v>0.5037385084096344</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007694635380514578</v>
+        <v>0.0174833649676169</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.6999135440394052</v>
+        <v>0.8095449691935407</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008242005617208488</v>
+        <v>0.0174795338374842</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.03951040857616421</v>
+        <v>0.04251040698206807</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009123267724150688</v>
+        <v>0.01901680528694611</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1713869059498142</v>
+        <v>0.1984395205728851</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008758654692887037</v>
+        <v>0.01907103986400243</v>
       </c>
       <c r="L77" t="n">
-        <v>0.4432074046334179</v>
+        <v>0.5071133272953597</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008394147687834086</v>
+        <v>0.0190727617828548</v>
       </c>
       <c r="N77" t="n">
-        <v>0.7247856231552645</v>
+        <v>0.8182558319885388</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008991278855136531</v>
+        <v>0.01906858236816458</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.03840682150537676</v>
+        <v>0.04398206109671735</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009883540034496581</v>
+        <v>0.02060153906085828</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1778036874028122</v>
+        <v>0.2008368582696168</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009488542583960957</v>
+        <v>0.02066029318600264</v>
       </c>
       <c r="L78" t="n">
-        <v>0.4530429826961684</v>
+        <v>0.514279822511058</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009093659995153592</v>
+        <v>0.0206621585980927</v>
       </c>
       <c r="N78" t="n">
-        <v>0.748603200519571</v>
+        <v>0.8311016657938041</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009740552093064575</v>
+        <v>0.02065763089884496</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.04022558697551426</v>
+        <v>0.04454047189015649</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01064381234484247</v>
+        <v>0.02218627283477045</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1816174095433548</v>
+        <v>0.2017046809400835</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01021843047503488</v>
+        <v>0.02224954650800284</v>
       </c>
       <c r="L79" t="n">
-        <v>0.4662412208181546</v>
+        <v>0.5205453346724513</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0097931723024731</v>
+        <v>0.0222515554133306</v>
       </c>
       <c r="N79" t="n">
-        <v>0.761000198240474</v>
+        <v>0.8390737635715037</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01048982533099262</v>
+        <v>0.02224667942952534</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.04297018453472833</v>
+        <v>0.04410846446241398</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01140408465518836</v>
+        <v>0.02377100660868263</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1852352720743029</v>
+        <v>0.2046587367570085</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0109483183661088</v>
+        <v>0.02383879983000304</v>
       </c>
       <c r="L80" t="n">
-        <v>0.4752203111624124</v>
+        <v>0.5281803710069186</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01049268460979261</v>
+        <v>0.0238409522285685</v>
       </c>
       <c r="N80" t="n">
-        <v>0.7846105384261221</v>
+        <v>0.8539846883407162</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01123909856892066</v>
+        <v>0.02383572796020572</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.04364409373117058</v>
+        <v>0.04165917885809289</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01216435696553425</v>
+        <v>0.02535574038259481</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1910644746985178</v>
+        <v>0.2075445129608325</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01167820625718272</v>
+        <v>0.02542805315200324</v>
       </c>
       <c r="L81" t="n">
-        <v>0.4841984458919785</v>
+        <v>0.5364424401536444</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01119219691711211</v>
+        <v>0.0254303490438064</v>
       </c>
       <c r="N81" t="n">
-        <v>0.8006681431846635</v>
+        <v>0.8583058572880503</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01198837180684871</v>
+        <v>0.02542477649088611</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.04525079411299263</v>
+        <v>0.04218909169039255</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01292462927588014</v>
+        <v>0.02694047415650698</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1940122171188605</v>
+        <v>0.2108425105983296</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01240809414825664</v>
+        <v>0.02701730647400345</v>
       </c>
       <c r="L82" t="n">
-        <v>0.4976938171698886</v>
+        <v>0.5413791447199151</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01189170922443162</v>
+        <v>0.0270197458590443</v>
       </c>
       <c r="N82" t="n">
-        <v>0.8124069346242474</v>
+        <v>0.8715612589642866</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01273764504477675</v>
+        <v>0.02701382502156649</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.04379376522834608</v>
+        <v>0.0436946795725122</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01368490158622603</v>
+        <v>0.02852520793041916</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1984856990381921</v>
+        <v>0.2122363733528784</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01313798203933056</v>
+        <v>0.02860655979600365</v>
       </c>
       <c r="L83" t="n">
-        <v>0.503024617159179</v>
+        <v>0.5486483576525639</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01259122153175113</v>
+        <v>0.0286091426742822</v>
       </c>
       <c r="N83" t="n">
-        <v>0.829560834853022</v>
+        <v>0.8860830446331743</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0134869182827048</v>
+        <v>0.02860287355224687</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.04627648662538256</v>
+        <v>0.04517241911765119</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01444517389657193</v>
+        <v>0.03010994170433133</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2012921201593736</v>
+        <v>0.2148097449078575</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01386786993040448</v>
+        <v>0.03019581311800386</v>
       </c>
       <c r="L84" t="n">
-        <v>0.5149090380228861</v>
+        <v>0.5515079518984243</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01329073383907063</v>
+        <v>0.0301985394895201</v>
       </c>
       <c r="N84" t="n">
-        <v>0.8431637659791363</v>
+        <v>0.8894033655584631</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01423619152063284</v>
+        <v>0.03019192208292725</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.04670243785225367</v>
+        <v>0.0476187869390087</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01520544620691782</v>
+        <v>0.03169467547824351</v>
       </c>
       <c r="J85" t="n">
-        <v>0.2043386801852664</v>
+        <v>0.2175462689466454</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0145977578214784</v>
+        <v>0.03178506644000405</v>
       </c>
       <c r="L85" t="n">
-        <v>0.5189652719240463</v>
+        <v>0.5564158004043287</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01399024614639014</v>
+        <v>0.03178793630475801</v>
       </c>
       <c r="N85" t="n">
-        <v>0.8531496501107393</v>
+        <v>0.9044543730039015</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01498546475856088</v>
+        <v>0.03178097061360764</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.04407509845711104</v>
+        <v>0.04603025964978413</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0159657185172637</v>
+        <v>0.03327940925215569</v>
       </c>
       <c r="J86" t="n">
-        <v>0.2057325788187313</v>
+        <v>0.2196295891526209</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01532764571255232</v>
+        <v>0.03337431976200426</v>
       </c>
       <c r="L86" t="n">
-        <v>0.5268115110256952</v>
+        <v>0.5618297761171105</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01468975845370965</v>
+        <v>0.0333773331199959</v>
       </c>
       <c r="N86" t="n">
-        <v>0.8639524093559793</v>
+        <v>0.9057682182332388</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01573473799648893</v>
+        <v>0.03337001914428801</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.04639794798810627</v>
+        <v>0.0444033138631767</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0167259908276096</v>
+        <v>0.03486414302606786</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2082810157626295</v>
+        <v>0.2215433492091627</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01605753360362624</v>
+        <v>0.03496357308400446</v>
       </c>
       <c r="L87" t="n">
-        <v>0.5351659474908695</v>
+        <v>0.5667077519836026</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01538927076102916</v>
+        <v>0.03496672993523381</v>
       </c>
       <c r="N87" t="n">
-        <v>0.8785059658230047</v>
+        <v>0.9154770525102244</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01648401123441698</v>
+        <v>0.0349590676749684</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.04367446599339098</v>
+        <v>0.04773442619238571</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01748626313795549</v>
+        <v>0.03644887679998004</v>
       </c>
       <c r="J88" t="n">
-        <v>0.2106911907198222</v>
+        <v>0.2223711927996494</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01678742149470016</v>
+        <v>0.03655282640600466</v>
       </c>
       <c r="L88" t="n">
-        <v>0.5436467734826053</v>
+        <v>0.5749076009506381</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01608878306834867</v>
+        <v>0.03655612675047171</v>
       </c>
       <c r="N88" t="n">
-        <v>0.888744241619965</v>
+        <v>0.9188130270986067</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01723328447234502</v>
+        <v>0.03654811620564877</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.04490813202111679</v>
+        <v>0.04702007325061044</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01824653544830138</v>
+        <v>0.03803361057389221</v>
       </c>
       <c r="J89" t="n">
-        <v>0.2134703033931705</v>
+        <v>0.2245967636074595</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01751730938577407</v>
+        <v>0.03814207972800487</v>
       </c>
       <c r="L89" t="n">
-        <v>0.5458721811639385</v>
+        <v>0.5750871959650502</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01678829537566817</v>
+        <v>0.0381455235657096</v>
       </c>
       <c r="N89" t="n">
-        <v>0.8899011588550082</v>
+        <v>0.9337082932621353</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01798255771027306</v>
+        <v>0.03813716473632916</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0451024256194353</v>
+        <v>0.0472567316510502</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01900680775864727</v>
+        <v>0.03961834434780439</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2148255534855355</v>
+        <v>0.2241037053159719</v>
       </c>
       <c r="K90" t="n">
-        <v>0.018247197276848</v>
+        <v>0.03973133305000507</v>
       </c>
       <c r="L90" t="n">
-        <v>0.5520603626979057</v>
+        <v>0.5813044099736716</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01748780768298768</v>
+        <v>0.03973492038094751</v>
       </c>
       <c r="N90" t="n">
-        <v>0.9009106396362835</v>
+        <v>0.9337950022645599</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01873183094820111</v>
+        <v>0.03972621326700954</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.04426082633649812</v>
+        <v>0.04944087800690423</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01976708006899316</v>
+        <v>0.04120307812171656</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2167641406997782</v>
+        <v>0.2266756616085651</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01897708516792191</v>
+        <v>0.04132058637200527</v>
       </c>
       <c r="L91" t="n">
-        <v>0.5574295102475429</v>
+        <v>0.5835171159233355</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01818731999030718</v>
+        <v>0.04132431719618541</v>
       </c>
       <c r="N91" t="n">
-        <v>0.9059066060719388</v>
+        <v>0.9359053053696283</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01948110418612915</v>
+        <v>0.04131526179768992</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.04438681372045689</v>
+        <v>0.04756898893137188</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02052735237933905</v>
+        <v>0.04278781189562873</v>
       </c>
       <c r="J92" t="n">
-        <v>0.2190932647387598</v>
+        <v>0.2274962761686177</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01970697305899584</v>
+        <v>0.04290983969400547</v>
       </c>
       <c r="L92" t="n">
-        <v>0.5568978159758863</v>
+        <v>0.5813831867608751</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01888683229762669</v>
+        <v>0.04291371401142331</v>
       </c>
       <c r="N92" t="n">
-        <v>0.9072229802701238</v>
+        <v>0.9363713538410904</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02023037742405719</v>
+        <v>0.0429043103283703</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.0464838673194632</v>
+        <v>0.04964862435196796</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02128762468968494</v>
+        <v>0.04437254566954091</v>
       </c>
       <c r="J93" t="n">
-        <v>0.2195201253053414</v>
+        <v>0.2285188148468886</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02043686095006976</v>
+        <v>0.04449909301600568</v>
       </c>
       <c r="L93" t="n">
-        <v>0.5654834720459723</v>
+        <v>0.5884098080582275</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0195863446049462</v>
+        <v>0.0445031108266612</v>
       </c>
       <c r="N93" t="n">
-        <v>0.9200936843389865</v>
+        <v>0.9483008012695665</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02097965066198524</v>
+        <v>0.04449335885905068</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.04655546668166867</v>
+        <v>0.04664591529307999</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02204789700003083</v>
+        <v>0.04595727944345309</v>
       </c>
       <c r="J94" t="n">
-        <v>0.2208519221023841</v>
+        <v>0.227518054824616</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02116674884114368</v>
+        <v>0.04608834633800588</v>
       </c>
       <c r="L94" t="n">
-        <v>0.5675046706208369</v>
+        <v>0.5832069148869129</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02028585691226571</v>
+        <v>0.04609250764189911</v>
       </c>
       <c r="N94" t="n">
-        <v>0.9213526403866755</v>
+        <v>0.9455992919381923</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02172892389991328</v>
+        <v>0.04608240738973107</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.04860509135522492</v>
+        <v>0.0496175956490464</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02280816931037672</v>
+        <v>0.04754201321736527</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2219958548327489</v>
+        <v>0.2283561890136867</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0218966367322176</v>
+        <v>0.04767759966000609</v>
       </c>
       <c r="L95" t="n">
-        <v>0.5674796038635164</v>
+        <v>0.5882537605569946</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02098536921958521</v>
+        <v>0.04768190445713701</v>
       </c>
       <c r="N95" t="n">
-        <v>0.9239337705213405</v>
+        <v>0.9438287081826301</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02247819713784133</v>
+        <v>0.04767145592041145</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.04863622088828354</v>
+        <v>0.04555996960333605</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02356844162072261</v>
+        <v>0.04912674699127744</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2219591231992972</v>
+        <v>0.2281541340423375</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02262652462329152</v>
+        <v>0.04926685298200628</v>
       </c>
       <c r="L96" t="n">
-        <v>0.572526463937047</v>
+        <v>0.5855387561214548</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02168488152690472</v>
+        <v>0.04927130127237491</v>
       </c>
       <c r="N96" t="n">
-        <v>0.924570996851129</v>
+        <v>0.9428781355717012</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02322747037576937</v>
+        <v>0.04926050445109183</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.04565233482899618</v>
+        <v>0.04847489408240174</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02432871393106851</v>
+        <v>0.05071148076518962</v>
       </c>
       <c r="J97" t="n">
-        <v>0.2221489269048897</v>
+        <v>0.2277208966777632</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02335641251436544</v>
+        <v>0.05085610630400648</v>
       </c>
       <c r="L97" t="n">
-        <v>0.5724634430044648</v>
+        <v>0.5867855742833642</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02238439383422423</v>
+        <v>0.05086069808761281</v>
       </c>
       <c r="N97" t="n">
-        <v>0.9255982414841902</v>
+        <v>0.9406841005403997</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02397674361369742</v>
+        <v>0.05084955298177221</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04465691241823752</v>
+        <v>0.04636422601269631</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0250889862414144</v>
+        <v>0.05229621453910179</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2233724656523878</v>
+        <v>0.2267650971705129</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02408630040543935</v>
+        <v>0.05244535962600669</v>
       </c>
       <c r="L98" t="n">
-        <v>0.573708733228806</v>
+        <v>0.5827164172146186</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02308390614154374</v>
+        <v>0.05245009490285071</v>
       </c>
       <c r="N98" t="n">
-        <v>0.924649426528673</v>
+        <v>0.9421823613293802</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02472601685162546</v>
+        <v>0.05243860151245259</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04463170792858531</v>
+        <v>0.04622982232067256</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02584925855176029</v>
+        <v>0.05388094831301396</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2233369391446526</v>
+        <v>0.2253953557711363</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02481618829651328</v>
+        <v>0.0540346129480069</v>
       </c>
       <c r="L99" t="n">
-        <v>0.5751805267731069</v>
+        <v>0.580953487087114</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02378341844886324</v>
+        <v>0.0540394917180886</v>
       </c>
       <c r="N99" t="n">
-        <v>0.9264314576926614</v>
+        <v>0.9372086761792949</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0254752900895535</v>
+        <v>0.05402765004313297</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04655971958581223</v>
+        <v>0.04507353993278332</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02660953086210618</v>
+        <v>0.05546568208692614</v>
       </c>
       <c r="J100" t="n">
-        <v>0.2222470748487379</v>
+        <v>0.2250202927301829</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02554607618758719</v>
+        <v>0.05562386627000709</v>
       </c>
       <c r="L100" t="n">
-        <v>0.5743970158004038</v>
+        <v>0.579518986072746</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02448293075618275</v>
+        <v>0.0556288885333265</v>
       </c>
       <c r="N100" t="n">
-        <v>0.926539668664449</v>
+        <v>0.9349988033307973</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02622456332748155</v>
+        <v>0.05561669857381336</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04544580326415117</v>
+        <v>0.0478972357754814</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02736980317245207</v>
+        <v>0.05705041586083831</v>
       </c>
       <c r="J101" t="n">
-        <v>0.2242916214151959</v>
+        <v>0.224648528298202</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02627596407866111</v>
+        <v>0.0572131195920073</v>
       </c>
       <c r="L101" t="n">
-        <v>0.5731763924737329</v>
+        <v>0.5750351163434106</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02518244306350225</v>
+        <v>0.05721828534856441</v>
       </c>
       <c r="N101" t="n">
-        <v>0.9191730385440121</v>
+        <v>0.935188501024541</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0269738365654096</v>
+        <v>0.05720574710449374</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04729481483783504</v>
+        <v>0.0477027667752196</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02813007548279796</v>
+        <v>0.05863514963475049</v>
       </c>
       <c r="J102" t="n">
-        <v>0.2222805420268616</v>
+        <v>0.2231886827257432</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02700585196973503</v>
+        <v>0.05880237291400749</v>
       </c>
       <c r="L102" t="n">
-        <v>0.5758231027391485</v>
+        <v>0.5727240800710035</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02588195537082176</v>
+        <v>0.05880768216380231</v>
       </c>
       <c r="N102" t="n">
-        <v>0.9167514475868369</v>
+        <v>0.9273135275011789</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02772310980333764</v>
+        <v>0.05879479563517412</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04411161018109677</v>
+        <v>0.04549198985845077</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02889034779314385</v>
+        <v>0.06021988340866267</v>
       </c>
       <c r="J103" t="n">
-        <v>0.2218290962296599</v>
+        <v>0.2218493762633559</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02773573986080895</v>
+        <v>0.06039162623600771</v>
       </c>
       <c r="L103" t="n">
-        <v>0.5746453375387226</v>
+        <v>0.5758080794274207</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02658146767814127</v>
+        <v>0.06039707897904021</v>
       </c>
       <c r="N103" t="n">
-        <v>0.9136947760484074</v>
+        <v>0.9256096410013642</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02847238304126568</v>
+        <v>0.0603838441658545</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04490104516816928</v>
+        <v>0.04526676195162771</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02965062010348974</v>
+        <v>0.06180461718257484</v>
       </c>
       <c r="J104" t="n">
-        <v>0.2212525435695152</v>
+        <v>0.2207392291615896</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02846562775188288</v>
+        <v>0.06198087955800791</v>
       </c>
       <c r="L104" t="n">
-        <v>0.5684789570249018</v>
+        <v>0.5721093165845581</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02728097998546078</v>
+        <v>0.06198647579427811</v>
       </c>
       <c r="N104" t="n">
-        <v>0.9102229041842097</v>
+        <v>0.9201125997657508</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02922165627919373</v>
+        <v>0.06197289269653489</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04766797567328548</v>
+        <v>0.04602893998120326</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03041089241383563</v>
+        <v>0.06338935095648701</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2207661435923525</v>
+        <v>0.2199668616709939</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02919551564295679</v>
+        <v>0.06357013288000811</v>
       </c>
       <c r="L105" t="n">
-        <v>0.5657608605975361</v>
+        <v>0.5705499937143114</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02798049229278028</v>
+        <v>0.06357587260951601</v>
       </c>
       <c r="N105" t="n">
-        <v>0.9085557122497293</v>
+        <v>0.9165581620349915</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02997092951712177</v>
+        <v>0.06356194122721527</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04541725757067827</v>
+        <v>0.04578038087363022</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03117116472418152</v>
+        <v>0.06497408473039919</v>
       </c>
       <c r="J106" t="n">
-        <v>0.2198851558440965</v>
+        <v>0.2190408940421181</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02992540353403072</v>
+        <v>0.06515938620200831</v>
       </c>
       <c r="L106" t="n">
-        <v>0.5621279476564752</v>
+        <v>0.5634523129885763</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02868000460009979</v>
+        <v>0.06516526942475391</v>
       </c>
       <c r="N106" t="n">
-        <v>0.8997130805004513</v>
+        <v>0.9135820860497396</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03072020275504981</v>
+        <v>0.06515098975789564</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04715374673458059</v>
+        <v>0.04652294155536141</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03193143703452741</v>
+        <v>0.06655881850431138</v>
       </c>
       <c r="J107" t="n">
-        <v>0.2197248398706717</v>
+        <v>0.2187699465255117</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03065529142510463</v>
+        <v>0.06674863952400852</v>
       </c>
       <c r="L107" t="n">
-        <v>0.5605171176015691</v>
+        <v>0.5632384765792491</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0293795169074193</v>
+        <v>0.06675466623999181</v>
       </c>
       <c r="N107" t="n">
-        <v>0.9011148891918609</v>
+        <v>0.9073201300506489</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03146947599297786</v>
+        <v>0.06674003828857603</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04388229903922532</v>
+        <v>0.04625847895284965</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0326917093448733</v>
+        <v>0.06814355227822355</v>
       </c>
       <c r="J108" t="n">
-        <v>0.219000455218003</v>
+        <v>0.2164626393717241</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03138517931617855</v>
+        <v>0.06833789284600872</v>
       </c>
       <c r="L108" t="n">
-        <v>0.5584652698326673</v>
+        <v>0.5570306866582251</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03007902921473881</v>
+        <v>0.06834406305522971</v>
       </c>
       <c r="N108" t="n">
-        <v>0.8888810185794439</v>
+        <v>0.901208052278372</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0322187492309059</v>
+        <v>0.06832908681925641</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04360777035884539</v>
+        <v>0.04698884999254775</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0334519816552192</v>
+        <v>0.06972828605213573</v>
       </c>
       <c r="J109" t="n">
-        <v>0.2180272614320149</v>
+        <v>0.215027592831305</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03211506720725248</v>
+        <v>0.06992714616800892</v>
       </c>
       <c r="L109" t="n">
-        <v>0.5531093037496199</v>
+        <v>0.5571511453974004</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03077854152205831</v>
+        <v>0.06993345987046762</v>
       </c>
       <c r="N109" t="n">
-        <v>0.8907313489186856</v>
+        <v>0.8923816109735622</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03296802246883395</v>
+        <v>0.06991813534993679</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04533501656767373</v>
+        <v>0.04571591160090854</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03421225396556508</v>
+        <v>0.0713130198260479</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2171205180586323</v>
+        <v>0.2155734271548036</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03284495509832639</v>
+        <v>0.07151639949000912</v>
       </c>
       <c r="L110" t="n">
-        <v>0.5486861187522767</v>
+        <v>0.555022054968671</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03147805382937782</v>
+        <v>0.07152285668570552</v>
       </c>
       <c r="N110" t="n">
-        <v>0.8837857604650713</v>
+        <v>0.8882765643768734</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03371729570676199</v>
+        <v>0.07150718388061718</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04306889353994323</v>
+        <v>0.04644152070438484</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03497252627591098</v>
+        <v>0.07289775359996008</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2159954846437799</v>
+        <v>0.2131087625927697</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03357484298940031</v>
+        <v>0.07310565281200933</v>
       </c>
       <c r="L111" t="n">
-        <v>0.5422326142404873</v>
+        <v>0.5490656175439325</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03217756613669733</v>
+        <v>0.07311225350094341</v>
       </c>
       <c r="N111" t="n">
-        <v>0.8759641334740863</v>
+        <v>0.8819286707289585</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03446656894469004</v>
+        <v>0.07309623241129755</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04281425714988681</v>
+        <v>0.04616753422942946</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03573279858625687</v>
+        <v>0.07448248737387225</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2148674207333823</v>
+        <v>0.2116422193957523</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03430473088047423</v>
+        <v>0.07469490613400953</v>
       </c>
       <c r="L112" t="n">
-        <v>0.5399856896141018</v>
+        <v>0.5478040352950808</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03287707844401683</v>
+        <v>0.07470165031618131</v>
       </c>
       <c r="N112" t="n">
-        <v>0.8772863482012162</v>
+        <v>0.8768736882704707</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03521584218261808</v>
+        <v>0.07468528094197793</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04357596327173741</v>
+        <v>0.04489580910249522</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03649307089660275</v>
+        <v>0.07606722114778443</v>
       </c>
       <c r="J113" t="n">
-        <v>0.2140515858733643</v>
+        <v>0.2103824178143013</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03503461877154815</v>
+        <v>0.07628415945600973</v>
       </c>
       <c r="L113" t="n">
-        <v>0.5392822442729698</v>
+        <v>0.5444595103940119</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03357659075133634</v>
+        <v>0.07629104713141921</v>
       </c>
       <c r="N113" t="n">
-        <v>0.8698722849019461</v>
+        <v>0.8728473752420637</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03596511542054612</v>
+        <v>0.07627432947265832</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.0443588677797279</v>
+        <v>0.04562073610938261</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03725334320694865</v>
+        <v>0.0776519549216966</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2116632396096506</v>
+        <v>0.2089361565234566</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03576450666262208</v>
+        <v>0.07787341277800994</v>
       </c>
       <c r="L114" t="n">
-        <v>0.5371591776169412</v>
+        <v>0.5407505032434975</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03427610305865585</v>
+        <v>0.07788044394665712</v>
       </c>
       <c r="N114" t="n">
-        <v>0.8669418238317618</v>
+        <v>0.8729754513655815</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03671438865847417</v>
+        <v>0.0778633780033387</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04216782654809122</v>
+        <v>0.04330961273648343</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03801361551729454</v>
+        <v>0.07923668869560878</v>
       </c>
       <c r="J115" t="n">
-        <v>0.2115176414881658</v>
+        <v>0.2087773378579198</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03649439455369599</v>
+        <v>0.07946266610001014</v>
       </c>
       <c r="L115" t="n">
-        <v>0.5336533890458659</v>
+        <v>0.5354579171102941</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03497561536597536</v>
+        <v>0.07946984076189502</v>
       </c>
       <c r="N115" t="n">
-        <v>0.8576148452461479</v>
+        <v>0.8657224062926817</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03746366189640221</v>
+        <v>0.07945242653401909</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04300769545106028</v>
+        <v>0.04296353997391</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03877388782764043</v>
+        <v>0.08082142246952095</v>
       </c>
       <c r="J116" t="n">
-        <v>0.2110300510548346</v>
+        <v>0.2067448372541432</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03722428244476991</v>
+        <v>0.08105191942201033</v>
       </c>
       <c r="L116" t="n">
-        <v>0.5339017779595937</v>
+        <v>0.532717066014332</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03567512767329486</v>
+        <v>0.08105923757713292</v>
       </c>
       <c r="N116" t="n">
-        <v>0.8628112294005909</v>
+        <v>0.8610510438430848</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03821293513433026</v>
+        <v>0.08104147506469946</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.042883330362868</v>
+        <v>0.04458856791001373</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03953416013798632</v>
+        <v>0.08240615624343313</v>
       </c>
       <c r="J117" t="n">
-        <v>0.209215727855582</v>
+        <v>0.2052667405188404</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03795417033584383</v>
+        <v>0.08264117274401055</v>
       </c>
       <c r="L117" t="n">
-        <v>0.5347140407681389</v>
+        <v>0.5274002872855895</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03637463998061437</v>
+        <v>0.08264863439237081</v>
       </c>
       <c r="N117" t="n">
-        <v>0.8612508565505751</v>
+        <v>0.8530778686392085</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0389622083722583</v>
+        <v>0.08263052359537984</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04279958715774729</v>
+        <v>0.04319074663314598</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04029443244833222</v>
+        <v>0.0839908900173453</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2100899314363324</v>
+        <v>0.2036711334587253</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03868405822691776</v>
+        <v>0.08423042606601075</v>
       </c>
       <c r="L118" t="n">
-        <v>0.5321968078343048</v>
+        <v>0.5249799182540449</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03707415228793388</v>
+        <v>0.08423803120760871</v>
       </c>
       <c r="N118" t="n">
-        <v>0.8587010829878504</v>
+        <v>0.8427193853034703</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03971148161018635</v>
+        <v>0.08421957212606024</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04176132170993105</v>
+        <v>0.0417761262316582</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0410547047586781</v>
+        <v>0.08557562379125747</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2086679213430106</v>
+        <v>0.2010861018805116</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03941394611799167</v>
+        <v>0.08581967938801094</v>
       </c>
       <c r="L119" t="n">
-        <v>0.5359484548416898</v>
+        <v>0.520328296249676</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03777366459525339</v>
+        <v>0.08582742802284661</v>
       </c>
       <c r="N119" t="n">
-        <v>0.8567659795004722</v>
+        <v>0.8386920984582883</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04046075484811439</v>
+        <v>0.08580862065674061</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04277034547525031</v>
+        <v>0.04235075679390179</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04181497706902399</v>
+        <v>0.08716035756516964</v>
       </c>
       <c r="J120" t="n">
-        <v>0.2082649571215414</v>
+        <v>0.199539731590913</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04014383400906559</v>
+        <v>0.08740893271001114</v>
       </c>
       <c r="L120" t="n">
-        <v>0.5364605439873809</v>
+        <v>0.5157177586024616</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03847317690257289</v>
+        <v>0.08741682483808451</v>
       </c>
       <c r="N120" t="n">
-        <v>0.8639113422046648</v>
+        <v>0.8302125127260801</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04121002808604244</v>
+        <v>0.08739766918742099</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04181947469787435</v>
+        <v>0.03892068840822811</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04257524937936989</v>
+        <v>0.08874509133908182</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2082962983178493</v>
+        <v>0.1963601083966434</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04087372190013951</v>
+        <v>0.08899818603201136</v>
       </c>
       <c r="L121" t="n">
-        <v>0.5336246374684648</v>
+        <v>0.5058206426423796</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0391726892098924</v>
+        <v>0.08900622165332241</v>
       </c>
       <c r="N121" t="n">
-        <v>0.8589033408367254</v>
+        <v>0.8197971327292629</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04195930132397048</v>
+        <v>0.08898671771810136</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04090519161332686</v>
+        <v>0.0394919711629886</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04333552168971577</v>
+        <v>0.09032982511299399</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2066772044778593</v>
+        <v>0.1963753181044164</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04160360979121343</v>
+        <v>0.09058743935401155</v>
       </c>
       <c r="L122" t="n">
-        <v>0.5371322974820281</v>
+        <v>0.5028092856994084</v>
       </c>
       <c r="M122" t="n">
-        <v>0.03987220151721191</v>
+        <v>0.0905956184685603</v>
       </c>
       <c r="N122" t="n">
-        <v>0.8602081451329532</v>
+        <v>0.8089624630902549</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04270857456189853</v>
+        <v>0.09057576624878175</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04202430684394166</v>
+        <v>0.04007065514653464</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04409579400006167</v>
+        <v>0.09191455888690618</v>
       </c>
       <c r="J123" t="n">
-        <v>0.2068228588491359</v>
+        <v>0.192813446520946</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04233349768228736</v>
+        <v>0.09217669267601175</v>
       </c>
       <c r="L123" t="n">
-        <v>0.5344750862251575</v>
+        <v>0.4951560251035263</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04057171382453142</v>
+        <v>0.09218501528379822</v>
       </c>
       <c r="N123" t="n">
-        <v>0.8638919248296458</v>
+        <v>0.7989250084314742</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04345784779982657</v>
+        <v>0.09216481477946215</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04417363101205261</v>
+        <v>0.03966279044721766</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04485606631040756</v>
+        <v>0.09349929266081836</v>
       </c>
       <c r="J124" t="n">
-        <v>0.2086389472960425</v>
+        <v>0.1925025794529456</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04306338557336127</v>
+        <v>0.09376594599801197</v>
       </c>
       <c r="L124" t="n">
-        <v>0.5396445658949399</v>
+        <v>0.4942331981847115</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04127122613185091</v>
+        <v>0.09377441209903611</v>
       </c>
       <c r="N124" t="n">
-        <v>0.8702208496631022</v>
+        <v>0.795701273375338</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04420712103775461</v>
+        <v>0.09375386331014252</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04534997473999348</v>
+        <v>0.04127386968606238</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04561633862075345</v>
+        <v>0.09508402643473053</v>
       </c>
       <c r="J125" t="n">
-        <v>0.2074138434887204</v>
+        <v>0.1885708027071293</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04379327346443519</v>
+        <v>0.09535519932001217</v>
       </c>
       <c r="L125" t="n">
-        <v>0.537432298688462</v>
+        <v>0.486013142272942</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04197073843917042</v>
+        <v>0.09536380891427401</v>
       </c>
       <c r="N125" t="n">
-        <v>0.8700610893696202</v>
+        <v>0.7896077625442642</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04495639427568265</v>
+        <v>0.0953429118408229</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04455014865009814</v>
+        <v>0.03886841563672853</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04637661093109934</v>
+        <v>0.09666876020864271</v>
       </c>
       <c r="J126" t="n">
-        <v>0.2079342262986179</v>
+        <v>0.1878615474117812</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04452316135550911</v>
+        <v>0.09694445264201236</v>
       </c>
       <c r="L126" t="n">
-        <v>0.5381298468028105</v>
+        <v>0.4830575467336246</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04267025074648993</v>
+        <v>0.09695320572951191</v>
       </c>
       <c r="N126" t="n">
-        <v>0.8762788136854988</v>
+        <v>0.7774924811841187</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0457056675136107</v>
+        <v>0.09693196037150327</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04577096336470038</v>
+        <v>0.03842852987460302</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04713688324144523</v>
+        <v>0.09825349398255488</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2089867745971829</v>
+        <v>0.1854886697770672</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04525304924658304</v>
+        <v>0.09853370596401256</v>
       </c>
       <c r="L127" t="n">
-        <v>0.5438287724350721</v>
+        <v>0.4765821198315793</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04336976305380944</v>
+        <v>0.09854260254474982</v>
       </c>
       <c r="N127" t="n">
-        <v>0.8779401923470355</v>
+        <v>0.7749951700875547</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04645494075153875</v>
+        <v>0.09852100890218367</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04400922950613403</v>
+        <v>0.03696287310293325</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04789715555179112</v>
+        <v>0.09983822775646706</v>
       </c>
       <c r="J128" t="n">
-        <v>0.2103581672558639</v>
+        <v>0.1840808338798416</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04598293713765695</v>
+        <v>0.1001229592860128</v>
       </c>
       <c r="L128" t="n">
-        <v>0.5441206377823337</v>
+        <v>0.4711578473096456</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04406927536112894</v>
+        <v>0.1001319993599877</v>
       </c>
       <c r="N128" t="n">
-        <v>0.8790113950905291</v>
+        <v>0.7595409020250125</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04720421398946679</v>
+        <v>0.1001100574328641</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04326175769673295</v>
+        <v>0.03948010602496664</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04865742786213701</v>
+        <v>0.1014229615303792</v>
       </c>
       <c r="J129" t="n">
-        <v>0.210835083146109</v>
+        <v>0.1825782445606428</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04671282502873087</v>
+        <v>0.101712212608013</v>
       </c>
       <c r="L129" t="n">
-        <v>0.5464970050416819</v>
+        <v>0.4663882800768786</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04476878766844845</v>
+        <v>0.1017213961752256</v>
       </c>
       <c r="N129" t="n">
-        <v>0.885358591652278</v>
+        <v>0.7481964533976128</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04795348722739484</v>
+        <v>0.1016991059635444</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04352535855883088</v>
+        <v>0.0349888893439506</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0494177001724829</v>
+        <v>0.1030076953042914</v>
       </c>
       <c r="J130" t="n">
-        <v>0.2117042011393666</v>
+        <v>0.1787211066600095</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04744271291980479</v>
+        <v>0.1033014659300132</v>
       </c>
       <c r="L130" t="n">
-        <v>0.5487494364102035</v>
+        <v>0.4601769690423334</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04546829997576796</v>
+        <v>0.1033107929904635</v>
       </c>
       <c r="N130" t="n">
-        <v>0.8868479517685804</v>
+        <v>0.742328600606477</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04870276046532288</v>
+        <v>0.1032881544942248</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04479684271476171</v>
+        <v>0.03649788376313252</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05017797248282879</v>
+        <v>0.1045924290782036</v>
       </c>
       <c r="J131" t="n">
-        <v>0.2109522001070848</v>
+        <v>0.17754962501848</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04817260081087871</v>
+        <v>0.1048907192520134</v>
       </c>
       <c r="L131" t="n">
-        <v>0.545069494084985</v>
+        <v>0.4547274651150653</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04616781228308747</v>
+        <v>0.1049001898057014</v>
       </c>
       <c r="N131" t="n">
-        <v>0.8891456451757348</v>
+        <v>0.7348041200527269</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04945203370325092</v>
+        <v>0.1048772030249052</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04607302078685924</v>
+        <v>0.03401574998575986</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05093824479317468</v>
+        <v>0.1061771628521157</v>
       </c>
       <c r="J132" t="n">
-        <v>0.2126657589207118</v>
+        <v>0.175204004476593</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04890248870195263</v>
+        <v>0.1064799725740136</v>
       </c>
       <c r="L132" t="n">
-        <v>0.5500487402631135</v>
+        <v>0.4490433192041294</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04686732459040698</v>
+        <v>0.1064895866209393</v>
       </c>
       <c r="N132" t="n">
-        <v>0.8999178416100394</v>
+        <v>0.7250897881374828</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05020130694117896</v>
+        <v>0.1064662515555856</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04535070339745728</v>
+        <v>0.03755114871507999</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05169851710352057</v>
+        <v>0.1077618966260279</v>
       </c>
       <c r="J133" t="n">
-        <v>0.2144315564516959</v>
+        <v>0.1715244498748869</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04963237659302655</v>
+        <v>0.1080692258960138</v>
       </c>
       <c r="L133" t="n">
-        <v>0.5539787371416757</v>
+        <v>0.441528082218581</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04756683689772648</v>
+        <v>0.1080789834361772</v>
       </c>
       <c r="N133" t="n">
-        <v>0.9001307108077926</v>
+        <v>0.7172523812618663</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05095058017910701</v>
+        <v>0.1080553000862659</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04362670116888967</v>
+        <v>0.03511274065434035</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05245878941386646</v>
+        <v>0.1093466303999401</v>
       </c>
       <c r="J134" t="n">
-        <v>0.2147362715714855</v>
+        <v>0.1710511660539004</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05036226448410047</v>
+        <v>0.109658479218014</v>
       </c>
       <c r="L134" t="n">
-        <v>0.555551046917758</v>
+        <v>0.439585305067475</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04826634920504599</v>
+        <v>0.1096683802514151</v>
       </c>
       <c r="N134" t="n">
-        <v>0.9063504225052924</v>
+        <v>0.7111586758269981</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05169985341703506</v>
+        <v>0.1096443486169463</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04689782472349022</v>
+        <v>0.03370918650678832</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05321906172421236</v>
+        <v>0.1109313641738523</v>
       </c>
       <c r="J135" t="n">
-        <v>0.2165665831515285</v>
+        <v>0.1690243578541718</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05109215237517439</v>
+        <v>0.1112477325400142</v>
       </c>
       <c r="L135" t="n">
-        <v>0.5550572317884475</v>
+        <v>0.4338185386598667</v>
       </c>
       <c r="M135" t="n">
-        <v>0.0489658615123655</v>
+        <v>0.111257777066653</v>
       </c>
       <c r="N135" t="n">
-        <v>0.913743146438838</v>
+        <v>0.6992754482340001</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0524491266549631</v>
+        <v>0.1112333971476267</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04816088468359275</v>
+        <v>0.03634914697567136</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05397933403455825</v>
+        <v>0.1125160979477644</v>
       </c>
       <c r="J136" t="n">
-        <v>0.2168091700632735</v>
+        <v>0.1660842301162397</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05182204026624831</v>
+        <v>0.1128369858620144</v>
       </c>
       <c r="L136" t="n">
-        <v>0.5589888539508308</v>
+        <v>0.4313313339048116</v>
       </c>
       <c r="M136" t="n">
-        <v>0.049665373819685</v>
+        <v>0.1128471738818909</v>
       </c>
       <c r="N136" t="n">
-        <v>0.9162750523447268</v>
+        <v>0.691069474883993</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05319839989289115</v>
+        <v>0.1128224456783071</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04541269167153109</v>
+        <v>0.03304128276423686</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05473960634490414</v>
+        <v>0.1141008317216766</v>
       </c>
       <c r="J137" t="n">
-        <v>0.2185507111781685</v>
+        <v>0.1645709876806427</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05255192815732223</v>
+        <v>0.1144262391840146</v>
       </c>
       <c r="L137" t="n">
-        <v>0.5573374756019945</v>
+        <v>0.4277272417113643</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05036488612700451</v>
+        <v>0.1144365706971288</v>
       </c>
       <c r="N137" t="n">
-        <v>0.9134123099592576</v>
+        <v>0.6810075321780978</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05394767313081919</v>
+        <v>0.1144114942089875</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04465005630963906</v>
+        <v>0.03579425457573222</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05549987865525003</v>
+        <v>0.1156855654955888</v>
       </c>
       <c r="J138" t="n">
-        <v>0.2186778853676618</v>
+        <v>0.1639248353879192</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05328181604839615</v>
+        <v>0.1160154925060148</v>
       </c>
       <c r="L138" t="n">
-        <v>0.5594946589390255</v>
+        <v>0.4208098129885807</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05106439843432402</v>
+        <v>0.1160259675123667</v>
       </c>
       <c r="N138" t="n">
-        <v>0.923221089018729</v>
+        <v>0.6817563965174359</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05469694636874724</v>
+        <v>0.1160005427396679</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04586978922025048</v>
+        <v>0.03261672311340487</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05626015096559592</v>
+        <v>0.117270299269501</v>
       </c>
       <c r="J139" t="n">
-        <v>0.2211773715032016</v>
+        <v>0.1626859780786079</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05401170393947007</v>
+        <v>0.117604745828015</v>
       </c>
       <c r="L139" t="n">
-        <v>0.5660519661590107</v>
+        <v>0.4206825986455152</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05176391074164353</v>
+        <v>0.1176153643276046</v>
       </c>
       <c r="N139" t="n">
-        <v>0.9238675592594384</v>
+        <v>0.6811828443031284</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05544621960667528</v>
+        <v>0.1175895912703482</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04606870102569917</v>
+        <v>0.03151734908050222</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0570204232759418</v>
+        <v>0.1188550330434132</v>
       </c>
       <c r="J140" t="n">
-        <v>0.2215358484562363</v>
+        <v>0.1625946205932471</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05474159183054399</v>
+        <v>0.1191939991500152</v>
       </c>
       <c r="L140" t="n">
-        <v>0.5628009594590365</v>
+        <v>0.4196491495912235</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05246342304896303</v>
+        <v>0.1192047611428425</v>
       </c>
       <c r="N140" t="n">
-        <v>0.9278178904176854</v>
+        <v>0.6770536519362964</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05619549284460332</v>
+        <v>0.1191786398010286</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04924360234831897</v>
+        <v>0.03349963055728149</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05778069558628771</v>
+        <v>0.1204397668173253</v>
       </c>
       <c r="J141" t="n">
-        <v>0.223439995098214</v>
+        <v>0.1626909548248116</v>
       </c>
       <c r="K141" t="n">
-        <v>0.0554714797216179</v>
+        <v>0.1207832524720154</v>
       </c>
       <c r="L141" t="n">
-        <v>0.56943320103619</v>
+        <v>0.4152130167347609</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05316293535628253</v>
+        <v>0.1207941579580804</v>
       </c>
       <c r="N141" t="n">
-        <v>0.9320382522297671</v>
+        <v>0.6710351490710587</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05694476608253136</v>
+        <v>0.120767688331709</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04639130381044367</v>
+        <v>0.03551094209659215</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05854096789663359</v>
+        <v>0.1220245005912375</v>
       </c>
       <c r="J142" t="n">
-        <v>0.2231764903005828</v>
+        <v>0.1612221488974954</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05620136761269182</v>
+        <v>0.1223725057940156</v>
       </c>
       <c r="L142" t="n">
-        <v>0.5661402530875574</v>
+        <v>0.4161916082147036</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05386244766360204</v>
+        <v>0.1223835547733183</v>
       </c>
       <c r="N142" t="n">
-        <v>0.9372948144319827</v>
+        <v>0.6773685645132203</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05769403932045941</v>
+        <v>0.1223567368623894</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04950861603440709</v>
+        <v>0.03253485763908386</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05930124020697948</v>
+        <v>0.1236092343651497</v>
       </c>
       <c r="J143" t="n">
-        <v>0.2248320129347913</v>
+        <v>0.1619127120212143</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05693125550376575</v>
+        <v>0.1239617591160158</v>
       </c>
       <c r="L143" t="n">
-        <v>0.5702136778102261</v>
+        <v>0.4157231830166253</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05456195997092155</v>
+        <v>0.1239729515885562</v>
       </c>
       <c r="N143" t="n">
-        <v>0.9351537467606302</v>
+        <v>0.6772480917652369</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05844331255838745</v>
+        <v>0.1239457853930698</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04559234964254308</v>
+        <v>0.03357074079943682</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06006151251732537</v>
+        <v>0.1251939681390619</v>
       </c>
       <c r="J144" t="n">
-        <v>0.2248932418722875</v>
+        <v>0.162259689958931</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05766114339483967</v>
+        <v>0.125551012438016</v>
       </c>
       <c r="L144" t="n">
-        <v>0.5755450374012824</v>
+        <v>0.419700128863753</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05526147227824105</v>
+        <v>0.1255623484037941</v>
       </c>
       <c r="N144" t="n">
-        <v>0.9413812189520084</v>
+        <v>0.6771614761579053</v>
       </c>
       <c r="O144" t="n">
-        <v>0.0591925857963155</v>
+        <v>0.1255348339237502</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04964862435196796</v>
+        <v>0.03261795519233124</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06082178482767126</v>
+        <v>0.126778701912974</v>
       </c>
       <c r="J145" t="n">
-        <v>0.2272468559845196</v>
+        <v>0.1634601284736079</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05839103128591359</v>
+        <v>0.1271402657600162</v>
       </c>
       <c r="L145" t="n">
-        <v>0.5750258940578131</v>
+        <v>0.4204148368730101</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05596098458556056</v>
+        <v>0.127151745219032</v>
       </c>
       <c r="N145" t="n">
-        <v>0.9405434007424146</v>
+        <v>0.6779964630220227</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05994185903424354</v>
+        <v>0.1271238824544305</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04564827835621102</v>
+        <v>0.03467586443244731</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06158205713801715</v>
+        <v>0.1283634356868862</v>
       </c>
       <c r="J146" t="n">
-        <v>0.226079534142936</v>
+        <v>0.1632110733282078</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05912091917698751</v>
+        <v>0.1287295190820164</v>
       </c>
       <c r="L146" t="n">
-        <v>0.5765478099769051</v>
+        <v>0.4196596981613191</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05666049689288007</v>
+        <v>0.1287411420342699</v>
       </c>
       <c r="N146" t="n">
-        <v>0.9439064618681484</v>
+        <v>0.6765407976883857</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06069113227217158</v>
+        <v>0.1287129309851109</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04564307699843985</v>
+        <v>0.03574383213446523</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06234232944836305</v>
+        <v>0.1299481694607984</v>
       </c>
       <c r="J147" t="n">
-        <v>0.2267779552189848</v>
+        <v>0.163309570285693</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05985080706806143</v>
+        <v>0.1303187724040166</v>
       </c>
       <c r="L147" t="n">
-        <v>0.5763023473556449</v>
+        <v>0.4224271038456031</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05736000920019958</v>
+        <v>0.1303305388495078</v>
       </c>
       <c r="N147" t="n">
-        <v>0.9483008012695665</v>
+        <v>0.6753822254877915</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06144040551009963</v>
+        <v>0.1303019795157913</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04863187283367899</v>
+        <v>0.03382122191306519</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06310260175870894</v>
+        <v>0.1315329032347106</v>
       </c>
       <c r="J148" t="n">
-        <v>0.2285188148468886</v>
+        <v>0.1646526651090263</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06058069495913534</v>
+        <v>0.1319080257260168</v>
       </c>
       <c r="L148" t="n">
-        <v>0.5789810683911194</v>
+        <v>0.421009445042785</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05805952150751909</v>
+        <v>0.1319199356647457</v>
       </c>
       <c r="N148" t="n">
-        <v>0.9414028343802817</v>
+        <v>0.677408491751037</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06218967874802767</v>
+        <v>0.1318910280464717</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04561497763282669</v>
+        <v>0.03390739738292742</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06386287406905482</v>
+        <v>0.1331176370086228</v>
       </c>
       <c r="J149" t="n">
-        <v>0.2280187416097727</v>
+        <v>0.1646374035611701</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06131058285020927</v>
+        <v>0.133497279048017</v>
       </c>
       <c r="L149" t="n">
-        <v>0.5797755352804153</v>
+        <v>0.4232991128697878</v>
       </c>
       <c r="M149" t="n">
-        <v>0.05875903381483859</v>
+        <v>0.1335093324799836</v>
       </c>
       <c r="N149" t="n">
-        <v>0.942249376674282</v>
+        <v>0.683407341808919</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06293895198595573</v>
+        <v>0.1334800765771521</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04659270316678121</v>
+        <v>0.03600172215873207</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06462314637940073</v>
+        <v>0.1347023707825349</v>
       </c>
       <c r="J150" t="n">
-        <v>0.2285183903621758</v>
+        <v>0.1645608314050871</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06204047074128318</v>
+        <v>0.1350865323700172</v>
       </c>
       <c r="L150" t="n">
-        <v>0.5838773102206193</v>
+        <v>0.4237884984435344</v>
       </c>
       <c r="M150" t="n">
-        <v>0.0594585461221581</v>
+        <v>0.1350987292952215</v>
       </c>
       <c r="N150" t="n">
-        <v>0.94307796404402</v>
+        <v>0.6813665209922346</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06368822522388377</v>
+        <v>0.1350691251078324</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04756536120644081</v>
+        <v>0.03410355985515938</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06538341868974661</v>
+        <v>0.1362871045564471</v>
       </c>
       <c r="J151" t="n">
-        <v>0.2267170707824371</v>
+        <v>0.1643199944037398</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0627703586323571</v>
+        <v>0.1366757856920174</v>
       </c>
       <c r="L151" t="n">
-        <v>0.5819779554088184</v>
+        <v>0.4239699928809475</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06015805842947761</v>
+        <v>0.1366881261104594</v>
       </c>
       <c r="N151" t="n">
-        <v>0.9444856092058002</v>
+        <v>0.6847737746317807</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06443749846181181</v>
+        <v>0.1366581736385128</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04753326352270373</v>
+        <v>0.03621227408688951</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0661436910000925</v>
+        <v>0.1378718383303593</v>
       </c>
       <c r="J152" t="n">
-        <v>0.2277148633220022</v>
+        <v>0.1643119383200907</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06350024652343103</v>
+        <v>0.1382650390140177</v>
       </c>
       <c r="L152" t="n">
-        <v>0.5838690330420988</v>
+        <v>0.4243359872989502</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06085757073679712</v>
+        <v>0.1382775229256973</v>
       </c>
       <c r="N152" t="n">
-        <v>0.943669324875927</v>
+        <v>0.690416848058354</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06518677169973985</v>
+        <v>0.1382472221691932</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04749672188646824</v>
+        <v>0.03432722846860269</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06690396331043839</v>
+        <v>0.1394565721042715</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2282117755742025</v>
+        <v>0.1666337089171026</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06423013441450495</v>
+        <v>0.1398542923360178</v>
       </c>
       <c r="L153" t="n">
-        <v>0.5884098080582275</v>
+        <v>0.4265788728144653</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06155708304411663</v>
+        <v>0.1398669197409352</v>
       </c>
       <c r="N153" t="n">
-        <v>0.9491261237707042</v>
+        <v>0.6895834866027519</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0659360449376679</v>
+        <v>0.1398362706998736</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04945604806863255</v>
+        <v>0.03249827208768279</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06766423562078427</v>
+        <v>0.1410413058781836</v>
       </c>
       <c r="J154" t="n">
-        <v>0.2273078151323689</v>
+        <v>0.1654886586699168</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06496002230557887</v>
+        <v>0.141443545658018</v>
       </c>
       <c r="L154" t="n">
-        <v>0.586734250680585</v>
+        <v>0.4279564396458931</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06225659535143614</v>
+        <v>0.1414563165561731</v>
       </c>
       <c r="N154" t="n">
-        <v>0.9472530186064355</v>
+        <v>0.687522086333096</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06668531817559593</v>
+        <v>0.141425319230554</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04941155384009496</v>
+        <v>0.03477370950274915</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06842450793113017</v>
+        <v>0.1426260396520958</v>
       </c>
       <c r="J155" t="n">
-        <v>0.2269029895898325</v>
+        <v>0.1667188637369126</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06568991019665278</v>
+        <v>0.1430327989800182</v>
       </c>
       <c r="L155" t="n">
-        <v>0.5869492748974889</v>
+        <v>0.4318549443668234</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06295610765875564</v>
+        <v>0.143045713371411</v>
       </c>
       <c r="N155" t="n">
-        <v>0.952547022099426</v>
+        <v>0.7004388925839151</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06743459141352398</v>
+        <v>0.1430143677612344</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04536355097175371</v>
+        <v>0.03713446380554271</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06918478024147606</v>
+        <v>0.144210773426008</v>
       </c>
       <c r="J156" t="n">
-        <v>0.2284973065399246</v>
+        <v>0.1693716458382883</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0664197980877267</v>
+        <v>0.1446220523020184</v>
       </c>
       <c r="L156" t="n">
-        <v>0.5882872852700742</v>
+        <v>0.4364439934538358</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06365561996607515</v>
+        <v>0.1446351101866489</v>
       </c>
       <c r="N156" t="n">
-        <v>0.9482051469659786</v>
+        <v>0.7000036482036001</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06818386465145203</v>
+        <v>0.1446034162919147</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04731235123450704</v>
+        <v>0.03356132405922939</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06994505255182196</v>
+        <v>0.1457955071999202</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2271907735759762</v>
+        <v>0.1709578236881896</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06714968597880062</v>
+        <v>0.1462113056240187</v>
       </c>
       <c r="L157" t="n">
-        <v>0.5909397481287297</v>
+        <v>0.4386938930915266</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06435513227339466</v>
+        <v>0.1462245070018868</v>
       </c>
       <c r="N157" t="n">
-        <v>0.9486244059223984</v>
+        <v>0.7129464143066092</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06893313788938008</v>
+        <v>0.1461924648225951</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04725826639925319</v>
+        <v>0.03603507932697506</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07070532486216784</v>
+        <v>0.1473802409738323</v>
       </c>
       <c r="J158" t="n">
-        <v>0.2268833982913187</v>
+        <v>0.1728882160007615</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06787957386987455</v>
+        <v>0.1478005589460189</v>
       </c>
       <c r="L158" t="n">
-        <v>0.5935981298038443</v>
+        <v>0.4451749494644933</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06505464458071417</v>
+        <v>0.1478139038171247</v>
       </c>
       <c r="N158" t="n">
-        <v>0.9517018116849888</v>
+        <v>0.7232972520074004</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06968241112730811</v>
+        <v>0.1477815133532755</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04820160823689046</v>
+        <v>0.03553651867194567</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07146559717251373</v>
+        <v>0.1489649747477445</v>
       </c>
       <c r="J159" t="n">
-        <v>0.2276751882792829</v>
+        <v>0.1766736414901494</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06860946176094847</v>
+        <v>0.1493898122680191</v>
       </c>
       <c r="L159" t="n">
-        <v>0.592053896625807</v>
+        <v>0.4548574687573325</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06575415688803367</v>
+        <v>0.1494033006323626</v>
       </c>
       <c r="N159" t="n">
-        <v>0.9552343769700539</v>
+        <v>0.733286222420432</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07043168436523616</v>
+        <v>0.1493705618839559</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04814268851831706</v>
+        <v>0.03904643115730708</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07222586948285963</v>
+        <v>0.1505497085216567</v>
       </c>
       <c r="J160" t="n">
-        <v>0.2283661511332002</v>
+        <v>0.1788249188704985</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06933934965202238</v>
+        <v>0.1509790655900193</v>
       </c>
       <c r="L160" t="n">
-        <v>0.5933985149250066</v>
+        <v>0.4554117571546413</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06645366919535318</v>
+        <v>0.1509926974476005</v>
       </c>
       <c r="N160" t="n">
-        <v>0.9569191144938988</v>
+        <v>0.7372433866601621</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0711809576031642</v>
+        <v>0.1509596104146362</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04908181901443127</v>
+        <v>0.03954560584622523</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07298614179320551</v>
+        <v>0.1521344422955689</v>
       </c>
       <c r="J161" t="n">
-        <v>0.2277562944464016</v>
+        <v>0.1799528668559542</v>
       </c>
       <c r="K161" t="n">
-        <v>0.0700692375430963</v>
+        <v>0.1525683189120195</v>
       </c>
       <c r="L161" t="n">
-        <v>0.5939234510318318</v>
+        <v>0.4649081208410162</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06715318150267269</v>
+        <v>0.1525820942628384</v>
       </c>
       <c r="N161" t="n">
-        <v>0.9543530369728265</v>
+        <v>0.7516988058410491</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07193023084109225</v>
+        <v>0.1525486589453166</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04901931149613133</v>
+        <v>0.03901483180186599</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07374641410355141</v>
+        <v>0.153719176069481</v>
       </c>
       <c r="J162" t="n">
-        <v>0.2266456258122182</v>
+        <v>0.1828683041606617</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07079912543417023</v>
+        <v>0.1541575722340197</v>
       </c>
       <c r="L162" t="n">
-        <v>0.5952201712766718</v>
+        <v>0.4708168660010545</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06785269380999219</v>
+        <v>0.1541714910780763</v>
       </c>
       <c r="N162" t="n">
-        <v>0.9567331571231411</v>
+        <v>0.7560825410775512</v>
       </c>
       <c r="O162" t="n">
-        <v>0.0726795040790203</v>
+        <v>0.154137707475997</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04695547773431548</v>
+        <v>0.03643489808739531</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07450668641389729</v>
+        <v>0.1553039098433932</v>
       </c>
       <c r="J163" t="n">
-        <v>0.2281341528239813</v>
+        <v>0.1840820494987663</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07152901332524415</v>
+        <v>0.1557468255560199</v>
       </c>
       <c r="L163" t="n">
-        <v>0.5958801419899156</v>
+        <v>0.4727082988193531</v>
       </c>
       <c r="M163" t="n">
-        <v>0.06855220611731169</v>
+        <v>0.1557608878933142</v>
       </c>
       <c r="N163" t="n">
-        <v>0.9511564876611477</v>
+        <v>0.767124653484126</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07342877731694834</v>
+        <v>0.1557267560066774</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.045890629499882</v>
+        <v>0.03980012738324824</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07526695872424319</v>
+        <v>0.1568886436173054</v>
       </c>
       <c r="J164" t="n">
-        <v>0.2273218830750219</v>
+        <v>0.1858225766549821</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07225890121631806</v>
+        <v>0.1573360788780201</v>
       </c>
       <c r="L164" t="n">
-        <v>0.6004948295019518</v>
+        <v>0.479295718510238</v>
       </c>
       <c r="M164" t="n">
-        <v>0.0692517184246312</v>
+        <v>0.1573502847085521</v>
       </c>
       <c r="N164" t="n">
-        <v>0.9547200413031495</v>
+        <v>0.7753343407013461</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07417805055487639</v>
+        <v>0.1573158045373578</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04882507856372911</v>
+        <v>0.03915186275484513</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07602723103458908</v>
+        <v>0.1584733773912176</v>
       </c>
       <c r="J165" t="n">
-        <v>0.2272088241586713</v>
+        <v>0.1877574621243905</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07298878910739198</v>
+        <v>0.1589253322000203</v>
       </c>
       <c r="L165" t="n">
-        <v>0.5990557001431693</v>
+        <v>0.4840066774027254</v>
       </c>
       <c r="M165" t="n">
-        <v>0.06995123073195071</v>
+        <v>0.15893968152379</v>
       </c>
       <c r="N165" t="n">
-        <v>0.9606208307654508</v>
+        <v>0.778015716963336</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07492732379280442</v>
+        <v>0.1589048530680382</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0447591366967551</v>
+        <v>0.04049534115470321</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07678750334493496</v>
+        <v>0.1600581111651297</v>
       </c>
       <c r="J166" t="n">
-        <v>0.2265949836682604</v>
+        <v>0.188353329467886</v>
       </c>
       <c r="K166" t="n">
-        <v>0.0737186769984659</v>
+        <v>0.1605145855220205</v>
       </c>
       <c r="L166" t="n">
-        <v>0.6003542202439572</v>
+        <v>0.484817085814587</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07065074303927021</v>
+        <v>0.1605290783390279</v>
       </c>
       <c r="N166" t="n">
-        <v>0.9572558687643559</v>
+        <v>0.7822353683874962</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07567659703073247</v>
+        <v>0.1604939015987185</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0466931156698582</v>
+        <v>0.04083117201155963</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07754777565528086</v>
+        <v>0.1616428449390419</v>
       </c>
       <c r="J167" t="n">
-        <v>0.2282803691971205</v>
+        <v>0.1899130077842725</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07444856488953983</v>
+        <v>0.1621038388440207</v>
       </c>
       <c r="L167" t="n">
-        <v>0.5998818561347042</v>
+        <v>0.4911342303249765</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07135025534658972</v>
+        <v>0.1621184751542658</v>
       </c>
       <c r="N167" t="n">
-        <v>0.9569221680161687</v>
+        <v>0.7914050305487111</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07642587026866052</v>
+        <v>0.1620829501293989</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04662732725393666</v>
+        <v>0.0391599647541515</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07830804796562675</v>
+        <v>0.1632275787129541</v>
       </c>
       <c r="J168" t="n">
-        <v>0.2263649883385827</v>
+        <v>0.1914393261723536</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07517845278061375</v>
+        <v>0.1636930921660209</v>
       </c>
       <c r="L168" t="n">
-        <v>0.6037300741457995</v>
+        <v>0.4967653975130466</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07204976765390923</v>
+        <v>0.1637078719695037</v>
       </c>
       <c r="N168" t="n">
-        <v>0.960716741237193</v>
+        <v>0.8026364390218671</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07717514350658856</v>
+        <v>0.1636719986600793</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04756208321988876</v>
+        <v>0.04048232881121601</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07906832027597265</v>
+        <v>0.1648123124868663</v>
       </c>
       <c r="J169" t="n">
-        <v>0.2280488486859781</v>
+        <v>0.195135113730933</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07590834067168765</v>
+        <v>0.1652823454880211</v>
       </c>
       <c r="L169" t="n">
-        <v>0.6018903406076317</v>
+        <v>0.4992178739579509</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07274927996122874</v>
+        <v>0.1652972687847416</v>
       </c>
       <c r="N169" t="n">
-        <v>0.9544350049942917</v>
+        <v>0.8077413293818488</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0779244167445166</v>
+        <v>0.1652610471907597</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04549769533861271</v>
+        <v>0.03979887361149026</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07982859258631853</v>
+        <v>0.1663970462607784</v>
       </c>
       <c r="J170" t="n">
-        <v>0.226531957832638</v>
+        <v>0.1960031995588144</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07663822856276158</v>
+        <v>0.1668715988100213</v>
       </c>
       <c r="L170" t="n">
-        <v>0.5998541218505898</v>
+        <v>0.5020989462388425</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07344879226854824</v>
+        <v>0.1668866655999795</v>
       </c>
       <c r="N170" t="n">
-        <v>0.9613376143812357</v>
+        <v>0.811231437203542</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07867368998244464</v>
+        <v>0.1668500957214401</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0444344753810068</v>
+        <v>0.04011020858371142</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08058886489666443</v>
+        <v>0.1679817800346906</v>
       </c>
       <c r="J171" t="n">
-        <v>0.2276143233718935</v>
+        <v>0.1965464127548014</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07736811645383551</v>
+        <v>0.1684608521320215</v>
       </c>
       <c r="L171" t="n">
-        <v>0.6050128842050628</v>
+        <v>0.504415900934875</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07414830457586775</v>
+        <v>0.1684760624152174</v>
       </c>
       <c r="N171" t="n">
-        <v>0.960711498392557</v>
+        <v>0.8212184980618319</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07942296322037269</v>
+        <v>0.1684391442521205</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04737273511796927</v>
+        <v>0.04341694315661659</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08134913720701031</v>
+        <v>0.1695665138086028</v>
       </c>
       <c r="J172" t="n">
-        <v>0.2276959528970755</v>
+        <v>0.1982675824176979</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07809800434490943</v>
+        <v>0.1700501054540217</v>
       </c>
       <c r="L172" t="n">
-        <v>0.6039580940014396</v>
+        <v>0.5123760246252013</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07484781688318726</v>
+        <v>0.1700654592304553</v>
       </c>
       <c r="N172" t="n">
-        <v>0.9548604010563778</v>
+        <v>0.8253142475316041</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08017223645830074</v>
+        <v>0.1700281927828008</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04631278632039836</v>
+        <v>0.04271968675894296</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08210940951735619</v>
+        <v>0.1711512475825149</v>
       </c>
       <c r="J173" t="n">
-        <v>0.2260768540015154</v>
+        <v>0.2004695376463073</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07882789223598334</v>
+        <v>0.1716393587760219</v>
       </c>
       <c r="L173" t="n">
-        <v>0.6009812175701088</v>
+        <v>0.5131866038889749</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07554732919050677</v>
+        <v>0.1716548560456932</v>
       </c>
       <c r="N173" t="n">
-        <v>0.9565880664008198</v>
+        <v>0.8289304211877434</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08092150969622877</v>
+        <v>0.1716172413134812</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04425494075919234</v>
+        <v>0.04401904881942764</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0828696818277021</v>
+        <v>0.1727359813564271</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2260570342785442</v>
+        <v>0.2006551075394335</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07955778012705726</v>
+        <v>0.1732286120980221</v>
       </c>
       <c r="L174" t="n">
-        <v>0.6031737212414595</v>
+        <v>0.5176549253053491</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07624684149782628</v>
+        <v>0.1732442528609311</v>
       </c>
       <c r="N174" t="n">
-        <v>0.9560982384540059</v>
+        <v>0.837778754605136</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08167078293415683</v>
+        <v>0.1732062898441616</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04719951020524946</v>
+        <v>0.0433156387668078</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08362995413804798</v>
+        <v>0.1743207151303393</v>
       </c>
       <c r="J175" t="n">
-        <v>0.2275365013214931</v>
+        <v>0.2034271211958801</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08028766801813118</v>
+        <v>0.1748178654200223</v>
       </c>
       <c r="L175" t="n">
-        <v>0.6018469098669732</v>
+        <v>0.520388275453477</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07694635380514578</v>
+        <v>0.174833649676169</v>
       </c>
       <c r="N175" t="n">
-        <v>0.9527946612440582</v>
+        <v>0.8391709833586668</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08242005617208488</v>
+        <v>0.174795338374842</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04414680642946796</v>
+        <v>0.04262184753569469</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08439022644839388</v>
+        <v>0.1759054489042515</v>
       </c>
       <c r="J176" t="n">
-        <v>0.2267152627236931</v>
+        <v>0.2050195684677499</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08101755590920511</v>
+        <v>0.1764071187420225</v>
       </c>
       <c r="L176" t="n">
-        <v>0.6027356926876617</v>
+        <v>0.5222725245696578</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07764586611246529</v>
+        <v>0.1764230464914069</v>
       </c>
       <c r="N176" t="n">
-        <v>0.9540810787990984</v>
+        <v>0.8484519941882921</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08316932941001291</v>
+        <v>0.1763843869055224</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04809699909648646</v>
+        <v>0.04494375189534798</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08515049875873977</v>
+        <v>0.1774901826781636</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2281933260784756</v>
+        <v>0.2047918584318197</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08174744380027903</v>
+        <v>0.1779963720640227</v>
       </c>
       <c r="L177" t="n">
-        <v>0.604343162154292</v>
+        <v>0.5285626085649416</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0783453784197848</v>
+        <v>0.1780124433066448</v>
       </c>
       <c r="N177" t="n">
-        <v>0.9551612351472488</v>
+        <v>0.8558636951441742</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08391860264794096</v>
+        <v>0.1779734354362027</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04504885337361798</v>
+        <v>0.04527088816173164</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08591077106908566</v>
+        <v>0.1790749164520758</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2279706989791716</v>
+        <v>0.2058003909268726</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08247733169135293</v>
+        <v>0.1795856253860229</v>
       </c>
       <c r="L178" t="n">
-        <v>0.6027715842779443</v>
+        <v>0.5341470129361054</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0790448907271043</v>
+        <v>0.1796018401218827</v>
       </c>
       <c r="N178" t="n">
-        <v>0.9540388743166318</v>
+        <v>0.8571234951993359</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08466787588586901</v>
+        <v>0.1795624839668831</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04600189374066845</v>
+        <v>0.04559278742400835</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08667104337943154</v>
+        <v>0.180659650225988</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2262471739815961</v>
+        <v>0.2090965670252227</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08320721958242686</v>
+        <v>0.1811748787080231</v>
       </c>
       <c r="L179" t="n">
-        <v>0.6050232250696989</v>
+        <v>0.5363005671048422</v>
       </c>
       <c r="M179" t="n">
-        <v>0.07974440303442382</v>
+        <v>0.1811912369371206</v>
       </c>
       <c r="N179" t="n">
-        <v>0.9505177403353692</v>
+        <v>0.8635297978756112</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08541714912379705</v>
+        <v>0.1811515324975635</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04595597257645229</v>
+        <v>0.04389898077134066</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08743131568977744</v>
+        <v>0.1822443839999002</v>
       </c>
       <c r="J180" t="n">
-        <v>0.2267025681607673</v>
+        <v>0.2093317877991843</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08393710747350079</v>
+        <v>0.1827641320300233</v>
       </c>
       <c r="L180" t="n">
-        <v>0.6015003505406359</v>
+        <v>0.5409981004928441</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08044391534174332</v>
+        <v>0.1827806337523585</v>
       </c>
       <c r="N180" t="n">
-        <v>0.9479015772315834</v>
+        <v>0.872881006694835</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08616642236172509</v>
+        <v>0.1827405810282439</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.047910942259784</v>
+        <v>0.04617899929289124</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08819158800012333</v>
+        <v>0.1838291177738124</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2264245912139863</v>
+        <v>0.2119574543210717</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08466699536457471</v>
+        <v>0.1843533853520235</v>
       </c>
       <c r="L181" t="n">
-        <v>0.6023052267018354</v>
+        <v>0.5417144425218039</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08114342764906284</v>
+        <v>0.1843700305675964</v>
       </c>
       <c r="N181" t="n">
-        <v>0.9464941290333969</v>
+        <v>0.8782755251788418</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08691569559965313</v>
+        <v>0.1843296295589243</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04786665516947804</v>
+        <v>0.04642237407782274</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08895186031046921</v>
+        <v>0.1854138515477245</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2275145728479163</v>
+        <v>0.212224967663199</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08539688325564862</v>
+        <v>0.1859426386740237</v>
       </c>
       <c r="L182" t="n">
-        <v>0.6012401195643777</v>
+        <v>0.5455244226134139</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08184293995638234</v>
+        <v>0.1859594273828343</v>
       </c>
       <c r="N182" t="n">
-        <v>0.946199139768931</v>
+        <v>0.8804117568494653</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08766496883758118</v>
+        <v>0.1859186780896047</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04682296368434888</v>
+        <v>0.04461863621529773</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08971213262081512</v>
+        <v>0.1869985853216367</v>
       </c>
       <c r="J183" t="n">
-        <v>0.2260738427692206</v>
+        <v>0.2132857288978808</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08612677114672254</v>
+        <v>0.1875318919960239</v>
       </c>
       <c r="L183" t="n">
-        <v>0.6000072951393428</v>
+        <v>0.5468028701893672</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08254245226370183</v>
+        <v>0.1875488241980722</v>
       </c>
       <c r="N183" t="n">
-        <v>0.948920353466309</v>
+        <v>0.8833881052285407</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08841424207550923</v>
+        <v>0.187507726620285</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04777972018321103</v>
+        <v>0.04575864772615675</v>
       </c>
       <c r="G184" t="n">
-        <v>0.090472404931161</v>
+        <v>0.1885833190955489</v>
       </c>
       <c r="J184" t="n">
-        <v>0.2254037306845621</v>
+        <v>0.213791139097431</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08685665903779646</v>
+        <v>0.1891211453180241</v>
       </c>
       <c r="L184" t="n">
-        <v>0.5989090194378111</v>
+        <v>0.5511246146713559</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08324196457102134</v>
+        <v>0.1891382210133101</v>
       </c>
       <c r="N184" t="n">
-        <v>0.942061514153652</v>
+        <v>0.8924029738379019</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08916351531343726</v>
+        <v>0.1890967751509654</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04373677704487892</v>
+        <v>0.04587695250218889</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0912326772415069</v>
+        <v>0.1901680528694611</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2253055663006039</v>
+        <v>0.2148398952980368</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08758654692887038</v>
+        <v>0.1907103986400243</v>
       </c>
       <c r="L185" t="n">
-        <v>0.5966475584708623</v>
+        <v>0.5521380909903058</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08394147687834085</v>
+        <v>0.190727617828548</v>
       </c>
       <c r="N185" t="n">
-        <v>0.9417263658590828</v>
+        <v>0.8923791649501688</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08991278855136531</v>
+        <v>0.1906858236816458</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04369398664816705</v>
+        <v>0.04299275707992456</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09199294955185279</v>
+        <v>0.1917527866433732</v>
       </c>
       <c r="J186" t="n">
-        <v>0.2264806793240092</v>
+        <v>0.215477030760193</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08831643481994429</v>
+        <v>0.1922996519620245</v>
       </c>
       <c r="L186" t="n">
-        <v>0.5961251782495771</v>
+        <v>0.5536214903587369</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08464098918566036</v>
+        <v>0.1923170146437859</v>
       </c>
       <c r="N186" t="n">
-        <v>0.9425186526107233</v>
+        <v>0.8943073791510677</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09066206178929336</v>
+        <v>0.1922748722123262</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.04365120137188988</v>
+        <v>0.04410602293235522</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09275322186219867</v>
+        <v>0.1933375204172854</v>
       </c>
       <c r="J187" t="n">
-        <v>0.2255303994614411</v>
+        <v>0.2150024541029488</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08904632271101821</v>
+        <v>0.1938889052840247</v>
       </c>
       <c r="L187" t="n">
-        <v>0.5975441447850353</v>
+        <v>0.5554747301572527</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08534050149297986</v>
+        <v>0.1939064114590238</v>
       </c>
       <c r="N187" t="n">
-        <v>0.9407421184366956</v>
+        <v>0.8930869958031261</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0914113350272214</v>
+        <v>0.1938639207430065</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.04760827359486192</v>
+        <v>0.04721671153247235</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09351349417254456</v>
+        <v>0.1949222541911976</v>
       </c>
       <c r="J188" t="n">
-        <v>0.2244560564195628</v>
+        <v>0.217215986475674</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08977621060209214</v>
+        <v>0.1954781586060249</v>
       </c>
       <c r="L188" t="n">
-        <v>0.5944067240883171</v>
+        <v>0.5570973497411869</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08604001380029937</v>
+        <v>0.1954958082742617</v>
       </c>
       <c r="N188" t="n">
-        <v>0.9352005073651221</v>
+        <v>0.8957172730040249</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09216060826514945</v>
+        <v>0.1954529692736869</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.04356505569589759</v>
+        <v>0.04532478435326751</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09427376648289046</v>
+        <v>0.1965069879651098</v>
       </c>
       <c r="J189" t="n">
-        <v>0.2242589799050371</v>
+        <v>0.2165174490277386</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09050609849316607</v>
+        <v>0.1970674119280251</v>
       </c>
       <c r="L189" t="n">
-        <v>0.5935151821705028</v>
+        <v>0.558788888465874</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08673952610761888</v>
+        <v>0.1970852050894996</v>
       </c>
       <c r="N189" t="n">
-        <v>0.936297563424125</v>
+        <v>0.8969974688514449</v>
       </c>
       <c r="O189" t="n">
-        <v>0.0929098815030775</v>
+        <v>0.1970420178043673</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0465214000538114</v>
+        <v>0.04343020286773214</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09503403879323635</v>
+        <v>0.1980917217390219</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2245404996245274</v>
+        <v>0.2182066629085124</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09123598638423998</v>
+        <v>0.1986566652500253</v>
       </c>
       <c r="L190" t="n">
-        <v>0.5951717850426725</v>
+        <v>0.5603488856866479</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08743903841493839</v>
+        <v>0.1986746019047375</v>
       </c>
       <c r="N190" t="n">
-        <v>0.9318370306418265</v>
+        <v>0.9005268414430673</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09365915474100554</v>
+        <v>0.1986310663350477</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.04347715904741781</v>
+        <v>0.04453292854885776</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09579431110358223</v>
+        <v>0.1996764555129341</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2248019452846968</v>
+        <v>0.2165834492673652</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0919658742753139</v>
+        <v>0.2002459185720256</v>
       </c>
       <c r="L191" t="n">
-        <v>0.5906787987159063</v>
+        <v>0.5613768807588426</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08813855072225789</v>
+        <v>0.2002639987199754</v>
       </c>
       <c r="N191" t="n">
-        <v>0.9320226530463483</v>
+        <v>0.9010046488765721</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09440842797893358</v>
+        <v>0.2002201148657281</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.04543218505553132</v>
+        <v>0.04763292286963587</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09655458341392813</v>
+        <v>0.2012611892868463</v>
       </c>
       <c r="J192" t="n">
-        <v>0.2252446465922083</v>
+        <v>0.217347629253667</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09269576216638782</v>
+        <v>0.2018351718940257</v>
       </c>
       <c r="L192" t="n">
-        <v>0.5951384892012844</v>
+        <v>0.5639724130377926</v>
       </c>
       <c r="M192" t="n">
-        <v>0.0888380630295774</v>
+        <v>0.2018533955352133</v>
       </c>
       <c r="N192" t="n">
-        <v>0.9252581746658132</v>
+        <v>0.9069301492496412</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09515770121686162</v>
+        <v>0.2018091633964085</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.04638633045696636</v>
+        <v>0.04573014730305794</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09731485572427402</v>
+        <v>0.2028459230607585</v>
       </c>
       <c r="J193" t="n">
-        <v>0.2228699332537251</v>
+        <v>0.2175990240167874</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09342565005746174</v>
+        <v>0.2034244252160259</v>
       </c>
       <c r="L193" t="n">
-        <v>0.592953122509887</v>
+        <v>0.5625350218788315</v>
       </c>
       <c r="M193" t="n">
-        <v>0.08953757533689691</v>
+        <v>0.2034427923504512</v>
       </c>
       <c r="N193" t="n">
-        <v>0.9308473395283431</v>
+        <v>0.909902600659955</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09590697445478967</v>
+        <v>0.2033982119270888</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.04533944763053742</v>
+        <v>0.04782456332211552</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0980751280346199</v>
+        <v>0.2044306568346706</v>
       </c>
       <c r="J194" t="n">
-        <v>0.2227791349759102</v>
+        <v>0.2194374547060965</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09415553794853566</v>
+        <v>0.2050136785380262</v>
       </c>
       <c r="L194" t="n">
-        <v>0.5922249646527942</v>
+        <v>0.562764246637294</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09023708764421641</v>
+        <v>0.2050321891656891</v>
       </c>
       <c r="N194" t="n">
-        <v>0.9274938916620598</v>
+        <v>0.9063212612051949</v>
       </c>
       <c r="O194" t="n">
-        <v>0.0966562476927177</v>
+        <v>0.2049872604577692</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.04729138895505899</v>
+        <v>0.04591613239980005</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09883540034496581</v>
+        <v>0.2060153906085828</v>
       </c>
       <c r="J195" t="n">
-        <v>0.2221735814654269</v>
+        <v>0.218562742470964</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09488542583960957</v>
+        <v>0.2066029318600263</v>
       </c>
       <c r="L195" t="n">
-        <v>0.5865562816410863</v>
+        <v>0.5671596266685138</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09093659995153593</v>
+        <v>0.206621585980927</v>
       </c>
       <c r="N195" t="n">
-        <v>0.9177015750950858</v>
+        <v>0.9124853889830414</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09740552093064575</v>
+        <v>0.2065763089884496</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.04324200680934553</v>
+        <v>0.04800481600910306</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09959567265531169</v>
+        <v>0.207600124382495</v>
       </c>
       <c r="J196" t="n">
-        <v>0.223454602428938</v>
+        <v>0.2202747084607599</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09561531373068349</v>
+        <v>0.2081921851820266</v>
       </c>
       <c r="L196" t="n">
-        <v>0.5882493394858431</v>
+        <v>0.5685207013278253</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09163611225885543</v>
+        <v>0.2082109827961649</v>
       </c>
       <c r="N196" t="n">
-        <v>0.9230741338555436</v>
+        <v>0.9131942420911751</v>
       </c>
       <c r="O196" t="n">
-        <v>0.0981547941685738</v>
+        <v>0.20816535751913</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.04619115357221154</v>
+        <v>0.04609057562301604</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1003559449656576</v>
+        <v>0.2091848581564072</v>
       </c>
       <c r="J197" t="n">
-        <v>0.221423527573107</v>
+        <v>0.2209731738248538</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09634520162175741</v>
+        <v>0.2097814385040268</v>
       </c>
       <c r="L197" t="n">
-        <v>0.5859064041981452</v>
+        <v>0.5662470099705623</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09233562456617495</v>
+        <v>0.2098003796114028</v>
       </c>
       <c r="N197" t="n">
-        <v>0.9167153119715546</v>
+        <v>0.9139470786272775</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09890406740650184</v>
+        <v>0.2097544060498104</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.04713868162247145</v>
+        <v>0.04717337271453048</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1011162172760035</v>
+        <v>0.2107695919303193</v>
       </c>
       <c r="J198" t="n">
-        <v>0.2223816866045966</v>
+        <v>0.220657959712616</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09707508951283135</v>
+        <v>0.211370691826027</v>
       </c>
       <c r="L198" t="n">
-        <v>0.5840297417890725</v>
+        <v>0.5654380919520591</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09303513687349445</v>
+        <v>0.2113897764266407</v>
       </c>
       <c r="N198" t="n">
-        <v>0.9131288534712417</v>
+        <v>0.9158431566890296</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09965334064442988</v>
+        <v>0.2113434545804908</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.04608444333893977</v>
+        <v>0.04525316875663786</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1018764895863494</v>
+        <v>0.2123543257042315</v>
       </c>
       <c r="J199" t="n">
-        <v>0.2208304092300703</v>
+        <v>0.2214288872734158</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09780497740390526</v>
+        <v>0.2129599451480272</v>
       </c>
       <c r="L199" t="n">
-        <v>0.5806216182697052</v>
+        <v>0.5672934866276498</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09373464918081395</v>
+        <v>0.2129791732418786</v>
       </c>
       <c r="N199" t="n">
-        <v>0.9170185023827268</v>
+        <v>0.920381734374112</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1004026138823579</v>
+        <v>0.2129325031111711</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.04302829110043095</v>
+        <v>0.0463299252223297</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1026367618966953</v>
+        <v>0.2139390594781437</v>
       </c>
       <c r="J200" t="n">
-        <v>0.2200710251561909</v>
+        <v>0.2220857776566235</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09853486529497918</v>
+        <v>0.2145491984700274</v>
       </c>
       <c r="L200" t="n">
-        <v>0.5814842996511236</v>
+        <v>0.5683127333526686</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09443416148813347</v>
+        <v>0.2145685700571165</v>
       </c>
       <c r="N200" t="n">
-        <v>0.9084880027341319</v>
+        <v>0.9162620697802056</v>
       </c>
       <c r="O200" t="n">
-        <v>0.101151887120286</v>
+        <v>0.2145215516418515</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.04397007728575951</v>
+        <v>0.04640360358459752</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1033970342070411</v>
+        <v>0.2155237932520558</v>
       </c>
       <c r="J201" t="n">
-        <v>0.2209048640896217</v>
+        <v>0.2209284520116087</v>
       </c>
       <c r="K201" t="n">
-        <v>0.0992647531860531</v>
+        <v>0.2161384517920276</v>
       </c>
       <c r="L201" t="n">
-        <v>0.5820200519444078</v>
+        <v>0.5684953714824494</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09513367379545297</v>
+        <v>0.2161579668723544</v>
       </c>
       <c r="N201" t="n">
-        <v>0.9096410985535789</v>
+        <v>0.9173834210049913</v>
       </c>
       <c r="O201" t="n">
-        <v>0.101901160358214</v>
+        <v>0.2161106001725319</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.04290965427373986</v>
+        <v>0.04547416531643278</v>
       </c>
       <c r="G202" t="n">
-        <v>0.104157306517387</v>
+        <v>0.2171085270259681</v>
       </c>
       <c r="J202" t="n">
-        <v>0.2205332557370258</v>
+        <v>0.2215567314877414</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09999464107712702</v>
+        <v>0.2177277051140278</v>
       </c>
       <c r="L202" t="n">
-        <v>0.5772311411606376</v>
+        <v>0.5730409403723267</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09583318610277247</v>
+        <v>0.2177473636875923</v>
       </c>
       <c r="N202" t="n">
-        <v>0.9025815338691908</v>
+        <v>0.9206450461461501</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1026504335961421</v>
+        <v>0.2176996487032123</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.04384687444318651</v>
+        <v>0.04454157189082697</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1049175788277329</v>
+        <v>0.2186932607998802</v>
       </c>
       <c r="J203" t="n">
-        <v>0.2204575298050663</v>
+        <v>0.2224704372343913</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1007245289682009</v>
+        <v>0.219316958436028</v>
       </c>
       <c r="L203" t="n">
-        <v>0.5765198333108936</v>
+        <v>0.5725489793776342</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09653269841009199</v>
+        <v>0.2193367605028302</v>
       </c>
       <c r="N203" t="n">
-        <v>0.9078130527090894</v>
+        <v>0.920746203301363</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1033997068340701</v>
+        <v>0.2192886972338927</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.04278159017291393</v>
+        <v>0.04560578478077162</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1056778511380788</v>
+        <v>0.2202779945737924</v>
       </c>
       <c r="J204" t="n">
-        <v>0.2186790160004061</v>
+        <v>0.2236693904009284</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1014544168592749</v>
+        <v>0.2209062117580282</v>
       </c>
       <c r="L204" t="n">
-        <v>0.5761883944062558</v>
+        <v>0.5726190278537062</v>
       </c>
       <c r="M204" t="n">
-        <v>0.09723221071741148</v>
+        <v>0.2209261573180681</v>
       </c>
       <c r="N204" t="n">
-        <v>0.903339399101397</v>
+        <v>0.9260861505683108</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1041489800719982</v>
+        <v>0.2208777457645731</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.04571367636257606</v>
+        <v>0.04766676545925819</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1064381234484247</v>
+        <v>0.2218627283477045</v>
       </c>
       <c r="J205" t="n">
-        <v>0.2185990440297086</v>
+        <v>0.2231534121367226</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1021843047503488</v>
+        <v>0.2224954650800284</v>
       </c>
       <c r="L205" t="n">
-        <v>0.5729390904578044</v>
+        <v>0.5730506251558768</v>
       </c>
       <c r="M205" t="n">
-        <v>0.09793172302473099</v>
+        <v>0.222515554133306</v>
       </c>
       <c r="N205" t="n">
-        <v>0.8948643170742351</v>
+        <v>0.9209641460446746</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1048982533099262</v>
+        <v>0.2224667942952535</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0426432259578699</v>
+        <v>0.04572447539927821</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1071983957587706</v>
+        <v>0.2234474621216168</v>
       </c>
       <c r="J206" t="n">
-        <v>0.2178189435996367</v>
+        <v>0.2230223235911435</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1029141926414227</v>
+        <v>0.2240847184020286</v>
       </c>
       <c r="L206" t="n">
-        <v>0.5744741874766196</v>
+        <v>0.5724433106394803</v>
       </c>
       <c r="M206" t="n">
-        <v>0.0986312353320505</v>
+        <v>0.2241049509485439</v>
       </c>
       <c r="N206" t="n">
-        <v>0.8985915506557264</v>
+        <v>0.9293794478281346</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1056475265478542</v>
+        <v>0.2240558428259338</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.04457028542646886</v>
+        <v>0.04677887607382315</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1079586680691165</v>
+        <v>0.2250321958955289</v>
       </c>
       <c r="J207" t="n">
-        <v>0.2174400444168538</v>
+        <v>0.2239759459135612</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1036440805324966</v>
+        <v>0.2256739717240288</v>
       </c>
       <c r="L207" t="n">
-        <v>0.5696959514737815</v>
+        <v>0.5770966236598504</v>
       </c>
       <c r="M207" t="n">
-        <v>0.09933074763937</v>
+        <v>0.2256943477637818</v>
       </c>
       <c r="N207" t="n">
-        <v>0.8901248438739932</v>
+        <v>0.930431314016373</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1063967997857823</v>
+        <v>0.2256448913566142</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.04349486883129307</v>
+        <v>0.04682992895588453</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1087189403794624</v>
+        <v>0.2266169296694411</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2164636761880228</v>
+        <v>0.2246141002533454</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1043739684235705</v>
+        <v>0.227263225046029</v>
       </c>
       <c r="L208" t="n">
-        <v>0.5714066484603701</v>
+        <v>0.5751101035723217</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1000302599466895</v>
+        <v>0.2272837445790197</v>
       </c>
       <c r="N208" t="n">
-        <v>0.8949509873035043</v>
+        <v>0.9291190027070696</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1071460730237103</v>
+        <v>0.2272339398872946</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.04541699023526252</v>
+        <v>0.04487759551845383</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1094792126898083</v>
+        <v>0.2282016634433532</v>
       </c>
       <c r="J209" t="n">
-        <v>0.2162911686198066</v>
+        <v>0.2239366077598661</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1051038563146445</v>
+        <v>0.2288524783680292</v>
       </c>
       <c r="L209" t="n">
-        <v>0.5681085444474658</v>
+        <v>0.5756832897322279</v>
       </c>
       <c r="M209" t="n">
-        <v>0.100729772254009</v>
+        <v>0.2288731413942576</v>
       </c>
       <c r="N209" t="n">
-        <v>0.8894905543537918</v>
+        <v>0.9329417719979057</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1078953462616384</v>
+        <v>0.228822988417975</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.04333666370129732</v>
+        <v>0.04892183723452255</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1102394850001542</v>
+        <v>0.2297863972172655</v>
       </c>
       <c r="J210" t="n">
-        <v>0.2150238514188688</v>
+        <v>0.223143289582493</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1058337442057184</v>
+        <v>0.2304417316900294</v>
       </c>
       <c r="L210" t="n">
-        <v>0.5674039054461486</v>
+        <v>0.5748157214949033</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1014292845613285</v>
+        <v>0.2304625382094955</v>
       </c>
       <c r="N210" t="n">
-        <v>0.8912337273452754</v>
+        <v>0.9300988799865623</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1086446194995664</v>
+        <v>0.2304120369486553</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0422539032923175</v>
+        <v>0.0479626155770822</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1109997573105001</v>
+        <v>0.2313711309911776</v>
       </c>
       <c r="J211" t="n">
-        <v>0.2145630542918722</v>
+        <v>0.2243339668705961</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1065636320967923</v>
+        <v>0.2320309850120296</v>
       </c>
       <c r="L211" t="n">
-        <v>0.5670949974674988</v>
+        <v>0.5759069382156822</v>
       </c>
       <c r="M211" t="n">
-        <v>0.102128796868648</v>
+        <v>0.2320519350247334</v>
       </c>
       <c r="N211" t="n">
-        <v>0.8829814415224005</v>
+        <v>0.9302895847707203</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1093938927374945</v>
+        <v>0.2320010854793357</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.04216872307124314</v>
+        <v>0.04899989201912426</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1117600296208459</v>
+        <v>0.2329558647650898</v>
       </c>
       <c r="J212" t="n">
-        <v>0.2156055600084659</v>
+        <v>0.2249084607735451</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1072935199878662</v>
+        <v>0.2336202383340298</v>
       </c>
       <c r="L212" t="n">
-        <v>0.5604840865225965</v>
+        <v>0.5794564792498984</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1028283091759675</v>
+        <v>0.2336413318399713</v>
       </c>
       <c r="N212" t="n">
-        <v>0.8833346321296126</v>
+        <v>0.9316131444480603</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1101431659754225</v>
+        <v>0.2335901340100161</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.0460811371009943</v>
+        <v>0.04803362803364024</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1125203019311918</v>
+        <v>0.234540598539002</v>
       </c>
       <c r="J213" t="n">
-        <v>0.2144395332163253</v>
+        <v>0.22516659244071</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1080234078789401</v>
+        <v>0.23520949165603</v>
       </c>
       <c r="L213" t="n">
-        <v>0.561273438622522</v>
+        <v>0.5764638839528862</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1035278214832871</v>
+        <v>0.2352307286552092</v>
       </c>
       <c r="N213" t="n">
-        <v>0.877794234411356</v>
+        <v>0.9356688171162638</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1108924392133506</v>
+        <v>0.2351791825406965</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.04399115944449103</v>
+        <v>0.04806378509362162</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1132805742415377</v>
+        <v>0.2361253323129142</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2135643151103334</v>
+        <v>0.2245081830214605</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1087532957700141</v>
+        <v>0.2367987449780302</v>
       </c>
       <c r="L214" t="n">
-        <v>0.5574653197783551</v>
+        <v>0.5790286916799798</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1042273337906066</v>
+        <v>0.2368201254704471</v>
       </c>
       <c r="N214" t="n">
-        <v>0.8718611836120768</v>
+        <v>0.934855860873011</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1116417124512786</v>
+        <v>0.2367682310713769</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0438988041646534</v>
+        <v>0.04509032467205989</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1140408465518836</v>
+        <v>0.2377100660868263</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2129799550434037</v>
+        <v>0.2253330536651666</v>
       </c>
       <c r="K215" t="n">
-        <v>0.109483183661088</v>
+        <v>0.2383879983000304</v>
       </c>
       <c r="L215" t="n">
-        <v>0.5590619960011762</v>
+        <v>0.578150441786513</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1049268460979261</v>
+        <v>0.238409522285685</v>
       </c>
       <c r="N215" t="n">
-        <v>0.8772364149762192</v>
+        <v>0.9323735338159834</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1123909856892066</v>
+        <v>0.2383572796020572</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.04380408532440148</v>
+        <v>0.04811320824194658</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1148011188622295</v>
+        <v>0.2392947998607385</v>
       </c>
       <c r="J216" t="n">
-        <v>0.2122865023684495</v>
+        <v>0.2248410255211982</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1102130715521619</v>
+        <v>0.2399772516220306</v>
       </c>
       <c r="L216" t="n">
-        <v>0.5570657333020654</v>
+        <v>0.5766286736278202</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1056263584052456</v>
+        <v>0.2399989191009229</v>
       </c>
       <c r="N216" t="n">
-        <v>0.8732208637482287</v>
+        <v>0.9294210940428617</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1131402589271347</v>
+        <v>0.2399463281327376</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.04370701698665531</v>
+        <v>0.04713239727627316</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1155613911725754</v>
+        <v>0.2408795336346507</v>
       </c>
       <c r="J217" t="n">
-        <v>0.2128840064383845</v>
+        <v>0.2254319197389249</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1109429594432358</v>
+        <v>0.2415665049440308</v>
       </c>
       <c r="L217" t="n">
-        <v>0.5542787976921031</v>
+        <v>0.5817629265592354</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1063258707125651</v>
+        <v>0.2415883159161608</v>
       </c>
       <c r="N217" t="n">
-        <v>0.8637154651725504</v>
+        <v>0.9340977996513268</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1138895321650627</v>
+        <v>0.241535376663418</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.04260761321433498</v>
+        <v>0.04614785324803114</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1163216634829213</v>
+        <v>0.2424642674085629</v>
       </c>
       <c r="J218" t="n">
-        <v>0.2127725166061221</v>
+        <v>0.2246055574677168</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1116728473343097</v>
+        <v>0.243155758266031</v>
       </c>
       <c r="L218" t="n">
-        <v>0.5532958072638147</v>
+        <v>0.5781527399360928</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1070253830198846</v>
+        <v>0.2431777127313987</v>
       </c>
       <c r="N218" t="n">
-        <v>0.8632211544936296</v>
+        <v>0.9374029087390597</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1146388054029908</v>
+        <v>0.2431244251940984</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.04350588807036054</v>
+        <v>0.04715953763021201</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1170819357932672</v>
+        <v>0.244049001182475</v>
       </c>
       <c r="J219" t="n">
-        <v>0.2114520822245758</v>
+        <v>0.2258617598569436</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1124027352253836</v>
+        <v>0.2447450115880312</v>
       </c>
       <c r="L219" t="n">
-        <v>0.5530682331412454</v>
+        <v>0.5804976531137266</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1077248953272041</v>
+        <v>0.2447671095466366</v>
       </c>
       <c r="N219" t="n">
-        <v>0.8631388669559109</v>
+        <v>0.9362356794037413</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1153880786409188</v>
+        <v>0.2447134737247788</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.04440185561765204</v>
+        <v>0.04816741189580728</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1178422081036131</v>
+        <v>0.2456337349563872</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2121227526466591</v>
+        <v>0.2245003480559752</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1131326231164576</v>
+        <v>0.2463342649100314</v>
       </c>
       <c r="L220" t="n">
-        <v>0.5482877209573076</v>
+        <v>0.5780972054474705</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1084244076345236</v>
+        <v>0.2463565063618745</v>
       </c>
       <c r="N220" t="n">
-        <v>0.8539695378038398</v>
+        <v>0.9306953697430523</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1161373518788469</v>
+        <v>0.2463025222554591</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.04329552991912955</v>
+        <v>0.04517143751780842</v>
       </c>
       <c r="G221" t="n">
-        <v>0.118602480413959</v>
+        <v>0.2472184687302994</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2109845772252856</v>
+        <v>0.2241211432141815</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1138625110075315</v>
+        <v>0.2479235182320316</v>
       </c>
       <c r="L221" t="n">
-        <v>0.5512549856552801</v>
+        <v>0.5809509362926591</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1091239199418431</v>
+        <v>0.2479459031771124</v>
       </c>
       <c r="N221" t="n">
-        <v>0.8558141022818612</v>
+        <v>0.9326812378546739</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1168866251167749</v>
+        <v>0.2478915707861395</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.04418692503771314</v>
+        <v>0.04515887697932619</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1193627527243049</v>
+        <v>0.2488032025042116</v>
       </c>
       <c r="J222" t="n">
-        <v>0.2098376053133686</v>
+        <v>0.2255916602556179</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1145923988986054</v>
+        <v>0.2495127715540318</v>
       </c>
       <c r="L222" t="n">
-        <v>0.5460707421784415</v>
+        <v>0.5781770167850236</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1098234322491626</v>
+        <v>0.2495352999923503</v>
       </c>
       <c r="N222" t="n">
-        <v>0.8533734956344204</v>
+        <v>0.9351542446912612</v>
       </c>
       <c r="O222" t="n">
-        <v>0.117635898354703</v>
+        <v>0.2494806193168199</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.04307605503632284</v>
+        <v>0.04804573098012319</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1201230250346507</v>
+        <v>0.2503879362781237</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2089818862638219</v>
+        <v>0.2252310281907525</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1153222867896793</v>
+        <v>0.2511020248760321</v>
       </c>
       <c r="L223" t="n">
-        <v>0.5466357054700715</v>
+        <v>0.5792959065827943</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1105229445564821</v>
+        <v>0.2511246968075883</v>
       </c>
       <c r="N223" t="n">
-        <v>0.8452486531059625</v>
+        <v>0.9317313159527237</v>
       </c>
       <c r="O223" t="n">
-        <v>0.118385171592631</v>
+        <v>0.2510696678475003</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.04296293397787873</v>
+        <v>0.0468265085274512</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1208832973449966</v>
+        <v>0.2519726700520359</v>
       </c>
       <c r="J224" t="n">
-        <v>0.2084174694295587</v>
+        <v>0.2244728659767036</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1160521746807533</v>
+        <v>0.2526912781980322</v>
       </c>
       <c r="L224" t="n">
-        <v>0.5405505904734488</v>
+        <v>0.5760329502583547</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1112224568638016</v>
+        <v>0.2527140936228262</v>
       </c>
       <c r="N224" t="n">
-        <v>0.8393405099409322</v>
+        <v>0.9277455050709961</v>
       </c>
       <c r="O224" t="n">
-        <v>0.119134444830559</v>
+        <v>0.2526587163781807</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.04384757592530089</v>
+        <v>0.04451322016125896</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1216435696553425</v>
+        <v>0.253557403825948</v>
       </c>
       <c r="J225" t="n">
-        <v>0.2092444041634925</v>
+        <v>0.2229729291138764</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1167820625718272</v>
+        <v>0.2542805315200324</v>
       </c>
       <c r="L225" t="n">
-        <v>0.5403161121318524</v>
+        <v>0.5718317507379805</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1119219691711211</v>
+        <v>0.2543034904380641</v>
       </c>
       <c r="N225" t="n">
-        <v>0.8415500013837752</v>
+        <v>0.9252280951845199</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1198837180684871</v>
+        <v>0.2542477649088611</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.04372999494150936</v>
+        <v>0.04611787642149519</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1224038419656884</v>
+        <v>0.2551421375998603</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2069627398185371</v>
+        <v>0.2204869731026761</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1175119504629011</v>
+        <v>0.2558697848420327</v>
       </c>
       <c r="L226" t="n">
-        <v>0.5377329853885615</v>
+        <v>0.5707359109479482</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1126214814784406</v>
+        <v>0.2558928872533019</v>
       </c>
       <c r="N226" t="n">
-        <v>0.8297780626789358</v>
+        <v>0.9138103694317362</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1206329913064151</v>
+        <v>0.2558368134395415</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.04261020508942423</v>
+        <v>0.04665248784810865</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1231641142760343</v>
+        <v>0.2567268713737724</v>
       </c>
       <c r="J227" t="n">
-        <v>0.2073725257476057</v>
+        <v>0.2182707534435079</v>
       </c>
       <c r="K227" t="n">
-        <v>0.118241838353975</v>
+        <v>0.2574590381640329</v>
       </c>
       <c r="L227" t="n">
-        <v>0.5385019251868551</v>
+        <v>0.561389033814533</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1133209937857601</v>
+        <v>0.2574822840685398</v>
       </c>
       <c r="N227" t="n">
-        <v>0.8302256290708599</v>
+        <v>0.9048236109510867</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1213822645443432</v>
+        <v>0.2574258619702218</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.04248822043196553</v>
+        <v>0.04712906498104805</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1239243865863802</v>
+        <v>0.2583116051476846</v>
       </c>
       <c r="J228" t="n">
-        <v>0.207673811303612</v>
+        <v>0.2168800256367771</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1189717262450489</v>
+        <v>0.259048291486033</v>
       </c>
       <c r="L228" t="n">
-        <v>0.5365236464700122</v>
+        <v>0.5570347222640109</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1140205060930797</v>
+        <v>0.2590716808837777</v>
       </c>
       <c r="N228" t="n">
-        <v>0.8298936358039924</v>
+        <v>0.8920991028810129</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1221315377822712</v>
+        <v>0.2590149105009022</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.04036405503205331</v>
+        <v>0.04255961836026216</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1246846588967261</v>
+        <v>0.2598963389215967</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2053666458394693</v>
+        <v>0.2131705451828887</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1197016141361229</v>
+        <v>0.2606375448080333</v>
       </c>
       <c r="L229" t="n">
-        <v>0.5342988641813121</v>
+        <v>0.5490165792226578</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1147200184003992</v>
+        <v>0.2606610776990156</v>
       </c>
       <c r="N229" t="n">
-        <v>0.8240830181227782</v>
+        <v>0.8896681283599565</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1228808110201993</v>
+        <v>0.2606039590315826</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.04323772295260767</v>
+        <v>0.04195615852569967</v>
       </c>
       <c r="G230" t="n">
-        <v>0.125444931207072</v>
+        <v>0.261481072695509</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2065510787080913</v>
+        <v>0.210998067582248</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1204315020271968</v>
+        <v>0.2622267981300334</v>
       </c>
       <c r="L230" t="n">
-        <v>0.5331282932640333</v>
+        <v>0.5426782076167495</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1154195307077187</v>
+        <v>0.2622504745142535</v>
       </c>
       <c r="N230" t="n">
-        <v>0.8145947112716624</v>
+        <v>0.8757619705263581</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1236300842581273</v>
+        <v>0.262193007562263</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.04210923825654865</v>
+        <v>0.04133069601730936</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1262052035174179</v>
+        <v>0.2630658064694211</v>
       </c>
       <c r="J231" t="n">
-        <v>0.2049271592623912</v>
+        <v>0.2070183483352602</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1211613899182707</v>
+        <v>0.2638160514520336</v>
       </c>
       <c r="L231" t="n">
-        <v>0.5281126486614554</v>
+        <v>0.5344632103725618</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1161190430150382</v>
+        <v>0.2638398713294914</v>
       </c>
       <c r="N231" t="n">
-        <v>0.8132296504950903</v>
+        <v>0.8636119125186604</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1243793574960553</v>
+        <v>0.2637820560929434</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.04197861500679632</v>
+        <v>0.04069524137503992</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1269654758277638</v>
+        <v>0.2646505402433333</v>
       </c>
       <c r="J232" t="n">
-        <v>0.2051949368552829</v>
+        <v>0.2049871429423305</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1218912778093446</v>
+        <v>0.2654053047740338</v>
       </c>
       <c r="L232" t="n">
-        <v>0.5262526453168572</v>
+        <v>0.5262151904163704</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1168185553223577</v>
+        <v>0.2654292681447293</v>
       </c>
       <c r="N232" t="n">
-        <v>0.803888771037507</v>
+        <v>0.8472492374753041</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1251286307339834</v>
+        <v>0.2653711046236237</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.04384586726627074</v>
+        <v>0.04006180513884013</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1277257481381096</v>
+        <v>0.2662352740172455</v>
       </c>
       <c r="J233" t="n">
-        <v>0.2028544608396796</v>
+        <v>0.202460206903864</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1226211657004185</v>
+        <v>0.2669945580960341</v>
       </c>
       <c r="L233" t="n">
-        <v>0.5243489981735178</v>
+        <v>0.5189777506744513</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1175180676296772</v>
+        <v>0.2670186649599672</v>
       </c>
       <c r="N233" t="n">
-        <v>0.8066730081433574</v>
+        <v>0.8352052285347308</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1258779039719115</v>
+        <v>0.2669601531543041</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.04171100909789197</v>
+        <v>0.04144239784865868</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1284860204484556</v>
+        <v>0.2678200077911577</v>
       </c>
       <c r="J234" t="n">
-        <v>0.2020057805684949</v>
+        <v>0.199193295720266</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1233510535914925</v>
+        <v>0.2685838114180343</v>
       </c>
       <c r="L234" t="n">
-        <v>0.523702422174716</v>
+        <v>0.5131944940730806</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1182175799369967</v>
+        <v>0.2686080617752051</v>
       </c>
       <c r="N234" t="n">
-        <v>0.8004832970570867</v>
+        <v>0.8287111688353815</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1266271772098395</v>
+        <v>0.2685492016849845</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.04157405456458003</v>
+        <v>0.03984903004444434</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1292462927588015</v>
+        <v>0.2694047415650698</v>
       </c>
       <c r="J235" t="n">
-        <v>0.2025489453946423</v>
+        <v>0.1965421648919418</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1240809414825664</v>
+        <v>0.2701730647400344</v>
       </c>
       <c r="L235" t="n">
-        <v>0.5189136322637314</v>
+        <v>0.5065090235385334</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1189170922443162</v>
+        <v>0.270197458590443</v>
       </c>
       <c r="N235" t="n">
-        <v>0.79272057302314</v>
+        <v>0.8186983415156986</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1273764504477675</v>
+        <v>0.2701382502156648</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.04343501772925507</v>
+        <v>0.04029371226614585</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1300065650691473</v>
+        <v>0.270989475338982</v>
       </c>
       <c r="J236" t="n">
-        <v>0.2008840046710353</v>
+        <v>0.1944625699192963</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1248108293736403</v>
+        <v>0.2717623180620347</v>
       </c>
       <c r="L236" t="n">
-        <v>0.5164833433838425</v>
+        <v>0.4976649419970862</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1196166045516357</v>
+        <v>0.2717868554056809</v>
       </c>
       <c r="N236" t="n">
-        <v>0.7939857712859625</v>
+        <v>0.8073980297141227</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1281257236856956</v>
+        <v>0.2717272987463453</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0392939126548371</v>
+        <v>0.0397843219018602</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1307668373794932</v>
+        <v>0.2725742091128942</v>
       </c>
       <c r="J237" t="n">
-        <v>0.2009110077505875</v>
+        <v>0.1924984252753718</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1255407172647142</v>
+        <v>0.2733515713840349</v>
       </c>
       <c r="L237" t="n">
-        <v>0.5146122704783285</v>
+        <v>0.4945758774788536</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1203161168589552</v>
+        <v>0.2733762522209188</v>
       </c>
       <c r="N237" t="n">
-        <v>0.7888798270899992</v>
+        <v>0.7962911834074503</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1288749969236236</v>
+        <v>0.2733163472770256</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.04015075340424618</v>
+        <v>0.04028447500420752</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1315271096898391</v>
+        <v>0.2741589428868063</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1997300039862122</v>
+        <v>0.1886918436143364</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1262706051557881</v>
+        <v>0.2749408247060351</v>
       </c>
       <c r="L238" t="n">
-        <v>0.5124011284904688</v>
+        <v>0.4866362092662991</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1210156291662747</v>
+        <v>0.2749656490361567</v>
       </c>
       <c r="N238" t="n">
-        <v>0.7769036756796951</v>
+        <v>0.788820511134077</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1296242701615516</v>
+        <v>0.274905395807706</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.04200555404040236</v>
+        <v>0.03878278970755208</v>
       </c>
       <c r="G239" t="n">
-        <v>0.132287382000185</v>
+        <v>0.2757436766607185</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1986410427308228</v>
+        <v>0.1856767617473885</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1270004930468621</v>
+        <v>0.2765300780280353</v>
       </c>
       <c r="L239" t="n">
-        <v>0.507750632363542</v>
+        <v>0.4837746508418841</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1217151414735942</v>
+        <v>0.2765550458513946</v>
       </c>
       <c r="N239" t="n">
-        <v>0.7731582522994956</v>
+        <v>0.7742145722050878</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1303735433994797</v>
+        <v>0.2764944443383864</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03985832862622574</v>
+        <v>0.03927923755847941</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1330476543105309</v>
+        <v>0.2773284104346307</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1992441733373332</v>
+        <v>0.1834530475876799</v>
       </c>
       <c r="K240" t="n">
-        <v>0.127730380937936</v>
+        <v>0.2781193313500355</v>
       </c>
       <c r="L240" t="n">
-        <v>0.5042614970408272</v>
+        <v>0.4757908620049504</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1224146537809137</v>
+        <v>0.2781444426666326</v>
       </c>
       <c r="N240" t="n">
-        <v>0.7733444921938456</v>
+        <v>0.767372818702151</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1311228166374077</v>
+        <v>0.2780834928690668</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.04170909122463633</v>
+        <v>0.03677379010357494</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1338079266208768</v>
+        <v>0.2789131442085429</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1972394451586565</v>
+        <v>0.1814205690483627</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1284602688290099</v>
+        <v>0.2797085846720357</v>
       </c>
       <c r="L241" t="n">
-        <v>0.5049344374656035</v>
+        <v>0.4713845025548404</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1231141660882333</v>
+        <v>0.2797338394818705</v>
       </c>
       <c r="N241" t="n">
-        <v>0.7659633306071901</v>
+        <v>0.7601947027069341</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1318720898753358</v>
+        <v>0.2796725413997472</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03955785589855423</v>
+        <v>0.03826641888942417</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1345681989312227</v>
+        <v>0.280497877982455</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1985269075477066</v>
+        <v>0.1786791940425886</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1291901567200838</v>
+        <v>0.2812978379940358</v>
       </c>
       <c r="L242" t="n">
-        <v>0.5016701685811501</v>
+        <v>0.4603552322908968</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1238136783955528</v>
+        <v>0.2813232362971084</v>
       </c>
       <c r="N242" t="n">
-        <v>0.7644157027839745</v>
+        <v>0.744579676301106</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1326213631132638</v>
+        <v>0.2812615899304275</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.04240463671089952</v>
+        <v>0.03775709546261252</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1353284712415685</v>
+        <v>0.2820826117563672</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1971066098573966</v>
+        <v>0.1767287904835097</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1299200446111577</v>
+        <v>0.2828870913160361</v>
       </c>
       <c r="L243" t="n">
-        <v>0.497869405330746</v>
+        <v>0.4544027110124619</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1245131907028723</v>
+        <v>0.2829126331123463</v>
       </c>
       <c r="N243" t="n">
-        <v>0.7534025439686435</v>
+        <v>0.7387271915663347</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1333706363511919</v>
+        <v>0.282850638461108</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.04124944772459221</v>
+        <v>0.03524579136972553</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1360887435519145</v>
+        <v>0.2836673455302794</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1968786014406403</v>
+        <v>0.1759692262842779</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1306499325022317</v>
+        <v>0.2844763446380363</v>
       </c>
       <c r="L244" t="n">
-        <v>0.4936328626576701</v>
+        <v>0.4518265985188776</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1252127030101918</v>
+        <v>0.2845020299275842</v>
       </c>
       <c r="N244" t="n">
-        <v>0.7512247894056426</v>
+        <v>0.7297367005842886</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1341199095891199</v>
+        <v>0.2844396869917883</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0380923030025524</v>
+        <v>0.03773247815734859</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1368490158622603</v>
+        <v>0.2852520793041916</v>
       </c>
       <c r="J245" t="n">
-        <v>0.196242931650351</v>
+        <v>0.1720003693580452</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1313798203933056</v>
+        <v>0.2860655979600365</v>
       </c>
       <c r="L245" t="n">
-        <v>0.4929612555052015</v>
+        <v>0.4419265546094869</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1259122153175113</v>
+        <v>0.2860914267428221</v>
       </c>
       <c r="N245" t="n">
-        <v>0.7422833743394167</v>
+        <v>0.7205076554366356</v>
       </c>
       <c r="O245" t="n">
-        <v>0.134869182827048</v>
+        <v>0.2860287355224687</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.04093321660770012</v>
+        <v>0.03721712737206724</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1376092881726062</v>
+        <v>0.2868368130781038</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1947996498394423</v>
+        <v>0.1700220876179634</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1321097082843795</v>
+        <v>0.2876548512820367</v>
       </c>
       <c r="L246" t="n">
-        <v>0.4931552988166195</v>
+        <v>0.4380022390836319</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1266117276248308</v>
+        <v>0.28768082355806</v>
       </c>
       <c r="N246" t="n">
-        <v>0.738679234014411</v>
+        <v>0.7027395082050446</v>
       </c>
       <c r="O246" t="n">
-        <v>0.135618456064976</v>
+        <v>0.2876177840531491</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03777220260295545</v>
+        <v>0.03669971056046689</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1383695604829521</v>
+        <v>0.2884215468520159</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1942488053608276</v>
+        <v>0.1677342489771846</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1328395961754534</v>
+        <v>0.2892441046040369</v>
       </c>
       <c r="L247" t="n">
-        <v>0.4879157075352027</v>
+        <v>0.4339533117406547</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1273112399321503</v>
+        <v>0.2892702203732979</v>
       </c>
       <c r="N247" t="n">
-        <v>0.7326133036750705</v>
+        <v>0.6941317109711831</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1363677293029041</v>
+        <v>0.2892068325838295</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.04060927505123846</v>
+        <v>0.03218019926913306</v>
       </c>
       <c r="G248" t="n">
-        <v>0.139129832793298</v>
+        <v>0.2900062806259281</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1919904475674205</v>
+        <v>0.1647367213488605</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1335694840665273</v>
+        <v>0.2908333579260371</v>
       </c>
       <c r="L248" t="n">
-        <v>0.4864431966042305</v>
+        <v>0.4290794323798979</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1280107522394698</v>
+        <v>0.2908596171885358</v>
       </c>
       <c r="N248" t="n">
-        <v>0.7242865185658403</v>
+        <v>0.6900837158167197</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1371170025408321</v>
+        <v>0.2907958811145099</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.0394444480154692</v>
+        <v>0.03565856504465116</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1398901051036439</v>
+        <v>0.2915910143998403</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1912246258121345</v>
+        <v>0.1623293726461431</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1342993719576012</v>
+        <v>0.2924226112480373</v>
       </c>
       <c r="L249" t="n">
-        <v>0.4845384809669817</v>
+        <v>0.4187802608007039</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1287102645467893</v>
+        <v>0.2924490140037737</v>
       </c>
       <c r="N249" t="n">
-        <v>0.7232998139311656</v>
+        <v>0.6774949748233228</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1378662757787602</v>
+        <v>0.2923849296451902</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.04127773555856773</v>
+        <v>0.03413477943360672</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1406503774139898</v>
+        <v>0.2931757481737525</v>
       </c>
       <c r="J250" t="n">
-        <v>0.192551389447883</v>
+        <v>0.1613120707821845</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1350292598486752</v>
+        <v>0.2940118645700375</v>
       </c>
       <c r="L250" t="n">
-        <v>0.4766022755667355</v>
+        <v>0.4159554568024149</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1294097768541088</v>
+        <v>0.2940384108190116</v>
       </c>
       <c r="N250" t="n">
-        <v>0.7154541250154914</v>
+        <v>0.6625649400726602</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1386155490166882</v>
+        <v>0.2939739781758706</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03810915174345411</v>
+        <v>0.03260881398258517</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1414106497243357</v>
+        <v>0.2947604819476646</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1911707878275796</v>
+        <v>0.1593846836701365</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1357591477397491</v>
+        <v>0.2956011178920377</v>
       </c>
       <c r="L251" t="n">
-        <v>0.475435295346771</v>
+        <v>0.4077046801843734</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1301092891614283</v>
+        <v>0.2956278076342495</v>
       </c>
       <c r="N251" t="n">
-        <v>0.7086503870632629</v>
+        <v>0.6582930636464007</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1393648222546162</v>
+        <v>0.295563026706551</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03993871063304841</v>
+        <v>0.03408064023817201</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1421709220346816</v>
+        <v>0.2963452157215768</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1887828703041377</v>
+        <v>0.1554470792231511</v>
       </c>
       <c r="K252" t="n">
-        <v>0.136489035630823</v>
+        <v>0.2971903712140379</v>
       </c>
       <c r="L252" t="n">
-        <v>0.4750382552503671</v>
+        <v>0.4014275907459217</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1308088014687478</v>
+        <v>0.2972172044494873</v>
       </c>
       <c r="N252" t="n">
-        <v>0.7058895353189251</v>
+        <v>0.6484787976262121</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1401140954925443</v>
+        <v>0.2971520752372314</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03876642629027069</v>
+        <v>0.02955022974695266</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1429311943450275</v>
+        <v>0.297929949495489</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1890876862304709</v>
+        <v>0.1533991253543801</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1372189235218969</v>
+        <v>0.2987796245360381</v>
       </c>
       <c r="L253" t="n">
-        <v>0.471311870220803</v>
+        <v>0.3938238482864022</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1315083137760673</v>
+        <v>0.2988066012647252</v>
       </c>
       <c r="N253" t="n">
-        <v>0.6992725050269234</v>
+        <v>0.6396215940937632</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1408633687304723</v>
+        <v>0.2987411237679117</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03659231277804102</v>
+        <v>0.03201755405551263</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1436914666553734</v>
+        <v>0.2995146832694012</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1874852849594927</v>
+        <v>0.1515406899769755</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1379488114129709</v>
+        <v>0.3003688778580383</v>
       </c>
       <c r="L254" t="n">
-        <v>0.4641568552013575</v>
+        <v>0.386693112605157</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1322078260833869</v>
+        <v>0.3003959980799631</v>
       </c>
       <c r="N254" t="n">
-        <v>0.6887002314317023</v>
+        <v>0.6252209051307213</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1416126419684004</v>
+        <v>0.3003301722985922</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03841638415927943</v>
+        <v>0.03248258471043738</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1444517389657193</v>
+        <v>0.3010994170433133</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1874757158441165</v>
+        <v>0.1483716410040893</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1386786993040448</v>
+        <v>0.3019581311800385</v>
       </c>
       <c r="L255" t="n">
-        <v>0.4665739251353098</v>
+        <v>0.3794350435015287</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1329073383907064</v>
+        <v>0.301985394895201</v>
       </c>
       <c r="N255" t="n">
-        <v>0.6896736497777074</v>
+        <v>0.6163761828187557</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1423619152063284</v>
+        <v>0.3019192208292725</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03823865449690603</v>
+        <v>0.03094529325831238</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1452120112760651</v>
+        <v>0.3026841508172255</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1870590282372558</v>
+        <v>0.1466918463488733</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1394085871951187</v>
+        <v>0.3035473845020387</v>
       </c>
       <c r="L256" t="n">
-        <v>0.4592637949659392</v>
+        <v>0.3766493007748598</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1336068506980259</v>
+        <v>0.3035747917104389</v>
       </c>
       <c r="N256" t="n">
-        <v>0.6841936953093836</v>
+        <v>0.6063868792395338</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1431111884442565</v>
+        <v>0.3035082693599529</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03605913785384084</v>
+        <v>0.02840565124572307</v>
       </c>
       <c r="G257" t="n">
-        <v>0.145972283586411</v>
+        <v>0.3042688845911377</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1848352714918242</v>
+        <v>0.1433011739244796</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1401384750861926</v>
+        <v>0.3051366378240389</v>
       </c>
       <c r="L257" t="n">
-        <v>0.4595271796365241</v>
+        <v>0.3684355442244923</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1343063630053454</v>
+        <v>0.3051641885256768</v>
       </c>
       <c r="N257" t="n">
-        <v>0.6723613032711762</v>
+        <v>0.5934524464747246</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1438604616821845</v>
+        <v>0.3050973178906333</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03687784829300392</v>
+        <v>0.02786363021925497</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1467325558967569</v>
+        <v>0.3058536183650499</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1843044949607351</v>
+        <v>0.1417994916440601</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1408683629772665</v>
+        <v>0.3067258911460391</v>
       </c>
       <c r="L258" t="n">
-        <v>0.4543647940903441</v>
+        <v>0.3646934336497688</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1350058753126649</v>
+        <v>0.3067535853409147</v>
       </c>
       <c r="N258" t="n">
-        <v>0.66987740890753</v>
+        <v>0.5850723366059956</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1446097349201125</v>
+        <v>0.3066863664213136</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03669479987731535</v>
+        <v>0.03031920172549351</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1474928282071028</v>
+        <v>0.307438352138962</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1851667479969021</v>
+        <v>0.1384866674207666</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1415982508683405</v>
+        <v>0.3083151444680393</v>
       </c>
       <c r="L259" t="n">
-        <v>0.4516773532706783</v>
+        <v>0.3570226288500318</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1357053876199844</v>
+        <v>0.3083429821561527</v>
       </c>
       <c r="N259" t="n">
-        <v>0.6593429474628905</v>
+        <v>0.5711460017150154</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1453590081580406</v>
+        <v>0.3082754149519941</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0385100066696952</v>
+        <v>0.02877233731102418</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1482531005174487</v>
+        <v>0.3090230859128742</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1833220799532386</v>
+        <v>0.1349625691677511</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1423281387594144</v>
+        <v>0.3099043977900395</v>
       </c>
       <c r="L260" t="n">
-        <v>0.4464655721208053</v>
+        <v>0.349422789624623</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1364048999273039</v>
+        <v>0.3099323789713906</v>
       </c>
       <c r="N260" t="n">
-        <v>0.6573588541817025</v>
+        <v>0.5636728938834527</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1461082813959686</v>
+        <v>0.3098644634826744</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03732348273306352</v>
+        <v>0.02922300852243242</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1490133728277946</v>
+        <v>0.3106078196867864</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1827705401826582</v>
+        <v>0.1325270647981655</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1430580266504883</v>
+        <v>0.3114936511120397</v>
       </c>
       <c r="L261" t="n">
-        <v>0.4444301655840045</v>
+        <v>0.3422935757728853</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1371044122346234</v>
+        <v>0.3115217757866285</v>
       </c>
       <c r="N261" t="n">
-        <v>0.6480260643084109</v>
+        <v>0.5573524651929749</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1468575546338967</v>
+        <v>0.3114535120133548</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03913524213034038</v>
+        <v>0.02767118690630375</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1497736451381405</v>
+        <v>0.3121925534606986</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1807121780380743</v>
+        <v>0.1297800222251618</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1437879145415622</v>
+        <v>0.31308290443404</v>
       </c>
       <c r="L262" t="n">
-        <v>0.4423718486035547</v>
+        <v>0.3382346470941612</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1378039245419429</v>
+        <v>0.3131111726018664</v>
       </c>
       <c r="N262" t="n">
-        <v>0.6438455130874614</v>
+        <v>0.5438841677252509</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1476068278718247</v>
+        <v>0.3130425605440352</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03794529892444581</v>
+        <v>0.02711684400922358</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1505339174484864</v>
+        <v>0.3137772872346107</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1818470428724004</v>
+        <v>0.129421309361892</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1445178024326361</v>
+        <v>0.3146721577560401</v>
       </c>
       <c r="L263" t="n">
-        <v>0.4409913361227352</v>
+        <v>0.3278456633877926</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1385034368492624</v>
+        <v>0.3147005694171043</v>
       </c>
       <c r="N263" t="n">
-        <v>0.6426181357632986</v>
+        <v>0.5312674535619485</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1483561011097528</v>
+        <v>0.3146316090747156</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03675366717829991</v>
+        <v>0.02455995137777741</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1512941897588323</v>
+        <v>0.3153620210085229</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1793751840385501</v>
+        <v>0.1255507941215079</v>
       </c>
       <c r="K264" t="n">
-        <v>0.14524769032371</v>
+        <v>0.3162614110780403</v>
       </c>
       <c r="L264" t="n">
-        <v>0.4372893430848248</v>
+        <v>0.3230262844531222</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1392029491565819</v>
+        <v>0.3162899662323422</v>
       </c>
       <c r="N264" t="n">
-        <v>0.6293448675803679</v>
+        <v>0.5188017747847362</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1491053743476808</v>
+        <v>0.3162206576053959</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1358.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1358.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.3572123903134607</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.01970183506030474</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.01970183506030474</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.03152293609648758</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.07997871217598397</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02482431217598398</v>
+        <v>0.1142594074234443</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0004998124912724559</v>
+        <v>0.00230049794212929</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,29 +9250,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.02482431217598398</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0.0004998124912724559</v>
+        <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.03309264000000001</v>
+        <v>0</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0.0004664008535966151</v>
+        <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
         <v>0.09309264</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0004759192383638927</v>
+        <v>0.0004858342224964738</v>
       </c>
       <c r="N65" s="171" t="n">
         <v>0.15309264</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.00045281636271516</v>
+        <v>0.0004808256222645512</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.02750633297910574</v>
+        <v>0.03309264000000001</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001584733773912176</v>
+        <v>0.0004664008535966151</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.1142594074234443</v>
+        <v>0.03309264000000001</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001399202560789845</v>
+        <v>0.0004664008535966151</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.2942049040291137</v>
+        <v>0.1686722572596712</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001427757715091678</v>
+        <v>0.0009766247049264821</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.4741504006347833</v>
+        <v>0.2794386038733383</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.00135844908814548</v>
+        <v>0.0009762929289961283</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.02889779226211147</v>
+        <v>0.05595635344433622</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003169467547824351</v>
+        <v>0.0008539494533763493</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.1322920971786107</v>
+        <v>0.05595635344433622</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003178506644000405</v>
+        <v>0.0008539494533763493</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.3372793716926096</v>
+        <v>0.2942049040291137</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003178793630475801</v>
+        <v>0.002193434270016775</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.5508575607431031</v>
+        <v>0.4741504006347833</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003178097061360763</v>
+        <v>0.002127410859876421</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.03171913506307032</v>
+        <v>0.08050080221166753</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004754201321736527</v>
+        <v>0.001280924180064524</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.1457472651335879</v>
+        <v>0.08050080221166753</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004767759966000608</v>
+        <v>0.001280924180064524</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.3707594313161084</v>
+        <v>0.3090398375367406</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004768190445713701</v>
+        <v>0.002929874114779446</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.6060618677431915</v>
+        <v>0.5051818212826684</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004767145592041145</v>
+        <v>0.002928878786988385</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.03603129731169429</v>
+        <v>0.1006680308697471</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006338935095648702</v>
+        <v>0.001707898906752699</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.1572797035176465</v>
+        <v>0.1006680308697471</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006357013288000811</v>
+        <v>0.001707898906752699</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.4019651017280743</v>
+        <v>0.338806917312657</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006357587260951601</v>
+        <v>0.003906498819705929</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.6478795090940479</v>
+        <v>0.5455799042738804</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006356194122721526</v>
+        <v>0.003905171715984513</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0004998124912724559</v>
+        <v>0.0004664008535966151</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02482431217598398</v>
+        <v>0.03309264000000001</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.03689521493769533</v>
+        <v>0.1142594074234443</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007923668869560876</v>
+        <v>0.00230049794212929</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.1667287337852516</v>
+        <v>0.1142594074234443</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.007946266610001014</v>
+        <v>0.00230049794212929</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.4263037235442303</v>
+        <v>0.3568220864891426</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.007946984076189502</v>
+        <v>0.00488312352463241</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.6917017777578388</v>
+        <v>0.5847113995055671</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.007945242653401909</v>
+        <v>0.004881464644980642</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.03937182387078546</v>
+        <v>0.1152657966744434</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009508402643473053</v>
+        <v>0.002561848360129048</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.1752336773908688</v>
+        <v>0.1152657966744434</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009535519932001217</v>
+        <v>0.002561848360129048</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.4497826373802989</v>
+        <v>0.3821237170477335</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009536380891427401</v>
+        <v>0.005859748229558892</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.7235199666967309</v>
+        <v>0.6190401324251622</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00953429118408229</v>
+        <v>0.00585775757397677</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.03652206004067665</v>
+        <v>0.1168847059619499</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01109313641738523</v>
+        <v>0.002988823086817223</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.1814338557889634</v>
+        <v>0.1168847059619499</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01112477325400142</v>
+        <v>0.002988823086817223</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.4611091838520033</v>
+        <v>0.3994501809699664</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.0111257777066653</v>
+        <v>0.006836372934485375</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.7529253688728911</v>
+        <v>0.6518299284800987</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01112333971476267</v>
+        <v>0.006834050502972898</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.0394068593770809</v>
+        <v>0.1184725428635302</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.0126778701912974</v>
+        <v>0.003415797813505397</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.1845685904340007</v>
+        <v>0.1184725428635302</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01271402657600162</v>
+        <v>0.003415797813505397</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.4778907035750662</v>
+        <v>0.4239398502373776</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.0127151745219032</v>
+        <v>0.007812997639411857</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.7717092772484851</v>
+        <v>0.67894461311781</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01271238824544305</v>
+        <v>0.007810343431969026</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.04108715780971017</v>
+        <v>0.1200296040086382</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01426260396520958</v>
+        <v>0.003842772540193572</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.1890772027804462</v>
+        <v>0.1200296040086382</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01430327989800182</v>
+        <v>0.003842772540193572</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.4854345371652105</v>
+        <v>0.4397310968315037</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.0143045713371411</v>
+        <v>0.008789622344338338</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.7854629847856803</v>
+        <v>0.7135480117857291</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01430143677612344</v>
+        <v>0.008786636360965156</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.04162389126827648</v>
+        <v>0.1215561860267278</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01584733773912175</v>
+        <v>0.004269747266881747</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.1934990142827651</v>
+        <v>0.1215561860267278</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01589253322000203</v>
+        <v>0.004269747266881747</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.4935480252381589</v>
+        <v>0.458262292733881</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.015893968152379</v>
+        <v>0.00976624704926482</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.7961777844466434</v>
+        <v>0.7373039499312894</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01589048530680382</v>
+        <v>0.009762929289961284</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.04107799568249178</v>
+        <v>0.1230525855472528</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01743207151303393</v>
+        <v>0.004696721993569921</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1944733463954229</v>
+        <v>0.1230525855472528</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01748178654200223</v>
+        <v>0.004696721993569921</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.5037385084096344</v>
+        <v>0.4741718099260461</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.0174833649676169</v>
+        <v>0.0107428717541913</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.8095449691935407</v>
+        <v>0.7625762530019243</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.0174795338374842</v>
+        <v>0.01073922221895741</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.04251040698206807</v>
+        <v>0.1245190991996672</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01901680528694611</v>
+        <v>0.005123696720258096</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1984395205728851</v>
+        <v>0.1245190991996672</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01907103986400243</v>
+        <v>0.005123696720258096</v>
       </c>
       <c r="L77" t="n">
-        <v>0.5071133272953597</v>
+        <v>0.4836980203895355</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0190727617828548</v>
+        <v>0.01171949645911778</v>
       </c>
       <c r="N77" t="n">
-        <v>0.8182558319885388</v>
+        <v>0.7817287464450663</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01906858236816458</v>
+        <v>0.01171551514795354</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.04398206109671735</v>
+        <v>0.125956023613425</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02060153906085828</v>
+        <v>0.005550671446946271</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2008368582696168</v>
+        <v>0.125956023613425</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02066029318600264</v>
+        <v>0.005550671446946271</v>
       </c>
       <c r="L78" t="n">
-        <v>0.514279822511058</v>
+        <v>0.5014792961058855</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0206621585980927</v>
+        <v>0.01269612116404427</v>
       </c>
       <c r="N78" t="n">
-        <v>0.8311016657938041</v>
+        <v>0.8108252557081496</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02065763089884496</v>
+        <v>0.01269180807694967</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.04454047189015649</v>
+        <v>0.1273636554179799</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02218627283477045</v>
+        <v>0.005977646173634445</v>
       </c>
       <c r="J79" t="n">
-        <v>0.2017046809400835</v>
+        <v>0.1273636554179799</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02224954650800284</v>
+        <v>0.005977646173634445</v>
       </c>
       <c r="L79" t="n">
-        <v>0.5205453346724513</v>
+        <v>0.5139540090566324</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0222515554133306</v>
+        <v>0.01367274586897075</v>
       </c>
       <c r="N79" t="n">
-        <v>0.8390737635715037</v>
+        <v>0.8217296062386069</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02224667942952534</v>
+        <v>0.0136681010059458</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.04410846446241398</v>
+        <v>0.1287422912427859</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02377100660868263</v>
+        <v>0.006404620900322619</v>
       </c>
       <c r="J80" t="n">
-        <v>0.2046587367570085</v>
+        <v>0.1287422912427859</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02383879983000304</v>
+        <v>0.006404620900322619</v>
       </c>
       <c r="L80" t="n">
-        <v>0.5281803710069186</v>
+        <v>0.522160531223313</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0238409522285685</v>
+        <v>0.01464937057389723</v>
       </c>
       <c r="N80" t="n">
-        <v>0.8539846883407162</v>
+        <v>0.8391056234838711</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02383572796020572</v>
+        <v>0.01464439393494193</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.04165917885809289</v>
+        <v>0.1300922277172969</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02535574038259481</v>
+        <v>0.006831595627010794</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2075445129608325</v>
+        <v>0.1300922277172969</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02542805315200324</v>
+        <v>0.006831595627010794</v>
       </c>
       <c r="L81" t="n">
-        <v>0.5364424401536444</v>
+        <v>0.5332372345874633</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0254303490438064</v>
+        <v>0.01562599527882371</v>
       </c>
       <c r="N81" t="n">
-        <v>0.8583058572880503</v>
+        <v>0.8606171328913758</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02542477649088611</v>
+        <v>0.01562068686393805</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.04218909169039255</v>
+        <v>0.1314137614709668</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02694047415650698</v>
+        <v>0.007258570353698968</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2108425105983296</v>
+        <v>0.1314137614709668</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02701730647400345</v>
+        <v>0.007258570353698968</v>
       </c>
       <c r="L82" t="n">
-        <v>0.5413791447199151</v>
+        <v>0.5404224911306202</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0270197458590443</v>
+        <v>0.01660261998375019</v>
       </c>
       <c r="N82" t="n">
-        <v>0.8715612589642866</v>
+        <v>0.8707279599085546</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02701382502156649</v>
+        <v>0.01659697979293418</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0436946795725122</v>
+        <v>0.1327071891332495</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02852520793041916</v>
+        <v>0.007685545080387144</v>
       </c>
       <c r="J83" t="n">
-        <v>0.2122363733528784</v>
+        <v>0.1327071891332495</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02860655979600365</v>
+        <v>0.007685545080387144</v>
       </c>
       <c r="L83" t="n">
-        <v>0.5486483576525639</v>
+        <v>0.5517546728343201</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0286091426742822</v>
+        <v>0.01757924468867668</v>
       </c>
       <c r="N83" t="n">
-        <v>0.8860830446331743</v>
+        <v>0.8823019299828404</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02860287355224687</v>
+        <v>0.01757327272193031</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.04517241911765119</v>
+        <v>0.1339728073335989</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03010994170433133</v>
+        <v>0.008112519807075318</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2148097449078575</v>
+        <v>0.1339728073335989</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03019581311800386</v>
+        <v>0.008112519807075318</v>
       </c>
       <c r="L84" t="n">
-        <v>0.5515079518984243</v>
+        <v>0.5536721516800992</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0301985394895201</v>
+        <v>0.01855586939360316</v>
       </c>
       <c r="N84" t="n">
-        <v>0.8894033655584631</v>
+        <v>0.8953028685616661</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03019192208292725</v>
+        <v>0.01854956565092644</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0476187869390087</v>
+        <v>0.1352109127014689</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03169467547824351</v>
+        <v>0.008539494533763493</v>
       </c>
       <c r="J85" t="n">
-        <v>0.2175462689466454</v>
+        <v>0.1352109127014689</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03178506644000405</v>
+        <v>0.008539494533763493</v>
       </c>
       <c r="L85" t="n">
-        <v>0.5564158004043287</v>
+        <v>0.5620132996494941</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03178793630475801</v>
+        <v>0.01953249409852964</v>
       </c>
       <c r="N85" t="n">
-        <v>0.9044543730039015</v>
+        <v>0.9041946010924654</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03178097061360764</v>
+        <v>0.01952585857992257</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.04603025964978413</v>
+        <v>0.1364218018663134</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03327940925215569</v>
+        <v>0.008966469260451668</v>
       </c>
       <c r="J86" t="n">
-        <v>0.2196295891526209</v>
+        <v>0.1364218018663134</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03337431976200426</v>
+        <v>0.008966469260451668</v>
       </c>
       <c r="L86" t="n">
-        <v>0.5618297761171105</v>
+        <v>0.5663164887240414</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0333773331199959</v>
+        <v>0.02050911880345612</v>
       </c>
       <c r="N86" t="n">
-        <v>0.9057682182332388</v>
+        <v>0.920640953022671</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03337001914428801</v>
+        <v>0.0205021515089187</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0444033138631767</v>
+        <v>0.1376057714575863</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03486414302606786</v>
+        <v>0.009393443987139842</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2215433492091627</v>
+        <v>0.1376057714575863</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03496357308400446</v>
+        <v>0.009393443987139842</v>
       </c>
       <c r="L87" t="n">
-        <v>0.5667077519836026</v>
+        <v>0.5703200908852771</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03496672993523381</v>
+        <v>0.0214857435083826</v>
       </c>
       <c r="N87" t="n">
-        <v>0.9154770525102244</v>
+        <v>0.9204057497997168</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0349590676749684</v>
+        <v>0.02147844443791483</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.04773442619238571</v>
+        <v>0.1387631181047415</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03644887679998004</v>
+        <v>0.009820418713828017</v>
       </c>
       <c r="J88" t="n">
-        <v>0.2223711927996494</v>
+        <v>0.1387631181047415</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03655282640600466</v>
+        <v>0.009820418713828017</v>
       </c>
       <c r="L88" t="n">
-        <v>0.5749076009506381</v>
+        <v>0.5767624781147379</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03655612675047171</v>
+        <v>0.02246236821330909</v>
       </c>
       <c r="N88" t="n">
-        <v>0.9188130270986067</v>
+        <v>0.9312528168710358</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03654811620564877</v>
+        <v>0.02245473736691095</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.04702007325061044</v>
+        <v>0.1398941384372329</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03803361057389221</v>
+        <v>0.01024739344051619</v>
       </c>
       <c r="J89" t="n">
-        <v>0.2245967636074595</v>
+        <v>0.1398941384372329</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03814207972800487</v>
+        <v>0.01024739344051619</v>
       </c>
       <c r="L89" t="n">
-        <v>0.5750871959650502</v>
+        <v>0.5804820223939603</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0381455235657096</v>
+        <v>0.02343899291823557</v>
       </c>
       <c r="N89" t="n">
-        <v>0.9337082932621353</v>
+        <v>0.9355459796840605</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03813716473632916</v>
+        <v>0.02343103029590708</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0472567316510502</v>
+        <v>0.1409991290845145</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03961834434780439</v>
+        <v>0.01067436816720436</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2241037053159719</v>
+        <v>0.1409991290845145</v>
       </c>
       <c r="K90" t="n">
-        <v>0.03973133305000507</v>
+        <v>0.01067436816720436</v>
       </c>
       <c r="L90" t="n">
-        <v>0.5813044099736716</v>
+        <v>0.5799170957044809</v>
       </c>
       <c r="M90" t="n">
-        <v>0.03973492038094751</v>
+        <v>0.02441561762316205</v>
       </c>
       <c r="N90" t="n">
-        <v>0.9337950022645599</v>
+        <v>0.9347490636862253</v>
       </c>
       <c r="O90" t="n">
-        <v>0.03972621326700954</v>
+        <v>0.02440732322490321</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.04944087800690423</v>
+        <v>0.14207838667604</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04120307812171656</v>
+        <v>0.01110134289389254</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2266756616085651</v>
+        <v>0.14207838667604</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04132058637200527</v>
+        <v>0.01110134289389254</v>
       </c>
       <c r="L91" t="n">
-        <v>0.5835171159233355</v>
+        <v>0.5857060700278358</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04132431719618541</v>
+        <v>0.02539224232808853</v>
       </c>
       <c r="N91" t="n">
-        <v>0.9359053053696283</v>
+        <v>0.9371258943249631</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04131526179768992</v>
+        <v>0.02538361615389934</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.04756898893137188</v>
+        <v>0.1431322078412634</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04278781189562873</v>
+        <v>0.01152831762058072</v>
       </c>
       <c r="J92" t="n">
-        <v>0.2274962761686177</v>
+        <v>0.1431322078412634</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04290983969400547</v>
+        <v>0.01152831762058072</v>
       </c>
       <c r="L92" t="n">
-        <v>0.5813831867608751</v>
+        <v>0.5823873173455616</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04291371401142331</v>
+        <v>0.02636886703301502</v>
       </c>
       <c r="N92" t="n">
-        <v>0.9363713538410904</v>
+        <v>0.9378402970477061</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0429043103283703</v>
+        <v>0.02635990908289546</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.04964862435196796</v>
+        <v>0.1441608892096387</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04437254566954091</v>
+        <v>0.01195529234726889</v>
       </c>
       <c r="J93" t="n">
-        <v>0.2285188148468886</v>
+        <v>0.1441608892096387</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04449909301600568</v>
+        <v>0.01195529234726889</v>
       </c>
       <c r="L93" t="n">
         <v>0.5884098080582275</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0445031108266612</v>
+        <v>0.0273454917379415</v>
       </c>
       <c r="N93" t="n">
         <v>0.9483008012695665</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04449335885905068</v>
+        <v>0.02733620201189159</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.04664591529307999</v>
+        <v>0.1451647274106196</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04595727944345309</v>
+        <v>0.01238226707395707</v>
       </c>
       <c r="J94" t="n">
-        <v>0.227518054824616</v>
+        <v>0.1451647274106196</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04608834633800588</v>
+        <v>0.01238226707395707</v>
       </c>
       <c r="L94" t="n">
-        <v>0.5832069148869129</v>
+        <v>0.5852900384995389</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04609250764189911</v>
+        <v>0.02832211644286798</v>
       </c>
       <c r="N94" t="n">
-        <v>0.9455992919381923</v>
+        <v>0.9404729483158839</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04608240738973107</v>
+        <v>0.02831249494088772</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.0496175956490464</v>
+        <v>0.1461440190736602</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04754201321736527</v>
+        <v>0.01280924180064524</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2283561890136867</v>
+        <v>0.1461440190736602</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04767759966000609</v>
+        <v>0.01280924180064524</v>
       </c>
       <c r="L95" t="n">
-        <v>0.5882537605569946</v>
+        <v>0.5838153887241313</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04768190445713701</v>
+        <v>0.02929874114779446</v>
       </c>
       <c r="N95" t="n">
-        <v>0.9438287081826301</v>
+        <v>0.9411693689963302</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04767145592041145</v>
+        <v>0.02928878786988385</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.04555996960333605</v>
+        <v>0.1470990608282143</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04912674699127744</v>
+        <v>0.01323621652733341</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2281541340423375</v>
+        <v>0.1470990608282143</v>
       </c>
       <c r="K96" t="n">
-        <v>0.04926685298200628</v>
+        <v>0.01323621652733341</v>
       </c>
       <c r="L96" t="n">
-        <v>0.5855387561214548</v>
+        <v>0.5855362107931709</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04927130127237491</v>
+        <v>0.03027536585272094</v>
       </c>
       <c r="N96" t="n">
-        <v>0.9428781355717012</v>
+        <v>0.9434494769038323</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04926050445109183</v>
+        <v>0.03026508079887998</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.04847489408240174</v>
+        <v>0.1480301493037358</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05071148076518962</v>
+        <v>0.01366319125402159</v>
       </c>
       <c r="J97" t="n">
-        <v>0.2277208966777632</v>
+        <v>0.1480301493037358</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05085610630400648</v>
+        <v>0.01366319125402159</v>
       </c>
       <c r="L97" t="n">
-        <v>0.5867855742833642</v>
+        <v>0.5824763825694348</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05086069808761281</v>
+        <v>0.03125199055764743</v>
       </c>
       <c r="N97" t="n">
-        <v>0.9406841005403997</v>
+        <v>0.9370356466014801</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05084955298177221</v>
+        <v>0.03124137372787611</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04636422601269631</v>
+        <v>0.1489375811296787</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05229621453910179</v>
+        <v>0.01409016598070977</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2267650971705129</v>
+        <v>0.1489375811296787</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05244535962600669</v>
+        <v>0.01409016598070977</v>
       </c>
       <c r="L98" t="n">
-        <v>0.5827164172146186</v>
+        <v>0.5852597819157004</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05245009490285071</v>
+        <v>0.03222861526257391</v>
       </c>
       <c r="N98" t="n">
-        <v>0.9421823613293802</v>
+        <v>0.941650252652363</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05243860151245259</v>
+        <v>0.03221766665687224</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04622982232067256</v>
+        <v>0.1498216529354967</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05388094831301396</v>
+        <v>0.01451714070739794</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2253953557711363</v>
+        <v>0.1498216529354967</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0540346129480069</v>
+        <v>0.01451714070739794</v>
       </c>
       <c r="L99" t="n">
-        <v>0.580953487087114</v>
+        <v>0.5835102866947449</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0540394917180886</v>
+        <v>0.03320523996750039</v>
       </c>
       <c r="N99" t="n">
-        <v>0.9372086761792949</v>
+        <v>0.9353156696195709</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05402765004313297</v>
+        <v>0.03319395958586836</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04507353993278332</v>
+        <v>0.1506826613506439</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05546568208692614</v>
+        <v>0.01494411543408611</v>
       </c>
       <c r="J100" t="n">
-        <v>0.2250202927301829</v>
+        <v>0.1506826613506439</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05562386627000709</v>
+        <v>0.01494411543408611</v>
       </c>
       <c r="L100" t="n">
-        <v>0.579518986072746</v>
+        <v>0.5811517747693455</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0556288885333265</v>
+        <v>0.03418186467242688</v>
       </c>
       <c r="N100" t="n">
-        <v>0.9349988033307973</v>
+        <v>0.9394542720661928</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05561669857381336</v>
+        <v>0.03417025251486449</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0478972357754814</v>
+        <v>0.1515209030045741</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05705041586083831</v>
+        <v>0.01537109016077429</v>
       </c>
       <c r="J101" t="n">
-        <v>0.224648528298202</v>
+        <v>0.1515209030045741</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0572131195920073</v>
+        <v>0.01537109016077429</v>
       </c>
       <c r="L101" t="n">
-        <v>0.5750351163434106</v>
+        <v>0.5803081240022795</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05721828534856441</v>
+        <v>0.03515848937735335</v>
       </c>
       <c r="N101" t="n">
-        <v>0.935188501024541</v>
+        <v>0.9365884345553183</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05720574710449374</v>
+        <v>0.03514654544386062</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0477027667752196</v>
+        <v>0.1523366745267412</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05863514963475049</v>
+        <v>0.01579806488746246</v>
       </c>
       <c r="J102" t="n">
-        <v>0.2231886827257432</v>
+        <v>0.1523366745267412</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05880237291400749</v>
+        <v>0.01579806488746246</v>
       </c>
       <c r="L102" t="n">
-        <v>0.5727240800710035</v>
+        <v>0.5778032122563241</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05880768216380231</v>
+        <v>0.03613511408227984</v>
       </c>
       <c r="N102" t="n">
-        <v>0.9273135275011789</v>
+        <v>0.9304405316500374</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05879479563517412</v>
+        <v>0.03612283837285675</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04549198985845077</v>
+        <v>0.1531302725465992</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06021988340866267</v>
+        <v>0.01622503961415064</v>
       </c>
       <c r="J103" t="n">
-        <v>0.2218493762633559</v>
+        <v>0.1531302725465992</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06039162623600771</v>
+        <v>0.01622503961415064</v>
       </c>
       <c r="L103" t="n">
-        <v>0.5758080794274207</v>
+        <v>0.5747609173942566</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06039707897904021</v>
+        <v>0.03711173878720632</v>
       </c>
       <c r="N103" t="n">
-        <v>0.9256096410013642</v>
+        <v>0.927932937913439</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0603838441658545</v>
+        <v>0.03709913130185288</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04526676195162771</v>
+        <v>0.1539019936936019</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06180461718257484</v>
+        <v>0.01665201434083881</v>
       </c>
       <c r="J104" t="n">
-        <v>0.2207392291615896</v>
+        <v>0.1539019936936019</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06198087955800791</v>
+        <v>0.01665201434083881</v>
       </c>
       <c r="L104" t="n">
-        <v>0.5721093165845581</v>
+        <v>0.5712051172788538</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06198647579427811</v>
+        <v>0.0380883634921328</v>
       </c>
       <c r="N104" t="n">
-        <v>0.9201125997657508</v>
+        <v>0.9245880279086131</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06197289269653489</v>
+        <v>0.038075424230849</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04602893998120326</v>
+        <v>0.1546521345972032</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06338935095648701</v>
+        <v>0.01707898906752699</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2199668616709939</v>
+        <v>0.1546521345972032</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06357013288000811</v>
+        <v>0.01707898906752699</v>
       </c>
       <c r="L105" t="n">
-        <v>0.5705499937143114</v>
+        <v>0.5687596897728936</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06357587260951601</v>
+        <v>0.03906498819705928</v>
       </c>
       <c r="N105" t="n">
-        <v>0.9165581620349915</v>
+        <v>0.9232281761986488</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06356194122721527</v>
+        <v>0.03905171715984514</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04578038087363022</v>
+        <v>0.155380991886857</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06497408473039919</v>
+        <v>0.01750596379421516</v>
       </c>
       <c r="J106" t="n">
-        <v>0.2190408940421181</v>
+        <v>0.155380991886857</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06515938620200831</v>
+        <v>0.01750596379421516</v>
       </c>
       <c r="L106" t="n">
-        <v>0.5634523129885763</v>
+        <v>0.5701485127391529</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06516526942475391</v>
+        <v>0.04004161290198577</v>
       </c>
       <c r="N106" t="n">
-        <v>0.9135820860497396</v>
+        <v>0.9242757573466359</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06515098975789564</v>
+        <v>0.04002801008884126</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04652294155536141</v>
+        <v>0.1560888621920173</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06655881850431138</v>
+        <v>0.01793293852090334</v>
       </c>
       <c r="J107" t="n">
-        <v>0.2187699465255117</v>
+        <v>0.1560888621920173</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06674863952400852</v>
+        <v>0.01793293852090334</v>
       </c>
       <c r="L107" t="n">
-        <v>0.5632384765792491</v>
+        <v>0.5623954640404089</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06675466623999181</v>
+        <v>0.04101823760691225</v>
       </c>
       <c r="N107" t="n">
-        <v>0.9073201300506489</v>
+        <v>0.9217531459156635</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06674003828857603</v>
+        <v>0.04100430301783739</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04625847895284965</v>
+        <v>0.1567760421421379</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06814355227822355</v>
+        <v>0.01835991324759151</v>
       </c>
       <c r="J108" t="n">
-        <v>0.2164626393717241</v>
+        <v>0.1567760421421379</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06833789284600872</v>
+        <v>0.01835991324759151</v>
       </c>
       <c r="L108" t="n">
-        <v>0.5570306866582251</v>
+        <v>0.5613244215394387</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06834406305522971</v>
+        <v>0.04199486231183873</v>
       </c>
       <c r="N108" t="n">
-        <v>0.901208052278372</v>
+        <v>0.9194827164688216</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06832908681925641</v>
+        <v>0.04198059594683352</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04698884999254775</v>
+        <v>0.1574428283666727</v>
       </c>
       <c r="G109" t="n">
-        <v>0.06972828605213573</v>
+        <v>0.01878688797427968</v>
       </c>
       <c r="J109" t="n">
-        <v>0.215027592831305</v>
+        <v>0.1574428283666727</v>
       </c>
       <c r="K109" t="n">
-        <v>0.06992714616800892</v>
+        <v>0.01878688797427968</v>
       </c>
       <c r="L109" t="n">
-        <v>0.5571511453974004</v>
+        <v>0.55915926309902</v>
       </c>
       <c r="M109" t="n">
-        <v>0.06993345987046762</v>
+        <v>0.04297148701676521</v>
       </c>
       <c r="N109" t="n">
-        <v>0.8923816109735622</v>
+        <v>0.9185868435691998</v>
       </c>
       <c r="O109" t="n">
-        <v>0.06991813534993679</v>
+        <v>0.04295688887582965</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04571591160090854</v>
+        <v>0.1580895174950757</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0713130198260479</v>
+        <v>0.01921386270096786</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2155734271548036</v>
+        <v>0.1580895174950757</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07151639949000912</v>
+        <v>0.01921386270096786</v>
       </c>
       <c r="L110" t="n">
-        <v>0.555022054968671</v>
+        <v>0.5555238665819295</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07152285668570552</v>
+        <v>0.04394811172169169</v>
       </c>
       <c r="N110" t="n">
-        <v>0.8882765643768734</v>
+        <v>0.9145879017798869</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07150718388061718</v>
+        <v>0.04393318180482577</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04644152070438484</v>
+        <v>0.1587164061568007</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07289775359996008</v>
+        <v>0.01964083742765603</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2131087625927697</v>
+        <v>0.1587164061568007</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07310565281200933</v>
+        <v>0.01964083742765603</v>
       </c>
       <c r="L111" t="n">
-        <v>0.5490656175439325</v>
+        <v>0.5574421098509449</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07311225350094341</v>
+        <v>0.04492473642661818</v>
       </c>
       <c r="N111" t="n">
-        <v>0.8819286707289585</v>
+        <v>0.912808265663973</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07309623241129755</v>
+        <v>0.0449094747338219</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04616753422942946</v>
+        <v>0.1593237909813017</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07448248737387225</v>
+        <v>0.02006781215434421</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2116422193957523</v>
+        <v>0.1593237909813017</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07469490613400953</v>
+        <v>0.02006781215434421</v>
       </c>
       <c r="L112" t="n">
-        <v>0.5478040352950808</v>
+        <v>0.5531378707688431</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07470165031618131</v>
+        <v>0.04590136113154466</v>
       </c>
       <c r="N112" t="n">
-        <v>0.8768736882704707</v>
+        <v>0.9034703097845472</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07468528094197793</v>
+        <v>0.04588576766281803</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04489580910249522</v>
+        <v>0.1599119685980325</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07606722114778443</v>
+        <v>0.02049478688103238</v>
       </c>
       <c r="J113" t="n">
-        <v>0.2103824178143013</v>
+        <v>0.1599119685980325</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07628415945600973</v>
+        <v>0.02049478688103238</v>
       </c>
       <c r="L113" t="n">
-        <v>0.5444595103940119</v>
+        <v>0.5524350271984014</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07629104713141921</v>
+        <v>0.04687798583647114</v>
       </c>
       <c r="N113" t="n">
-        <v>0.8728473752420637</v>
+        <v>0.9017964087046998</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07627432947265832</v>
+        <v>0.04686206059181416</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04562073610938261</v>
+        <v>0.160481235636447</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0776519549216966</v>
+        <v>0.02092176160772056</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2089361565234566</v>
+        <v>0.160481235636447</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07787341277800994</v>
+        <v>0.02092176160772056</v>
       </c>
       <c r="L114" t="n">
-        <v>0.5407505032434975</v>
+        <v>0.5475574570023971</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07788044394665712</v>
+        <v>0.04785461054139763</v>
       </c>
       <c r="N114" t="n">
-        <v>0.8729754513655815</v>
+        <v>0.9066089369875193</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0778633780033387</v>
+        <v>0.04783835352081028</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04330961273648343</v>
+        <v>0.1610318887259992</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07923668869560878</v>
+        <v>0.02134873633440873</v>
       </c>
       <c r="J115" t="n">
-        <v>0.2087773378579198</v>
+        <v>0.1610318887259992</v>
       </c>
       <c r="K115" t="n">
-        <v>0.07946266610001014</v>
+        <v>0.02134873633440873</v>
       </c>
       <c r="L115" t="n">
-        <v>0.5354579171102941</v>
+        <v>0.5458290380436074</v>
       </c>
       <c r="M115" t="n">
-        <v>0.07946984076189502</v>
+        <v>0.0488312352463241</v>
       </c>
       <c r="N115" t="n">
-        <v>0.8657224062926817</v>
+        <v>0.9014302691960959</v>
       </c>
       <c r="O115" t="n">
-        <v>0.07945242653401909</v>
+        <v>0.04881464644980642</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04296353997391</v>
+        <v>0.1615642244961429</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08082142246952095</v>
+        <v>0.02177571106109691</v>
       </c>
       <c r="J116" t="n">
-        <v>0.2067448372541432</v>
+        <v>0.1615642244961429</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08105191942201033</v>
+        <v>0.02177571106109691</v>
       </c>
       <c r="L116" t="n">
-        <v>0.532717066014332</v>
+        <v>0.5455736481848096</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08105923757713292</v>
+        <v>0.04980785995125059</v>
       </c>
       <c r="N116" t="n">
-        <v>0.8610510438430848</v>
+        <v>0.8950827798935187</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08104147506469946</v>
+        <v>0.04979093937880254</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04458856791001373</v>
+        <v>0.1620785395763321</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08240615624343313</v>
+        <v>0.02220268578778508</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2052667405188404</v>
+        <v>0.1620785395763321</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08264117274401055</v>
+        <v>0.02220268578778508</v>
       </c>
       <c r="L117" t="n">
-        <v>0.5274002872855895</v>
+        <v>0.5426151652887808</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08264863439237081</v>
+        <v>0.05078448465617707</v>
       </c>
       <c r="N117" t="n">
-        <v>0.8530778686392085</v>
+        <v>0.8950888436428773</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08263052359537984</v>
+        <v>0.05076723230779867</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04319074663314598</v>
+        <v>0.1625751305960206</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0839908900173453</v>
+        <v>0.02262966051447326</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2036711334587253</v>
+        <v>0.1625751305960206</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08423042606601075</v>
+        <v>0.02262966051447326</v>
       </c>
       <c r="L118" t="n">
-        <v>0.5249799182540449</v>
+        <v>0.5429774672182984</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08423803120760871</v>
+        <v>0.05176110936110355</v>
       </c>
       <c r="N118" t="n">
-        <v>0.8427193853034703</v>
+        <v>0.8949708350072617</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08421957212606024</v>
+        <v>0.0517435252367948</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0417761262316582</v>
+        <v>0.1630542941846624</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08557562379125747</v>
+        <v>0.02305663524116143</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2010861018805116</v>
+        <v>0.1630542941846624</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08581967938801094</v>
+        <v>0.02305663524116143</v>
       </c>
       <c r="L119" t="n">
-        <v>0.520328296249676</v>
+        <v>0.5422844318361394</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08582742802284661</v>
+        <v>0.05273773406603003</v>
       </c>
       <c r="N119" t="n">
-        <v>0.8386920984582883</v>
+        <v>0.8953511285497607</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08580862065674061</v>
+        <v>0.05271981816579092</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04235075679390179</v>
+        <v>0.1635163269717113</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08716035756516964</v>
+        <v>0.02348360996784961</v>
       </c>
       <c r="J120" t="n">
-        <v>0.199539731590913</v>
+        <v>0.1635163269717113</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08740893271001114</v>
+        <v>0.02348360996784961</v>
       </c>
       <c r="L120" t="n">
-        <v>0.5157177586024616</v>
+        <v>0.5396599370050813</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08741682483808451</v>
+        <v>0.05371435877095652</v>
       </c>
       <c r="N120" t="n">
-        <v>0.8302125127260801</v>
+        <v>0.8952520988334643</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08739766918742099</v>
+        <v>0.05369611109478706</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03892068840822811</v>
+        <v>0.1639615255866212</v>
       </c>
       <c r="G121" t="n">
-        <v>0.08874509133908182</v>
+        <v>0.02391058469453778</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1963601083966434</v>
+        <v>0.1639615255866212</v>
       </c>
       <c r="K121" t="n">
-        <v>0.08899818603201136</v>
+        <v>0.02391058469453778</v>
       </c>
       <c r="L121" t="n">
-        <v>0.5058206426423796</v>
+        <v>0.5429278605879012</v>
       </c>
       <c r="M121" t="n">
-        <v>0.08900622165332241</v>
+        <v>0.054690983475883</v>
       </c>
       <c r="N121" t="n">
-        <v>0.8197971327292629</v>
+        <v>0.8927961204214617</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08898671771810136</v>
+        <v>0.05467240402378318</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0394919711629886</v>
+        <v>0.1643901866588462</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09032982511299399</v>
+        <v>0.02433755942122596</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1963753181044164</v>
+        <v>0.1643901866588462</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09058743935401155</v>
+        <v>0.02433755942122596</v>
       </c>
       <c r="L122" t="n">
-        <v>0.5028092856994084</v>
+        <v>0.5409084963516749</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0905956184685603</v>
+        <v>0.05566760818080949</v>
       </c>
       <c r="N122" t="n">
-        <v>0.8089624630902549</v>
+        <v>0.8911009598264729</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09057576624878175</v>
+        <v>0.05564869695277932</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04007065514653464</v>
+        <v>0.1648026068178399</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09191455888690618</v>
+        <v>0.02476453414791413</v>
       </c>
       <c r="J123" t="n">
-        <v>0.192813446520946</v>
+        <v>0.1648026068178399</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09217669267601175</v>
+        <v>0.02476453414791413</v>
       </c>
       <c r="L123" t="n">
-        <v>0.4951560251035263</v>
+        <v>0.5424171582294461</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09218501528379822</v>
+        <v>0.05664423288573596</v>
       </c>
       <c r="N123" t="n">
-        <v>0.7989250084314742</v>
+        <v>0.8900267260130311</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09216481477946215</v>
+        <v>0.05662498988177544</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03966279044721766</v>
+        <v>0.1651990826930565</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09349929266081836</v>
+        <v>0.02519150887460231</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1925025794529456</v>
+        <v>0.1651990826930565</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09376594599801197</v>
+        <v>0.02519150887460231</v>
       </c>
       <c r="L124" t="n">
-        <v>0.4942331981847115</v>
+        <v>0.5435383449974608</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09377441209903611</v>
+        <v>0.05762085759066244</v>
       </c>
       <c r="N124" t="n">
-        <v>0.795701273375338</v>
+        <v>0.8862968188497112</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09375386331014252</v>
+        <v>0.05760128281077157</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04127386968606238</v>
+        <v>0.1655799109139497</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09508402643473053</v>
+        <v>0.02561848360129048</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1885708027071293</v>
+        <v>0.1655799109139497</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09535519932001217</v>
+        <v>0.02561848360129048</v>
       </c>
       <c r="L125" t="n">
-        <v>0.486013142272942</v>
+        <v>0.5428709682533372</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09536380891427401</v>
+        <v>0.05859748229558893</v>
       </c>
       <c r="N125" t="n">
-        <v>0.7896077625442642</v>
+        <v>0.8858084711823385</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0953429118408229</v>
+        <v>0.05857757573976771</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03886841563672853</v>
+        <v>0.1659453881099734</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09666876020864271</v>
+        <v>0.02604545832797866</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1878615474117812</v>
+        <v>0.1659453881099734</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09694445264201236</v>
+        <v>0.02604545832797866</v>
       </c>
       <c r="L126" t="n">
-        <v>0.4830575467336246</v>
+        <v>0.5393139395946943</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09695320572951191</v>
+        <v>0.05957410700051541</v>
       </c>
       <c r="N126" t="n">
-        <v>0.7774924811841187</v>
+        <v>0.8865589158567361</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09693196037150327</v>
+        <v>0.05955386866876382</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03842852987460302</v>
+        <v>0.1662958109105816</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09825349398255488</v>
+        <v>0.02647243305466683</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1854886697770672</v>
+        <v>0.1662958109105816</v>
       </c>
       <c r="K127" t="n">
-        <v>0.09853370596401256</v>
+        <v>0.02647243305466683</v>
       </c>
       <c r="L127" t="n">
-        <v>0.4765821198315793</v>
+        <v>0.5386661706191505</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09854260254474982</v>
+        <v>0.06055073170544188</v>
       </c>
       <c r="N127" t="n">
-        <v>0.7749951700875547</v>
+        <v>0.8869453857187287</v>
       </c>
       <c r="O127" t="n">
-        <v>0.09852100890218367</v>
+        <v>0.06053016159775995</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03696287310293325</v>
+        <v>0.1666314759452282</v>
       </c>
       <c r="G128" t="n">
-        <v>0.09983822775646706</v>
+        <v>0.02689940778135501</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1840808338798416</v>
+        <v>0.1666314759452282</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1001229592860128</v>
+        <v>0.02689940778135501</v>
       </c>
       <c r="L128" t="n">
-        <v>0.4711578473096456</v>
+        <v>0.5406265729243241</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1001319993599877</v>
+        <v>0.06152735641036837</v>
       </c>
       <c r="N128" t="n">
-        <v>0.7595409020250125</v>
+        <v>0.88256511361414</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1001100574328641</v>
+        <v>0.06150645452675609</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03948010602496664</v>
+        <v>0.166952679843367</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1014229615303792</v>
+        <v>0.02732638250804318</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1825782445606428</v>
+        <v>0.166952679843367</v>
       </c>
       <c r="K129" t="n">
-        <v>0.101712212608013</v>
+        <v>0.02732638250804318</v>
       </c>
       <c r="L129" t="n">
-        <v>0.4663882800768786</v>
+        <v>0.5440940581078338</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1017213961752256</v>
+        <v>0.06250398111529486</v>
       </c>
       <c r="N129" t="n">
-        <v>0.7481964533976128</v>
+        <v>0.8810153323887943</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1016991059635444</v>
+        <v>0.06248274745575221</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.0349888893439506</v>
+        <v>0.167259719234452</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1030076953042914</v>
+        <v>0.02775335723473135</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1787211066600095</v>
+        <v>0.167259719234452</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1033014659300132</v>
+        <v>0.02775335723473135</v>
       </c>
       <c r="L130" t="n">
-        <v>0.4601769690423334</v>
+        <v>0.5399675377672983</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1033107929904635</v>
+        <v>0.06348060582022134</v>
       </c>
       <c r="N130" t="n">
-        <v>0.742328600606477</v>
+        <v>0.8839932748885159</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1032881544942248</v>
+        <v>0.06345904038474834</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03649788376313252</v>
+        <v>0.1675528907479371</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1045924290782036</v>
+        <v>0.02818033196141953</v>
       </c>
       <c r="J131" t="n">
-        <v>0.17754962501848</v>
+        <v>0.1675528907479371</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1048907192520134</v>
+        <v>0.02818033196141953</v>
       </c>
       <c r="L131" t="n">
-        <v>0.4547274651150653</v>
+        <v>0.5413459235003359</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1049001898057014</v>
+        <v>0.06445723052514782</v>
       </c>
       <c r="N131" t="n">
-        <v>0.7348041200527269</v>
+        <v>0.8844961739591285</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1048772030249052</v>
+        <v>0.06443533331374447</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03401574998575986</v>
+        <v>0.1678324910132762</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1061771628521157</v>
+        <v>0.0286073066881077</v>
       </c>
       <c r="J132" t="n">
-        <v>0.175204004476593</v>
+        <v>0.1678324910132762</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1064799725740136</v>
+        <v>0.0286073066881077</v>
       </c>
       <c r="L132" t="n">
-        <v>0.4490433192041294</v>
+        <v>0.5386281269045653</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1064895866209393</v>
+        <v>0.06543385523007429</v>
       </c>
       <c r="N132" t="n">
-        <v>0.7250897881374828</v>
+        <v>0.8821212624464564</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1064662515555856</v>
+        <v>0.06541162624274061</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03755114871507999</v>
+        <v>0.168098816659923</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1077618966260279</v>
+        <v>0.02903428141479587</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1715244498748869</v>
+        <v>0.168098816659923</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1080692258960138</v>
+        <v>0.02903428141479587</v>
       </c>
       <c r="L133" t="n">
-        <v>0.441528082218581</v>
+        <v>0.5407130595776051</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1080789834361772</v>
+        <v>0.06641047993500078</v>
       </c>
       <c r="N133" t="n">
-        <v>0.7172523812618663</v>
+        <v>0.876965773196324</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1080553000862659</v>
+        <v>0.06638791917173673</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03511274065434035</v>
+        <v>0.1683521643173317</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1093466303999401</v>
+        <v>0.02946125614148405</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1710511660539004</v>
+        <v>0.1683521643173317</v>
       </c>
       <c r="K134" t="n">
-        <v>0.109658479218014</v>
+        <v>0.02946125614148405</v>
       </c>
       <c r="L134" t="n">
-        <v>0.439585305067475</v>
+        <v>0.5412996331170737</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1096683802514151</v>
+        <v>0.06738710463992727</v>
       </c>
       <c r="N134" t="n">
-        <v>0.7111586758269981</v>
+        <v>0.8799269390545547</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1096443486169463</v>
+        <v>0.06736421210073285</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03370918650678832</v>
+        <v>0.1685928306149561</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1109313641738523</v>
+        <v>0.02988823086817223</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1690243578541718</v>
+        <v>0.1685928306149561</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1112477325400142</v>
+        <v>0.02988823086817223</v>
       </c>
       <c r="L135" t="n">
-        <v>0.4338185386598667</v>
+        <v>0.5403867591205898</v>
       </c>
       <c r="M135" t="n">
-        <v>0.111257777066653</v>
+        <v>0.06836372934485375</v>
       </c>
       <c r="N135" t="n">
-        <v>0.6992754482340001</v>
+        <v>0.8762019928669739</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1112333971476267</v>
+        <v>0.06834050502972898</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03634914697567136</v>
+        <v>0.16882111218225</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1125160979477644</v>
+        <v>0.0303152055948604</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1660842301162397</v>
+        <v>0.16882111218225</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1128369858620144</v>
+        <v>0.0303152055948604</v>
       </c>
       <c r="L136" t="n">
-        <v>0.4313313339048116</v>
+        <v>0.5413733491857716</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1128471738818909</v>
+        <v>0.06934035404978023</v>
       </c>
       <c r="N136" t="n">
-        <v>0.691069474883993</v>
+        <v>0.8767881674794044</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1128224456783071</v>
+        <v>0.06931679795872511</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03304128276423686</v>
+        <v>0.1690373056486673</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1141008317216766</v>
+        <v>0.03074218032154858</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1645709876806427</v>
+        <v>0.1690373056486673</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1144262391840146</v>
+        <v>0.03074218032154858</v>
       </c>
       <c r="L137" t="n">
-        <v>0.4277272417113643</v>
+        <v>0.5393583149102381</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1144365706971288</v>
+        <v>0.0703169787547067</v>
       </c>
       <c r="N137" t="n">
-        <v>0.6810075321780978</v>
+        <v>0.877782695737671</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1144114942089875</v>
+        <v>0.07029309088772125</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03579425457573222</v>
+        <v>0.1692417076436621</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1156855654955888</v>
+        <v>0.03116915504823675</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1639248353879192</v>
+        <v>0.1692417076436621</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1160154925060148</v>
+        <v>0.03116915504823675</v>
       </c>
       <c r="L138" t="n">
-        <v>0.4208098129885807</v>
+        <v>0.5390405678916075</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1160259675123667</v>
+        <v>0.07129360345963319</v>
       </c>
       <c r="N138" t="n">
-        <v>0.6817563965174359</v>
+        <v>0.8771828104875977</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1160005427396679</v>
+        <v>0.07126938381671737</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03261672311340487</v>
+        <v>0.1694346147966882</v>
       </c>
       <c r="G139" t="n">
-        <v>0.117270299269501</v>
+        <v>0.03159612977492492</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1626859780786079</v>
+        <v>0.1694346147966882</v>
       </c>
       <c r="K139" t="n">
-        <v>0.117604745828015</v>
+        <v>0.03159612977492492</v>
       </c>
       <c r="L139" t="n">
-        <v>0.4206825986455152</v>
+        <v>0.5417190197274986</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1176153643276046</v>
+        <v>0.07227022816455968</v>
       </c>
       <c r="N139" t="n">
-        <v>0.6811828443031284</v>
+        <v>0.8774857445750083</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1175895912703482</v>
+        <v>0.0722456767457135</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03151734908050222</v>
+        <v>0.1696163237371994</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1188550330434132</v>
+        <v>0.0320231045016131</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1625946205932471</v>
+        <v>0.1696163237371994</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1191939991500152</v>
+        <v>0.0320231045016131</v>
       </c>
       <c r="L140" t="n">
-        <v>0.4196491495912235</v>
+        <v>0.5444925820155297</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1192047611428425</v>
+        <v>0.07324685286948616</v>
       </c>
       <c r="N140" t="n">
-        <v>0.6770536519362964</v>
+        <v>0.8774887308457276</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1191786398010286</v>
+        <v>0.07322196967470962</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03349963055728149</v>
+        <v>0.1697871310946498</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1204397668173253</v>
+        <v>0.03245007922830127</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1626909548248116</v>
+        <v>0.1697871310946498</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1207832524720154</v>
+        <v>0.03245007922830127</v>
       </c>
       <c r="L141" t="n">
-        <v>0.4152130167347609</v>
+        <v>0.5425601663533196</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1207941579580804</v>
+        <v>0.07422347757441264</v>
       </c>
       <c r="N141" t="n">
-        <v>0.6710351490710587</v>
+        <v>0.8813890021455791</v>
       </c>
       <c r="O141" t="n">
-        <v>0.120767688331709</v>
+        <v>0.07419826260370575</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03551094209659215</v>
+        <v>0.169947333498493</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1220245005912375</v>
+        <v>0.03287705395498944</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1612221488974954</v>
+        <v>0.169947333498493</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1223725057940156</v>
+        <v>0.03287705395498944</v>
       </c>
       <c r="L142" t="n">
-        <v>0.4161916082147036</v>
+        <v>0.5409206843384866</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1223835547733183</v>
+        <v>0.07520010227933911</v>
       </c>
       <c r="N142" t="n">
-        <v>0.6773685645132203</v>
+        <v>0.8725837913203872</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1223567368623894</v>
+        <v>0.07517455553270187</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03253485763908386</v>
+        <v>0.1700972275781832</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1236092343651497</v>
+        <v>0.03330402868167762</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1619127120212143</v>
+        <v>0.1700972275781832</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1239617591160158</v>
+        <v>0.03330402868167762</v>
       </c>
       <c r="L143" t="n">
-        <v>0.4157231830166253</v>
+        <v>0.5401730475686495</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1239729515885562</v>
+        <v>0.0761767269842656</v>
       </c>
       <c r="N143" t="n">
-        <v>0.6772480917652369</v>
+        <v>0.8766703312159759</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1239457853930698</v>
+        <v>0.07615084846169801</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03357074079943682</v>
+        <v>0.1702371099631742</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1251939681390619</v>
+        <v>0.0337310034083658</v>
       </c>
       <c r="J144" t="n">
-        <v>0.162259689958931</v>
+        <v>0.1702371099631742</v>
       </c>
       <c r="K144" t="n">
-        <v>0.125551012438016</v>
+        <v>0.0337310034083658</v>
       </c>
       <c r="L144" t="n">
-        <v>0.419700128863753</v>
+        <v>0.5429161676414267</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1255623484037941</v>
+        <v>0.07715335168919209</v>
       </c>
       <c r="N144" t="n">
-        <v>0.6771614761579053</v>
+        <v>0.8723458546781694</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1255348339237502</v>
+        <v>0.07712714139069414</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03261795519233124</v>
+        <v>0.1703672772829198</v>
       </c>
       <c r="G145" t="n">
-        <v>0.126778701912974</v>
+        <v>0.03415797813505397</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1634601284736079</v>
+        <v>0.1703672772829198</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1271402657600162</v>
+        <v>0.03415797813505397</v>
       </c>
       <c r="L145" t="n">
-        <v>0.4204148368730101</v>
+        <v>0.5407489561544366</v>
       </c>
       <c r="M145" t="n">
-        <v>0.127151745219032</v>
+        <v>0.07812997639411856</v>
       </c>
       <c r="N145" t="n">
-        <v>0.6779964630220227</v>
+        <v>0.875907594552792</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1271238824544305</v>
+        <v>0.07810343431969027</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03467586443244731</v>
+        <v>0.170488026166874</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1283634356868862</v>
+        <v>0.03458495286174215</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1632110733282078</v>
+        <v>0.170488026166874</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1287295190820164</v>
+        <v>0.03458495286174215</v>
       </c>
       <c r="L146" t="n">
-        <v>0.4196596981613191</v>
+        <v>0.544370324705298</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1287411420342699</v>
+        <v>0.07910660109904505</v>
       </c>
       <c r="N146" t="n">
-        <v>0.6765407976883857</v>
+        <v>0.8744527836856676</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1287129309851109</v>
+        <v>0.07907972724868639</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03574383213446523</v>
+        <v>0.1705996532444908</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1299481694607984</v>
+        <v>0.03501192758843032</v>
       </c>
       <c r="J147" t="n">
-        <v>0.163309570285693</v>
+        <v>0.1705996532444908</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1303187724040166</v>
+        <v>0.03501192758843032</v>
       </c>
       <c r="L147" t="n">
-        <v>0.4224271038456031</v>
+        <v>0.5429791848916296</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1303305388495078</v>
+        <v>0.08008322580397154</v>
       </c>
       <c r="N147" t="n">
-        <v>0.6753822254877915</v>
+        <v>0.8763786549226201</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1303019795157913</v>
+        <v>0.08005602017768251</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03382122191306519</v>
+        <v>0.1707024551452239</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1315329032347106</v>
+        <v>0.0354389023151185</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1646526651090263</v>
+        <v>0.1707024551452239</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1319080257260168</v>
+        <v>0.0354389023151185</v>
       </c>
       <c r="L148" t="n">
-        <v>0.421009445042785</v>
+        <v>0.539943208955484</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1319199356647457</v>
+        <v>0.08105985050889801</v>
       </c>
       <c r="N148" t="n">
-        <v>0.677408491751037</v>
+        <v>0.8756975021855108</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1318910280464717</v>
+        <v>0.08103231310667865</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03390739738292742</v>
+        <v>0.1707967284985272</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1331176370086228</v>
+        <v>0.03586587704180667</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1646374035611701</v>
+        <v>0.1707967284985272</v>
       </c>
       <c r="K149" t="n">
-        <v>0.133497279048017</v>
+        <v>0.03586587704180667</v>
       </c>
       <c r="L149" t="n">
-        <v>0.4232991128697878</v>
+        <v>0.5450077578261392</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1335093324799836</v>
+        <v>0.0820364752138245</v>
       </c>
       <c r="N149" t="n">
-        <v>0.683407341808919</v>
+        <v>0.8687313693265727</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1334800765771521</v>
+        <v>0.08200860603567478</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03600172215873207</v>
+        <v>0.1708827699338549</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1347023707825349</v>
+        <v>0.03629285176849485</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1645608314050871</v>
+        <v>0.1708827699338549</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1350865323700172</v>
+        <v>0.03629285176849485</v>
       </c>
       <c r="L150" t="n">
-        <v>0.4237884984435344</v>
+        <v>0.5403765409426184</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1350987292952215</v>
+        <v>0.08301309991875097</v>
       </c>
       <c r="N150" t="n">
-        <v>0.6813665209922346</v>
+        <v>0.8750793288567634</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1350691251078324</v>
+        <v>0.08298489896467091</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03410355985515938</v>
+        <v>0.1709608760806605</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1362871045564471</v>
+        <v>0.03671982649518302</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1643199944037398</v>
+        <v>0.1709608760806605</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1366757856920174</v>
+        <v>0.03671982649518302</v>
       </c>
       <c r="L151" t="n">
-        <v>0.4239699928809475</v>
+        <v>0.540254495265319</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1366881261104594</v>
+        <v>0.08398972462367746</v>
       </c>
       <c r="N151" t="n">
-        <v>0.6847737746317807</v>
+        <v>0.8677401543512596</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1366581736385128</v>
+        <v>0.08396119189366703</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03621227408688951</v>
+        <v>0.1710313435683983</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1378718383303593</v>
+        <v>0.0371468012218712</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1643119383200907</v>
+        <v>0.1710313435683983</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1382650390140177</v>
+        <v>0.0371468012218712</v>
       </c>
       <c r="L152" t="n">
-        <v>0.4243359872989502</v>
+        <v>0.5388465577546383</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1382775229256973</v>
+        <v>0.08496634932860395</v>
       </c>
       <c r="N152" t="n">
-        <v>0.690416848058354</v>
+        <v>0.8678126193852379</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1382472221691932</v>
+        <v>0.08493748482266317</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03432722846860269</v>
+        <v>0.1710944690265219</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1394565721042715</v>
+        <v>0.03757377594855937</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1666337089171026</v>
+        <v>0.1710944690265219</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1398542923360178</v>
+        <v>0.03757377594855937</v>
       </c>
       <c r="L153" t="n">
-        <v>0.4265788728144653</v>
+        <v>0.5419576653709733</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1398669197409352</v>
+        <v>0.08594297403353042</v>
       </c>
       <c r="N153" t="n">
-        <v>0.6895834866027519</v>
+        <v>0.8738954975338743</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1398362706998736</v>
+        <v>0.0859137777516593</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03249827208768279</v>
+        <v>0.1711505490844853</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1410413058781836</v>
+        <v>0.03800075067524755</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1654886586699168</v>
+        <v>0.1711505490844853</v>
       </c>
       <c r="K154" t="n">
-        <v>0.141443545658018</v>
+        <v>0.03800075067524755</v>
       </c>
       <c r="L154" t="n">
-        <v>0.4279564396458931</v>
+        <v>0.5425927550747219</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1414563165561731</v>
+        <v>0.08691959873845691</v>
       </c>
       <c r="N154" t="n">
-        <v>0.687522086333096</v>
+        <v>0.8721875623723464</v>
       </c>
       <c r="O154" t="n">
-        <v>0.141425319230554</v>
+        <v>0.08689007068065542</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03477370950274915</v>
+        <v>0.1711998803717423</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1426260396520958</v>
+        <v>0.03842772540193572</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1667188637369126</v>
+        <v>0.1711998803717423</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1430327989800182</v>
+        <v>0.03842772540193572</v>
       </c>
       <c r="L155" t="n">
-        <v>0.4318549443668234</v>
+        <v>0.5368567638262809</v>
       </c>
       <c r="M155" t="n">
-        <v>0.143045713371411</v>
+        <v>0.08789622344338338</v>
       </c>
       <c r="N155" t="n">
-        <v>0.7004388925839151</v>
+        <v>0.8663875874758303</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1430143677612344</v>
+        <v>0.08786636360965154</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03713446380554271</v>
+        <v>0.171242759517747</v>
       </c>
       <c r="G156" t="n">
-        <v>0.144210773426008</v>
+        <v>0.03885470012862389</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1693716458382883</v>
+        <v>0.171242759517747</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1446220523020184</v>
+        <v>0.03885470012862389</v>
       </c>
       <c r="L156" t="n">
-        <v>0.4364439934538358</v>
+        <v>0.5365546285860477</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1446351101866489</v>
+        <v>0.08887284814830987</v>
       </c>
       <c r="N156" t="n">
-        <v>0.7000036482036001</v>
+        <v>0.8671943464195028</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1446034162919147</v>
+        <v>0.08884265653864767</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03356132405922939</v>
+        <v>0.1712794831519532</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1457955071999202</v>
+        <v>0.03928167485531207</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1709578236881896</v>
+        <v>0.1712794831519532</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1462113056240187</v>
+        <v>0.03928167485531207</v>
       </c>
       <c r="L157" t="n">
-        <v>0.4386938930915266</v>
+        <v>0.5408912863144199</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1462245070018868</v>
+        <v>0.08984947285323636</v>
       </c>
       <c r="N157" t="n">
-        <v>0.7129464143066092</v>
+        <v>0.8719066127785399</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1461924648225951</v>
+        <v>0.08981894946764381</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03603507932697506</v>
+        <v>0.1713103479038148</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1473802409738323</v>
+        <v>0.03970864958200025</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1728882160007615</v>
+        <v>0.1713103479038148</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1478005589460189</v>
+        <v>0.03970864958200025</v>
       </c>
       <c r="L158" t="n">
-        <v>0.4451749494644933</v>
+        <v>0.5398716739717943</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1478139038171247</v>
+        <v>0.09082609755816284</v>
       </c>
       <c r="N158" t="n">
-        <v>0.7232972520074004</v>
+        <v>0.8639231601281191</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1477815133532755</v>
+        <v>0.09079524239663994</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03553651867194567</v>
+        <v>0.1713356504027858</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1489649747477445</v>
+        <v>0.04013562430868842</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1766736414901494</v>
+        <v>0.1713356504027858</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1493898122680191</v>
+        <v>0.04013562430868842</v>
       </c>
       <c r="L159" t="n">
-        <v>0.4548574687573325</v>
+        <v>0.5362007285185685</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1494033006323626</v>
+        <v>0.09180272226308932</v>
       </c>
       <c r="N159" t="n">
-        <v>0.733286222420432</v>
+        <v>0.8656427620434167</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1493705618839559</v>
+        <v>0.09177153532563606</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03904643115730708</v>
+        <v>0.1713556872783198</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1505497085216567</v>
+        <v>0.0405625990353766</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1788249188704985</v>
+        <v>0.1713556872783198</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1509790655900193</v>
+        <v>0.0405625990353766</v>
       </c>
       <c r="L160" t="n">
-        <v>0.4554117571546413</v>
+        <v>0.5330833869151399</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1509926974476005</v>
+        <v>0.09277934696801579</v>
       </c>
       <c r="N160" t="n">
-        <v>0.7372433866601621</v>
+        <v>0.8645641920996087</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1509596104146362</v>
+        <v>0.09274782825463219</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03954560584622523</v>
+        <v>0.171370755159871</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1521344422955689</v>
+        <v>0.04098957376206477</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1799528668559542</v>
+        <v>0.171370755159871</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1525683189120195</v>
+        <v>0.04098957376206477</v>
       </c>
       <c r="L161" t="n">
-        <v>0.4649081208410162</v>
+        <v>0.5334245861219054</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1525820942628384</v>
+        <v>0.09375597167294228</v>
       </c>
       <c r="N161" t="n">
-        <v>0.7516988058410491</v>
+        <v>0.8626862238718725</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1525486589453166</v>
+        <v>0.09372412118362831</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03901483180186599</v>
+        <v>0.1713811506768933</v>
       </c>
       <c r="G162" t="n">
-        <v>0.153719176069481</v>
+        <v>0.04141654848875294</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1828683041606617</v>
+        <v>0.1713811506768933</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1541575722340197</v>
+        <v>0.04141654848875294</v>
       </c>
       <c r="L162" t="n">
-        <v>0.4708168660010545</v>
+        <v>0.5337292630992627</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1541714910780763</v>
+        <v>0.09473259637786877</v>
       </c>
       <c r="N162" t="n">
-        <v>0.7560825410775512</v>
+        <v>0.8678076309353845</v>
       </c>
       <c r="O162" t="n">
-        <v>0.154137707475997</v>
+        <v>0.09470041411262445</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03643489808739531</v>
+        <v>0.1713871704588404</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1553039098433932</v>
+        <v>0.04184352321544112</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1840820494987663</v>
+        <v>0.1713871704588404</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1557468255560199</v>
+        <v>0.04184352321544112</v>
       </c>
       <c r="L163" t="n">
-        <v>0.4727082988193531</v>
+        <v>0.5325023548076089</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1557608878933142</v>
+        <v>0.09570922108279525</v>
       </c>
       <c r="N163" t="n">
-        <v>0.767124653484126</v>
+        <v>0.8692271868653215</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1557267560066774</v>
+        <v>0.09567670704162057</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03980012738324824</v>
+        <v>0.1713891111351664</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1568886436173054</v>
+        <v>0.04227049794212929</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1858225766549821</v>
+        <v>0.1713891111351664</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1573360788780201</v>
+        <v>0.04227049794212929</v>
       </c>
       <c r="L164" t="n">
-        <v>0.479295718510238</v>
+        <v>0.5311487982073413</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1573502847085521</v>
+        <v>0.09668584578772173</v>
       </c>
       <c r="N164" t="n">
-        <v>0.7753343407013461</v>
+        <v>0.8653436652368597</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1573158045373578</v>
+        <v>0.0966529999706167</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03915186275484513</v>
+        <v>0.1713891111351664</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1584733773912176</v>
+        <v>0.04227049794212929</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1877574621243905</v>
+        <v>0.1713891111351664</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1589253322000203</v>
+        <v>0.04227049794212929</v>
       </c>
       <c r="L165" t="n">
-        <v>0.4840066774027254</v>
+        <v>0.5325735302588572</v>
       </c>
       <c r="M165" t="n">
-        <v>0.15893968152379</v>
+        <v>0.0976624704926482</v>
       </c>
       <c r="N165" t="n">
-        <v>0.778015716963336</v>
+        <v>0.868155839625176</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1589048530680382</v>
+        <v>0.09762929289961284</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04049534115470321</v>
+        <v>0.1688750833764422</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1600581111651297</v>
+        <v>0.04227022941366528</v>
       </c>
       <c r="J166" t="n">
-        <v>0.188353329467886</v>
+        <v>0.1688750833764422</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1605145855220205</v>
+        <v>0.04227022941366528</v>
       </c>
       <c r="L166" t="n">
-        <v>0.484817085814587</v>
+        <v>0.5266814879225541</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1605290783390279</v>
+        <v>0.09863909519757469</v>
       </c>
       <c r="N166" t="n">
-        <v>0.7822353683874962</v>
+        <v>0.868462483605447</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1604939015987185</v>
+        <v>0.09860558582860897</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04083117201155963</v>
+        <v>0.1663859222141245</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1616428449390419</v>
+        <v>0.04226996088520125</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1899130077842725</v>
+        <v>0.1663859222141245</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1621038388440207</v>
+        <v>0.04226996088520125</v>
       </c>
       <c r="L167" t="n">
-        <v>0.4911342303249765</v>
+        <v>0.529277608158829</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1621184751542658</v>
+        <v>0.09961571990250118</v>
       </c>
       <c r="N167" t="n">
-        <v>0.7914050305487111</v>
+        <v>0.8608623707528492</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1620829501293989</v>
+        <v>0.09958187875760509</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0391599647541515</v>
+        <v>0.1639224106822458</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1632275787129541</v>
+        <v>0.04226969235673724</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1914393261723536</v>
+        <v>0.1639224106822458</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1636930921660209</v>
+        <v>0.04226969235673724</v>
       </c>
       <c r="L168" t="n">
-        <v>0.4967653975130466</v>
+        <v>0.5260668279280794</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1637078719695037</v>
+        <v>0.1005923446074277</v>
       </c>
       <c r="N168" t="n">
-        <v>0.8026364390218671</v>
+        <v>0.8604542746425589</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1636719986600793</v>
+        <v>0.1005581716866012</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04048232881121601</v>
+        <v>0.161485331814623</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1648123124868663</v>
+        <v>0.04226942382827322</v>
       </c>
       <c r="J169" t="n">
-        <v>0.195135113730933</v>
+        <v>0.161485331814623</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1652823454880211</v>
+        <v>0.04226942382827322</v>
       </c>
       <c r="L169" t="n">
-        <v>0.4992178739579509</v>
+        <v>0.5258540841907025</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1652972687847416</v>
+        <v>0.1015689693123541</v>
       </c>
       <c r="N169" t="n">
-        <v>0.8077413293818488</v>
+        <v>0.8637369688497537</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1652610471907597</v>
+        <v>0.1015344646155973</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03979887361149026</v>
+        <v>0.1590754686452861</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1663970462607784</v>
+        <v>0.04226915529980921</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1960031995588144</v>
+        <v>0.1590754686452861</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1668715988100213</v>
+        <v>0.04226915529980921</v>
       </c>
       <c r="L170" t="n">
-        <v>0.5020989462388425</v>
+        <v>0.5252443139070955</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1668866655999795</v>
+        <v>0.1025455940172806</v>
       </c>
       <c r="N170" t="n">
-        <v>0.811231437203542</v>
+        <v>0.8605092269496094</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1668500957214401</v>
+        <v>0.1025107575445935</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04011020858371142</v>
+        <v>0.1566936042080547</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1679817800346906</v>
+        <v>0.04226888677134519</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1965464127548014</v>
+        <v>0.1566936042080547</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1684608521320215</v>
+        <v>0.04226888677134519</v>
       </c>
       <c r="L171" t="n">
-        <v>0.504415900934875</v>
+        <v>0.5243424540376559</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1684760624152174</v>
+        <v>0.1035222187222071</v>
       </c>
       <c r="N171" t="n">
-        <v>0.8212184980618319</v>
+        <v>0.8642698225173028</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1684391442521205</v>
+        <v>0.1034870504735896</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04341694315661659</v>
+        <v>0.1543405215369562</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1695665138086028</v>
+        <v>0.04226861824288117</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1982675824176979</v>
+        <v>0.1543405215369562</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1700501054540217</v>
+        <v>0.04226861824288117</v>
       </c>
       <c r="L172" t="n">
-        <v>0.5123760246252013</v>
+        <v>0.5228534415427809</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1700654592304553</v>
+        <v>0.1044988434271336</v>
       </c>
       <c r="N172" t="n">
-        <v>0.8253142475316041</v>
+        <v>0.8575175291280103</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1700281927828008</v>
+        <v>0.1044633434025857</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04271968675894296</v>
+        <v>0.1520170036658126</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1711512475825149</v>
+        <v>0.04226834971441715</v>
       </c>
       <c r="J173" t="n">
-        <v>0.2004695376463073</v>
+        <v>0.1520170036658126</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1716393587760219</v>
+        <v>0.04226834971441715</v>
       </c>
       <c r="L173" t="n">
-        <v>0.5131866038889749</v>
+        <v>0.5197822133828678</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1716548560456932</v>
+        <v>0.1054754681320601</v>
       </c>
       <c r="N173" t="n">
-        <v>0.8289304211877434</v>
+        <v>0.8581511203569091</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1716172413134812</v>
+        <v>0.1054396363315818</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04401904881942764</v>
+        <v>0.1497238336286491</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1727359813564271</v>
+        <v>0.04226808118595313</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2006551075394335</v>
+        <v>0.1497238336286491</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1732286120980221</v>
+        <v>0.04226808118595313</v>
       </c>
       <c r="L174" t="n">
-        <v>0.5176549253053491</v>
+        <v>0.519833706518314</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1732442528609311</v>
+        <v>0.1064520928369866</v>
       </c>
       <c r="N174" t="n">
-        <v>0.837778754605136</v>
+        <v>0.8602693697791753</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1732062898441616</v>
+        <v>0.106415929260578</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0433156387668078</v>
+        <v>0.1474617944592899</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1743207151303393</v>
+        <v>0.04226781265748911</v>
       </c>
       <c r="J175" t="n">
-        <v>0.2034271211958801</v>
+        <v>0.1474617944592899</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1748178654200223</v>
+        <v>0.04226781265748911</v>
       </c>
       <c r="L175" t="n">
-        <v>0.520388275453477</v>
+        <v>0.5211128579095168</v>
       </c>
       <c r="M175" t="n">
-        <v>0.174833649676169</v>
+        <v>0.107428717541913</v>
       </c>
       <c r="N175" t="n">
-        <v>0.8391709833586668</v>
+        <v>0.8615710509699858</v>
       </c>
       <c r="O175" t="n">
-        <v>0.174795338374842</v>
+        <v>0.1073922221895741</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04262184753569469</v>
+        <v>0.1452316691917578</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1759054489042515</v>
+        <v>0.0422675441290251</v>
       </c>
       <c r="J176" t="n">
-        <v>0.2050195684677499</v>
+        <v>0.1452316691917578</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1764071187420225</v>
+        <v>0.0422675441290251</v>
       </c>
       <c r="L176" t="n">
-        <v>0.5222725245696578</v>
+        <v>0.5207246045168732</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1764230464914069</v>
+        <v>0.1084053422468395</v>
       </c>
       <c r="N176" t="n">
-        <v>0.8484519941882921</v>
+        <v>0.8542549375045171</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1763843869055224</v>
+        <v>0.1083685151185702</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04494375189534798</v>
+        <v>0.1430342408598796</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1774901826781636</v>
+        <v>0.04226727560056108</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2047918584318197</v>
+        <v>0.1430342408598796</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1779963720640227</v>
+        <v>0.04226727560056108</v>
       </c>
       <c r="L177" t="n">
-        <v>0.5285626085649416</v>
+        <v>0.5169738833007809</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1780124433066448</v>
+        <v>0.109381966951766</v>
       </c>
       <c r="N177" t="n">
-        <v>0.8558636951441742</v>
+        <v>0.857019802957946</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1779734354362027</v>
+        <v>0.1093448080475664</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04527088816173164</v>
+        <v>0.1408702924976752</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1790749164520758</v>
+        <v>0.04226700707209707</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2058003909268726</v>
+        <v>0.1408702924976752</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1795856253860229</v>
+        <v>0.04226700707209707</v>
       </c>
       <c r="L178" t="n">
-        <v>0.5341470129361054</v>
+        <v>0.5169656312216366</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1796018401218827</v>
+        <v>0.1103585916566925</v>
       </c>
       <c r="N178" t="n">
-        <v>0.8571234951993359</v>
+        <v>0.8575644209054488</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1795624839668831</v>
+        <v>0.1103211009765625</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04559278742400835</v>
+        <v>0.1387406071389745</v>
       </c>
       <c r="G179" t="n">
-        <v>0.180659650225988</v>
+        <v>0.04226673854363305</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2090965670252227</v>
+        <v>0.1387406071389745</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1811748787080231</v>
+        <v>0.04226673854363305</v>
       </c>
       <c r="L179" t="n">
-        <v>0.5363005671048422</v>
+        <v>0.5138047852398384</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1811912369371206</v>
+        <v>0.111335216361619</v>
       </c>
       <c r="N179" t="n">
-        <v>0.8635297978756112</v>
+        <v>0.8534875649222021</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1811515324975635</v>
+        <v>0.1112973939055586</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04389898077134066</v>
+        <v>0.1366459678177944</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1822443839999002</v>
+        <v>0.04226647001516903</v>
       </c>
       <c r="J180" t="n">
-        <v>0.2093317877991843</v>
+        <v>0.1366459678177944</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1827641320300233</v>
+        <v>0.04226647001516903</v>
       </c>
       <c r="L180" t="n">
-        <v>0.5409981004928441</v>
+        <v>0.5172962823157831</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1827806337523585</v>
+        <v>0.1123118410665454</v>
       </c>
       <c r="N180" t="n">
-        <v>0.872881006694835</v>
+        <v>0.8580880085833832</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1827405810282439</v>
+        <v>0.1122736868345547</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04617899929289124</v>
+        <v>0.1345871575679678</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1838291177738124</v>
+        <v>0.04226620148670501</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2119574543210717</v>
+        <v>0.1345871575679678</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1843533853520235</v>
+        <v>0.04226620148670501</v>
       </c>
       <c r="L181" t="n">
-        <v>0.5417144425218039</v>
+        <v>0.5160450594098681</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1843700305675964</v>
+        <v>0.1132884657714719</v>
       </c>
       <c r="N181" t="n">
-        <v>0.8782755251788418</v>
+        <v>0.8537645254641678</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1843296295589243</v>
+        <v>0.1132499797635509</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04642237407782274</v>
+        <v>0.1325649594235084</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1854138515477245</v>
+        <v>0.042265932958241</v>
       </c>
       <c r="J182" t="n">
-        <v>0.212224967663199</v>
+        <v>0.1325649594235084</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1859426386740237</v>
+        <v>0.042265932958241</v>
       </c>
       <c r="L182" t="n">
-        <v>0.5455244226134139</v>
+        <v>0.5121560534824907</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1859594273828343</v>
+        <v>0.1142650904763984</v>
       </c>
       <c r="N182" t="n">
-        <v>0.8804117568494653</v>
+        <v>0.8536158891397329</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1859186780896047</v>
+        <v>0.114226272692547</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04461863621529773</v>
+        <v>0.1305801564182952</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1869985853216367</v>
+        <v>0.04226566442977699</v>
       </c>
       <c r="J183" t="n">
-        <v>0.2132857288978808</v>
+        <v>0.1305801564182952</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1875318919960239</v>
+        <v>0.04226566442977699</v>
       </c>
       <c r="L183" t="n">
-        <v>0.5468028701893672</v>
+        <v>0.5121342014940481</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1875488241980722</v>
+        <v>0.1152417151813249</v>
       </c>
       <c r="N183" t="n">
-        <v>0.8833881052285407</v>
+        <v>0.8571408731852551</v>
       </c>
       <c r="O183" t="n">
-        <v>0.187507726620285</v>
+        <v>0.1152025656215431</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04575864772615675</v>
+        <v>0.1286335315862103</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1885833190955489</v>
+        <v>0.04226539590131297</v>
       </c>
       <c r="J184" t="n">
-        <v>0.213791139097431</v>
+        <v>0.1286335315862103</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1891211453180241</v>
+        <v>0.04226539590131297</v>
       </c>
       <c r="L184" t="n">
-        <v>0.5511246146713559</v>
+        <v>0.5114844404049378</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1891382210133101</v>
+        <v>0.1162183398862514</v>
       </c>
       <c r="N184" t="n">
-        <v>0.8924029738379019</v>
+        <v>0.8564382511759113</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1890967751509654</v>
+        <v>0.1161788585505393</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04587695250218889</v>
+        <v>0.1267258679612625</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1901680528694611</v>
+        <v>0.04226512737284895</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2148398952980368</v>
+        <v>0.1267258679612625</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1907103986400243</v>
+        <v>0.04226512737284895</v>
       </c>
       <c r="L185" t="n">
-        <v>0.5521380909903058</v>
+        <v>0.511111707175557</v>
       </c>
       <c r="M185" t="n">
-        <v>0.190727617828548</v>
+        <v>0.1171949645911779</v>
       </c>
       <c r="N185" t="n">
-        <v>0.8923791649501688</v>
+        <v>0.8511067966868778</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1906858236816458</v>
+        <v>0.1171551514795354</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04299275707992456</v>
+        <v>0.124857948577293</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1917527866433732</v>
+        <v>0.04226485884438493</v>
       </c>
       <c r="J186" t="n">
-        <v>0.215477030760193</v>
+        <v>0.124857948577293</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1922996519620245</v>
+        <v>0.04226485884438493</v>
       </c>
       <c r="L186" t="n">
-        <v>0.5536214903587369</v>
+        <v>0.5106159391348998</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1923170146437859</v>
+        <v>0.1181715892961043</v>
       </c>
       <c r="N186" t="n">
-        <v>0.8943073791510677</v>
+        <v>0.8530363014785786</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1922748722123262</v>
+        <v>0.1181314444085315</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.04410602293235522</v>
+        <v>0.1230305564683071</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1933375204172854</v>
+        <v>0.04226459031592091</v>
       </c>
       <c r="J187" t="n">
-        <v>0.2150024541029488</v>
+        <v>0.1230305564683071</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1938889052840247</v>
+        <v>0.04226459031592091</v>
       </c>
       <c r="L187" t="n">
-        <v>0.5554747301572527</v>
+        <v>0.5139522570079241</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1939064114590238</v>
+        <v>0.1191482140010308</v>
       </c>
       <c r="N187" t="n">
-        <v>0.8930869958031261</v>
+        <v>0.8489525811529598</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1938639207430065</v>
+        <v>0.1191077373375276</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.04721671153247235</v>
+        <v>0.1212444746681495</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1949222541911976</v>
+        <v>0.04226432178745689</v>
       </c>
       <c r="J188" t="n">
-        <v>0.217215986475674</v>
+        <v>0.1212444746681495</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1954781586060249</v>
+        <v>0.04226432178745689</v>
       </c>
       <c r="L188" t="n">
-        <v>0.5570973497411869</v>
+        <v>0.5108079237362835</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1954958082742617</v>
+        <v>0.1201248387059573</v>
       </c>
       <c r="N188" t="n">
-        <v>0.8957172730040249</v>
+        <v>0.8459454432296539</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1954529692736869</v>
+        <v>0.1200840302665238</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.04532478435326751</v>
+        <v>0.119500486210822</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1965069879651098</v>
+        <v>0.04226405325899288</v>
       </c>
       <c r="J189" t="n">
-        <v>0.2165174490277386</v>
+        <v>0.119500486210822</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1970674119280251</v>
+        <v>0.04226405325899288</v>
       </c>
       <c r="L189" t="n">
-        <v>0.558788888465874</v>
+        <v>0.5100817647463525</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1970852050894996</v>
+        <v>0.1211014634108838</v>
       </c>
       <c r="N189" t="n">
-        <v>0.8969974688514449</v>
+        <v>0.844722379490653</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1970420178043673</v>
+        <v>0.1210603231955199</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.04343020286773214</v>
+        <v>0.1177961767416491</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1980917217390219</v>
+        <v>0.04226378473052886</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2182066629085124</v>
+        <v>0.1177961767416491</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1986566652500253</v>
+        <v>0.04226378473052886</v>
       </c>
       <c r="L190" t="n">
-        <v>0.5603488856866479</v>
+        <v>0.5082726054645055</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1986746019047375</v>
+        <v>0.1220780881158103</v>
       </c>
       <c r="N190" t="n">
-        <v>0.9005268414430673</v>
+        <v>0.8446908817179485</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1986310663350477</v>
+        <v>0.1220366161245161</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.04453292854885776</v>
+        <v>0.1161131449634884</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1996764555129341</v>
+        <v>0.04226351620206484</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2165834492673652</v>
+        <v>0.1161131449634884</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2002459185720256</v>
+        <v>0.04226351620206484</v>
       </c>
       <c r="L191" t="n">
-        <v>0.5613768807588426</v>
+        <v>0.5086792713171172</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2002639987199754</v>
+        <v>0.1230547128207367</v>
       </c>
       <c r="N191" t="n">
-        <v>0.9010046488765721</v>
+        <v>0.8429584416935324</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2002201148657281</v>
+        <v>0.1230129090535122</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.04763292286963587</v>
+        <v>0.1144489765216672</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2012611892868463</v>
+        <v>0.04226324767360082</v>
       </c>
       <c r="J192" t="n">
-        <v>0.217347629253667</v>
+        <v>0.1144489765216672</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2018351718940257</v>
+        <v>0.04226324767360082</v>
       </c>
       <c r="L192" t="n">
-        <v>0.5639724130377926</v>
+        <v>0.5101005877305619</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2018533955352133</v>
+        <v>0.1240313375256632</v>
       </c>
       <c r="N192" t="n">
-        <v>0.9069301492496412</v>
+        <v>0.8462325511993957</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2018091633964085</v>
+        <v>0.1239892019825083</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.04573014730305794</v>
+        <v>0.1128044544501823</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2028459230607585</v>
+        <v>0.04226297914513681</v>
       </c>
       <c r="J193" t="n">
-        <v>0.2175990240167874</v>
+        <v>0.1128044544501823</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2034244252160259</v>
+        <v>0.04226297914513681</v>
       </c>
       <c r="L193" t="n">
-        <v>0.5625350218788315</v>
+        <v>0.5085353801312142</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2034427923504512</v>
+        <v>0.1250079622305897</v>
       </c>
       <c r="N193" t="n">
-        <v>0.909902600659955</v>
+        <v>0.8379207020175307</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2033982119270888</v>
+        <v>0.1249654949115044</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.04782456332211552</v>
+        <v>0.1111803617828859</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2044306568346706</v>
+        <v>0.04226271061667279</v>
       </c>
       <c r="J194" t="n">
-        <v>0.2194374547060965</v>
+        <v>0.1111803617828859</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2050136785380262</v>
+        <v>0.04226271061667279</v>
       </c>
       <c r="L194" t="n">
-        <v>0.562764246637294</v>
+        <v>0.5063824739454488</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2050321891656891</v>
+        <v>0.1259845869355162</v>
       </c>
       <c r="N194" t="n">
-        <v>0.9063212612051949</v>
+        <v>0.8397303859299284</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2049872604577692</v>
+        <v>0.1259417878405006</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.04591613239980005</v>
+        <v>0.109577481553773</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2060153906085828</v>
+        <v>0.04226244208820878</v>
       </c>
       <c r="J195" t="n">
-        <v>0.218562742470964</v>
+        <v>0.109577481553773</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2066029318600263</v>
+        <v>0.04226244208820878</v>
       </c>
       <c r="L195" t="n">
-        <v>0.5671596266685138</v>
+        <v>0.5083406945996399</v>
       </c>
       <c r="M195" t="n">
-        <v>0.206621585980927</v>
+        <v>0.1269612116404427</v>
       </c>
       <c r="N195" t="n">
-        <v>0.9124853889830414</v>
+        <v>0.8353690947185816</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2065763089884496</v>
+        <v>0.1269180807694967</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.04800481600910306</v>
+        <v>0.1079965967966981</v>
       </c>
       <c r="G196" t="n">
-        <v>0.207600124382495</v>
+        <v>0.04226217355974476</v>
       </c>
       <c r="J196" t="n">
-        <v>0.2202747084607599</v>
+        <v>0.1079965967966981</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2081921851820266</v>
+        <v>0.04226217355974476</v>
       </c>
       <c r="L196" t="n">
-        <v>0.5685207013278253</v>
+        <v>0.5088088675201622</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2082109827961649</v>
+        <v>0.1279378363453691</v>
       </c>
       <c r="N196" t="n">
-        <v>0.9131942420911751</v>
+        <v>0.8326443201654808</v>
       </c>
       <c r="O196" t="n">
-        <v>0.20816535751913</v>
+        <v>0.1278943736984928</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.04609057562301604</v>
+        <v>0.1064384905456539</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2091848581564072</v>
+        <v>0.04226190503128074</v>
       </c>
       <c r="J197" t="n">
-        <v>0.2209731738248538</v>
+        <v>0.1064384905456539</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2097814385040268</v>
+        <v>0.04226190503128074</v>
       </c>
       <c r="L197" t="n">
-        <v>0.5662470099705623</v>
+        <v>0.5097858181333903</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2098003796114028</v>
+        <v>0.1289144610502956</v>
       </c>
       <c r="N197" t="n">
-        <v>0.9139470786272775</v>
+        <v>0.8303635540526181</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2097544060498104</v>
+        <v>0.1288706666274889</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.04717337271453048</v>
+        <v>0.1049039458345299</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2107695919303193</v>
+        <v>0.04226163650281672</v>
       </c>
       <c r="J198" t="n">
-        <v>0.220657959712616</v>
+        <v>0.1049039458345299</v>
       </c>
       <c r="K198" t="n">
-        <v>0.211370691826027</v>
+        <v>0.04226163650281672</v>
       </c>
       <c r="L198" t="n">
-        <v>0.5654380919520591</v>
+        <v>0.5103703718656983</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2113897764266407</v>
+        <v>0.1298910857552221</v>
       </c>
       <c r="N198" t="n">
-        <v>0.9158431566890296</v>
+        <v>0.8363342881619854</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2113434545804908</v>
+        <v>0.1298469595564851</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.04525316875663786</v>
+        <v>0.1033937456972177</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2123543257042315</v>
+        <v>0.0422613679743527</v>
       </c>
       <c r="J199" t="n">
-        <v>0.2214288872734158</v>
+        <v>0.1033937456972177</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2129599451480272</v>
+        <v>0.0422613679743527</v>
       </c>
       <c r="L199" t="n">
-        <v>0.5672934866276498</v>
+        <v>0.5050613541434613</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2129791732418786</v>
+        <v>0.1308677104601486</v>
       </c>
       <c r="N199" t="n">
-        <v>0.920381734374112</v>
+        <v>0.8269640142755746</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2129325031111711</v>
+        <v>0.1308232524854812</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0463299252223297</v>
+        <v>0.101908673167707</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2139390594781437</v>
+        <v>0.04226109944588869</v>
       </c>
       <c r="J200" t="n">
-        <v>0.2220857776566235</v>
+        <v>0.101908673167707</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2145491984700274</v>
+        <v>0.04226109944588869</v>
       </c>
       <c r="L200" t="n">
-        <v>0.5683127333526686</v>
+        <v>0.5062575903930535</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2145685700571165</v>
+        <v>0.1318443351650751</v>
       </c>
       <c r="N200" t="n">
-        <v>0.9162620697802056</v>
+        <v>0.8264602241753766</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2145215516418515</v>
+        <v>0.1317995454144773</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.04640360358459752</v>
+        <v>0.1004495112798574</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2155237932520558</v>
+        <v>0.04226083091742467</v>
       </c>
       <c r="J201" t="n">
-        <v>0.2209284520116087</v>
+        <v>0.1004495112798574</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2161384517920276</v>
+        <v>0.04226083091742467</v>
       </c>
       <c r="L201" t="n">
-        <v>0.5684953714824494</v>
+        <v>0.5076579060408493</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2161579668723544</v>
+        <v>0.1328209598700016</v>
       </c>
       <c r="N201" t="n">
-        <v>0.9173834210049913</v>
+        <v>0.8279304096433834</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2161106001725319</v>
+        <v>0.1327758383434735</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.04547416531643278</v>
+        <v>0.09901704306765655</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2171085270259681</v>
+        <v>0.04226056238896066</v>
       </c>
       <c r="J202" t="n">
-        <v>0.2215567314877414</v>
+        <v>0.09901704306765655</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2177277051140278</v>
+        <v>0.04226056238896066</v>
       </c>
       <c r="L202" t="n">
-        <v>0.5730409403723267</v>
+        <v>0.5080611265132235</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2177473636875923</v>
+        <v>0.133797584574928</v>
       </c>
       <c r="N202" t="n">
-        <v>0.9206450461461501</v>
+        <v>0.8231820624615865</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2176996487032123</v>
+        <v>0.1337521312724696</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.04454157189082697</v>
+        <v>0.09761205156496619</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2186932607998802</v>
+        <v>0.04226029386049664</v>
       </c>
       <c r="J203" t="n">
-        <v>0.2224704372343913</v>
+        <v>0.09761205156496619</v>
       </c>
       <c r="K203" t="n">
-        <v>0.219316958436028</v>
+        <v>0.04226029386049664</v>
       </c>
       <c r="L203" t="n">
-        <v>0.5725489793776342</v>
+        <v>0.5056660772365502</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2193367605028302</v>
+        <v>0.1347742092798545</v>
       </c>
       <c r="N203" t="n">
-        <v>0.920746203301363</v>
+        <v>0.8223226744119784</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2192886972338927</v>
+        <v>0.1347284242014657</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.04560578478077162</v>
+        <v>0.09623531980577157</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2202779945737924</v>
+        <v>0.04226002533203262</v>
       </c>
       <c r="J204" t="n">
-        <v>0.2236693904009284</v>
+        <v>0.09623531980577157</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2209062117580282</v>
+        <v>0.04226002533203262</v>
       </c>
       <c r="L204" t="n">
-        <v>0.5726190278537062</v>
+        <v>0.5042715836372044</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2209261573180681</v>
+        <v>0.135750833984781</v>
       </c>
       <c r="N204" t="n">
-        <v>0.9260861505683108</v>
+        <v>0.8202597372765498</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2208777457645731</v>
+        <v>0.1357047171304618</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.04766676545925819</v>
+        <v>0.09488763082393692</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2218627283477045</v>
+        <v>0.0422597568035686</v>
       </c>
       <c r="J205" t="n">
-        <v>0.2231534121367226</v>
+        <v>0.09488763082393692</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2224954650800284</v>
+        <v>0.0422597568035686</v>
       </c>
       <c r="L205" t="n">
-        <v>0.5730506251558768</v>
+        <v>0.5092764711415605</v>
       </c>
       <c r="M205" t="n">
-        <v>0.222515554133306</v>
+        <v>0.1367274586897075</v>
       </c>
       <c r="N205" t="n">
-        <v>0.9209641460446746</v>
+        <v>0.8206007428372929</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2224667942952535</v>
+        <v>0.136681010059458</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.04572447539927821</v>
+        <v>0.09356976765344499</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2234474621216168</v>
+        <v>0.04225948827510459</v>
       </c>
       <c r="J206" t="n">
-        <v>0.2230223235911435</v>
+        <v>0.09356976765344499</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2240847184020286</v>
+        <v>0.04225948827510459</v>
       </c>
       <c r="L206" t="n">
-        <v>0.5724433106394803</v>
+        <v>0.5089795651759926</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2241049509485439</v>
+        <v>0.137704083394634</v>
       </c>
       <c r="N206" t="n">
-        <v>0.9293794478281346</v>
+        <v>0.8174531828761992</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2240558428259338</v>
+        <v>0.1376573029884541</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.04677887607382315</v>
+        <v>0.09228251332816265</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2250321958955289</v>
+        <v>0.04225921974664057</v>
       </c>
       <c r="J207" t="n">
-        <v>0.2239759459135612</v>
+        <v>0.09228251332816265</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2256739717240288</v>
+        <v>0.04225921974664057</v>
       </c>
       <c r="L207" t="n">
-        <v>0.5770966236598504</v>
+        <v>0.5038796911668758</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2256943477637818</v>
+        <v>0.1386807080995605</v>
       </c>
       <c r="N207" t="n">
-        <v>0.930431314016373</v>
+        <v>0.8156245491752604</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2256448913566142</v>
+        <v>0.1386335959174502</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.04682992895588453</v>
+        <v>0.0910266508820699</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2266169296694411</v>
+        <v>0.04225895121817656</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2246141002533454</v>
+        <v>0.0910266508820699</v>
       </c>
       <c r="K208" t="n">
-        <v>0.227263225046029</v>
+        <v>0.04225895121817656</v>
       </c>
       <c r="L208" t="n">
-        <v>0.5751101035723217</v>
+        <v>0.5060756745405842</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2272837445790197</v>
+        <v>0.1396573328044869</v>
       </c>
       <c r="N208" t="n">
-        <v>0.9291190027070696</v>
+        <v>0.8127223335164678</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2272339398872946</v>
+        <v>0.1396098888464463</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.04487759551845383</v>
+        <v>0.08980296334903631</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2282016634433532</v>
+        <v>0.04225868268971254</v>
       </c>
       <c r="J209" t="n">
-        <v>0.2239366077598661</v>
+        <v>0.08980296334903631</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2288524783680292</v>
+        <v>0.04225868268971254</v>
       </c>
       <c r="L209" t="n">
-        <v>0.5756832897322279</v>
+        <v>0.5054663407234924</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2288731413942576</v>
+        <v>0.1406339575094134</v>
       </c>
       <c r="N209" t="n">
-        <v>0.9329417719979057</v>
+        <v>0.8062540276818136</v>
       </c>
       <c r="O209" t="n">
-        <v>0.228822988417975</v>
+        <v>0.1405861817754425</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.04892183723452255</v>
+        <v>0.08861223376303923</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2297863972172655</v>
+        <v>0.04225841416124852</v>
       </c>
       <c r="J210" t="n">
-        <v>0.223143289582493</v>
+        <v>0.08861223376303923</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2304417316900294</v>
+        <v>0.04225841416124852</v>
       </c>
       <c r="L210" t="n">
-        <v>0.5748157214949033</v>
+        <v>0.505450515141975</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2304625382094955</v>
+        <v>0.1416105822143399</v>
       </c>
       <c r="N210" t="n">
-        <v>0.9300988799865623</v>
+        <v>0.8067271234532899</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2304120369486553</v>
+        <v>0.1415624747044386</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0479626155770822</v>
+        <v>0.087455245157951</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2313711309911776</v>
+        <v>0.0422581456327845</v>
       </c>
       <c r="J211" t="n">
-        <v>0.2243339668705961</v>
+        <v>0.087455245157951</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2320309850120296</v>
+        <v>0.0422581456327845</v>
       </c>
       <c r="L211" t="n">
-        <v>0.5759069382156822</v>
+        <v>0.5083270232224065</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2320519350247334</v>
+        <v>0.1425872069192664</v>
       </c>
       <c r="N211" t="n">
-        <v>0.9302895847707203</v>
+        <v>0.8036491126128872</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2320010854793357</v>
+        <v>0.1425387676334347</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.04899989201912426</v>
+        <v>0.08633278056774601</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2329558647650898</v>
+        <v>0.04225787710432048</v>
       </c>
       <c r="J212" t="n">
-        <v>0.2249084607735451</v>
+        <v>0.08633278056774601</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2336202383340298</v>
+        <v>0.04225787710432048</v>
       </c>
       <c r="L212" t="n">
-        <v>0.5794564792498984</v>
+        <v>0.5071946903911615</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2336413318399713</v>
+        <v>0.1435638316241929</v>
       </c>
       <c r="N212" t="n">
-        <v>0.9316131444480603</v>
+        <v>0.8047274869425979</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2335901340100161</v>
+        <v>0.1435150605624309</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.04803362803364024</v>
+        <v>0.08524562302629959</v>
       </c>
       <c r="G213" t="n">
-        <v>0.234540598539002</v>
+        <v>0.04225760857585646</v>
       </c>
       <c r="J213" t="n">
-        <v>0.22516659244071</v>
+        <v>0.08524562302629959</v>
       </c>
       <c r="K213" t="n">
-        <v>0.23520949165603</v>
+        <v>0.04225760857585646</v>
       </c>
       <c r="L213" t="n">
-        <v>0.5764638839528862</v>
+        <v>0.5069523420746144</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2352307286552092</v>
+        <v>0.1445404563291194</v>
       </c>
       <c r="N213" t="n">
-        <v>0.9356688171162638</v>
+        <v>0.8049697382244133</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2351791825406965</v>
+        <v>0.144491353491427</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.04806378509362162</v>
+        <v>0.08419455556758321</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2361253323129142</v>
+        <v>0.04225734004739245</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2245081830214605</v>
+        <v>0.08419455556758321</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2367987449780302</v>
+        <v>0.04225734004739245</v>
       </c>
       <c r="L214" t="n">
-        <v>0.5790286916799798</v>
+        <v>0.5032988036991395</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2368201254704471</v>
+        <v>0.1455170810340458</v>
       </c>
       <c r="N214" t="n">
-        <v>0.934855860873011</v>
+        <v>0.800983358240326</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2367682310713769</v>
+        <v>0.1454676464204231</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.04509032467205989</v>
+        <v>0.08419455556758321</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2377100660868263</v>
+        <v>0.04225734004739245</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2253330536651666</v>
+        <v>0.08419455556758321</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2383879983000304</v>
+        <v>0.04225734004739245</v>
       </c>
       <c r="L215" t="n">
-        <v>0.578150441786513</v>
+        <v>0.5023329006911117</v>
       </c>
       <c r="M215" t="n">
-        <v>0.238409522285685</v>
+        <v>0.1464937057389723</v>
       </c>
       <c r="N215" t="n">
-        <v>0.9323735338159834</v>
+        <v>0.7989758387723266</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2383572796020572</v>
+        <v>0.1464439393494192</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.04811320824194658</v>
+        <v>0.08217849573354258</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2392947998607385</v>
+        <v>0.04224851569406407</v>
       </c>
       <c r="J216" t="n">
-        <v>0.2248410255211982</v>
+        <v>0.08217849573354258</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2399772516220306</v>
+        <v>0.04224851569406407</v>
       </c>
       <c r="L216" t="n">
-        <v>0.5766286736278202</v>
+        <v>0.5036534584769055</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2399989191009229</v>
+        <v>0.1474703304438988</v>
       </c>
       <c r="N216" t="n">
-        <v>0.9294210940428617</v>
+        <v>0.8023546716024071</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2399463281327376</v>
+        <v>0.1474202322784154</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.04713239727627316</v>
+        <v>0.08017721735572766</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2408795336346507</v>
+        <v>0.04223969134073569</v>
       </c>
       <c r="J217" t="n">
-        <v>0.2254319197389249</v>
+        <v>0.08017721735572766</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2415665049440308</v>
+        <v>0.04223969134073569</v>
       </c>
       <c r="L217" t="n">
-        <v>0.5817629265592354</v>
+        <v>0.5039593024828949</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2415883159161608</v>
+        <v>0.1484469551488253</v>
       </c>
       <c r="N217" t="n">
-        <v>0.9340977996513268</v>
+        <v>0.7986273485125591</v>
       </c>
       <c r="O217" t="n">
-        <v>0.241535376663418</v>
+        <v>0.1483965252074115</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.04614785324803114</v>
+        <v>0.07819097674563941</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2424642674085629</v>
+        <v>0.04223086698740731</v>
       </c>
       <c r="J218" t="n">
-        <v>0.2246055574677168</v>
+        <v>0.07819097674563941</v>
       </c>
       <c r="K218" t="n">
-        <v>0.243155758266031</v>
+        <v>0.04223086698740731</v>
       </c>
       <c r="L218" t="n">
-        <v>0.5781527399360928</v>
+        <v>0.503649258135455</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2431777127313987</v>
+        <v>0.1494235798537518</v>
       </c>
       <c r="N218" t="n">
-        <v>0.9374029087390597</v>
+        <v>0.7968013612847747</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2431244251940984</v>
+        <v>0.1493728181364077</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.04715953763021201</v>
+        <v>0.07622003021477877</v>
       </c>
       <c r="G219" t="n">
-        <v>0.244049001182475</v>
+        <v>0.04222204263407894</v>
       </c>
       <c r="J219" t="n">
-        <v>0.2258617598569436</v>
+        <v>0.07622003021477877</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2447450115880312</v>
+        <v>0.04222204263407894</v>
       </c>
       <c r="L219" t="n">
-        <v>0.5804976531137266</v>
+        <v>0.5062221508609601</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2447671095466366</v>
+        <v>0.1504002045586782</v>
       </c>
       <c r="N219" t="n">
-        <v>0.9362356794037413</v>
+        <v>0.7992842017010452</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2447134737247788</v>
+        <v>0.1503491110654037</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.04816741189580728</v>
+        <v>0.07426463407464673</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2456337349563872</v>
+        <v>0.04221321828075055</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2245003480559752</v>
+        <v>0.07426463407464673</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2463342649100314</v>
+        <v>0.04221321828075055</v>
       </c>
       <c r="L220" t="n">
-        <v>0.5780972054474705</v>
+        <v>0.5047768060857847</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2463565063618745</v>
+        <v>0.1513768292636047</v>
       </c>
       <c r="N220" t="n">
-        <v>0.9306953697430523</v>
+        <v>0.7965833615433621</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2463025222554591</v>
+        <v>0.1513254039943999</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.04517143751780842</v>
+        <v>0.07232504463674422</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2472184687302994</v>
+        <v>0.04220439392742217</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2241211432141815</v>
+        <v>0.07232504463674422</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2479235182320316</v>
+        <v>0.04220439392742217</v>
       </c>
       <c r="L221" t="n">
-        <v>0.5809509362926591</v>
+        <v>0.5053124924459259</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2479459031771124</v>
+        <v>0.1523534539685312</v>
       </c>
       <c r="N221" t="n">
-        <v>0.9326812378546739</v>
+        <v>0.7885815600194021</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2478915707861395</v>
+        <v>0.152301696923396</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.04515887697932619</v>
+        <v>0.07040151821257223</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2488032025042116</v>
+        <v>0.0421955695740938</v>
       </c>
       <c r="J222" t="n">
-        <v>0.2255916602556179</v>
+        <v>0.07040151821257223</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2495127715540318</v>
+        <v>0.0421955695740938</v>
       </c>
       <c r="L222" t="n">
-        <v>0.5781770167850236</v>
+        <v>0.503730386414909</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2495352999923503</v>
+        <v>0.1533300786734577</v>
       </c>
       <c r="N222" t="n">
-        <v>0.9351542446912612</v>
+        <v>0.7959913006907345</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2494806193168199</v>
+        <v>0.1532779898523921</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.04804573098012319</v>
+        <v>0.0684943111136317</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2503879362781237</v>
+        <v>0.04218674522076542</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2252310281907525</v>
+        <v>0.0684943111136317</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2511020248760321</v>
+        <v>0.04218674522076542</v>
       </c>
       <c r="L223" t="n">
-        <v>0.5792959065827943</v>
+        <v>0.5040308726555631</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2511246968075883</v>
+        <v>0.1543067033783842</v>
       </c>
       <c r="N223" t="n">
-        <v>0.9317313159527237</v>
+        <v>0.7895048623766364</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2510696678475003</v>
+        <v>0.1542542827813883</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0468265085274512</v>
+        <v>0.06660367965142358</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2519726700520359</v>
+        <v>0.04217792086743704</v>
       </c>
       <c r="J224" t="n">
-        <v>0.2244728659767036</v>
+        <v>0.06660367965142358</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2526912781980322</v>
+        <v>0.04217792086743704</v>
       </c>
       <c r="L224" t="n">
-        <v>0.5760329502583547</v>
+        <v>0.5010141953803651</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2527140936228262</v>
+        <v>0.1552833280833107</v>
       </c>
       <c r="N224" t="n">
-        <v>0.9277455050709961</v>
+        <v>0.79412303055184</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2526587163781807</v>
+        <v>0.1552305757103844</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.04451322016125896</v>
+        <v>0.06472988013744885</v>
       </c>
       <c r="G225" t="n">
-        <v>0.253557403825948</v>
+        <v>0.04216909651410866</v>
       </c>
       <c r="J225" t="n">
-        <v>0.2229729291138764</v>
+        <v>0.06472988013744885</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2542805315200324</v>
+        <v>0.04216909651410866</v>
       </c>
       <c r="L225" t="n">
-        <v>0.5718317507379805</v>
+        <v>0.4984805988017915</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2543034904380641</v>
+        <v>0.1562599527882371</v>
       </c>
       <c r="N225" t="n">
-        <v>0.9252280951845199</v>
+        <v>0.7920465906910766</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2542477649088611</v>
+        <v>0.1562068686393805</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.04611787642149519</v>
+        <v>0.06287316888320844</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2551421375998603</v>
+        <v>0.04216027216078028</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2204869731026761</v>
+        <v>0.06287316888320844</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2558697848420327</v>
+        <v>0.04216027216078028</v>
       </c>
       <c r="L226" t="n">
-        <v>0.5707359109479482</v>
+        <v>0.4990303271323184</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2558928872533019</v>
+        <v>0.1572365774931636</v>
       </c>
       <c r="N226" t="n">
-        <v>0.9138103694317362</v>
+        <v>0.7860763282690789</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2558368134395415</v>
+        <v>0.1571831615683767</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.04665248784810865</v>
+        <v>0.06103380220020334</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2567268713737724</v>
+        <v>0.0421514478074519</v>
       </c>
       <c r="J227" t="n">
-        <v>0.2182707534435079</v>
+        <v>0.06103380220020334</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2574590381640329</v>
+        <v>0.0421514478074519</v>
       </c>
       <c r="L227" t="n">
-        <v>0.561389033814533</v>
+        <v>0.5019636245844228</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2574822840685398</v>
+        <v>0.1582132021980901</v>
       </c>
       <c r="N227" t="n">
-        <v>0.9048236109510867</v>
+        <v>0.7834130287605775</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2574258619702218</v>
+        <v>0.1581594544973728</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.04712906498104805</v>
+        <v>0.05921203639993451</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2583116051476846</v>
+        <v>0.04214262345412352</v>
       </c>
       <c r="J228" t="n">
-        <v>0.2168800256367771</v>
+        <v>0.05921203639993451</v>
       </c>
       <c r="K228" t="n">
-        <v>0.259048291486033</v>
+        <v>0.04214262345412352</v>
       </c>
       <c r="L228" t="n">
-        <v>0.5570347222640109</v>
+        <v>0.4994807353705808</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2590716808837777</v>
+        <v>0.1591898269030166</v>
       </c>
       <c r="N228" t="n">
-        <v>0.8920991028810129</v>
+        <v>0.7809574776403049</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2590149105009022</v>
+        <v>0.1591357474263689</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.04255961836026216</v>
+        <v>0.0574081277939029</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2598963389215967</v>
+        <v>0.04213379910079514</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2131705451828887</v>
+        <v>0.0574081277939029</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2606375448080333</v>
+        <v>0.04213379910079514</v>
       </c>
       <c r="L229" t="n">
-        <v>0.5490165792226578</v>
+        <v>0.4981819037032692</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2606610776990156</v>
+        <v>0.1601664516079431</v>
       </c>
       <c r="N229" t="n">
-        <v>0.8896681283599565</v>
+        <v>0.7848104603829927</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2606039590315826</v>
+        <v>0.160112040355365</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.04195615852569967</v>
+        <v>0.05562233269360947</v>
       </c>
       <c r="G230" t="n">
-        <v>0.261481072695509</v>
+        <v>0.04212497474746676</v>
       </c>
       <c r="J230" t="n">
-        <v>0.210998067582248</v>
+        <v>0.05562233269360947</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2622267981300334</v>
+        <v>0.04212497474746676</v>
       </c>
       <c r="L230" t="n">
-        <v>0.5426782076167495</v>
+        <v>0.4979673737949647</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2622504745142535</v>
+        <v>0.1611430763128695</v>
       </c>
       <c r="N230" t="n">
-        <v>0.8757619705263581</v>
+        <v>0.7813727624633725</v>
       </c>
       <c r="O230" t="n">
-        <v>0.262193007562263</v>
+        <v>0.1610883332843612</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.04133069601730936</v>
+        <v>0.05385490741055515</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2630658064694211</v>
+        <v>0.04211615039413839</v>
       </c>
       <c r="J231" t="n">
-        <v>0.2070183483352602</v>
+        <v>0.05385490741055515</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2638160514520336</v>
+        <v>0.04211615039413839</v>
       </c>
       <c r="L231" t="n">
-        <v>0.5344632103725618</v>
+        <v>0.4986373898581431</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2638398713294914</v>
+        <v>0.162119701017796</v>
       </c>
       <c r="N231" t="n">
-        <v>0.8636119125186604</v>
+        <v>0.7810451693561763</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2637820560929434</v>
+        <v>0.1620646262133573</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.04069524137503992</v>
+        <v>0.05210610825624096</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2646505402433333</v>
+        <v>0.04210732604081</v>
       </c>
       <c r="J232" t="n">
-        <v>0.2049871429423305</v>
+        <v>0.05210610825624096</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2654053047740338</v>
+        <v>0.04210732604081</v>
       </c>
       <c r="L232" t="n">
-        <v>0.5262151904163704</v>
+        <v>0.4990921961052817</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2654292681447293</v>
+        <v>0.1630963257227225</v>
       </c>
       <c r="N232" t="n">
-        <v>0.8472492374753041</v>
+        <v>0.7783284665361355</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2653711046236237</v>
+        <v>0.1630409191423534</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.04006180513884013</v>
+        <v>0.05037619154216781</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2662352740172455</v>
+        <v>0.04209850168748162</v>
       </c>
       <c r="J233" t="n">
-        <v>0.202460206903864</v>
+        <v>0.05037619154216781</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2669945580960341</v>
+        <v>0.04209850168748162</v>
       </c>
       <c r="L233" t="n">
-        <v>0.5189777506744513</v>
+        <v>0.4992320367488563</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2670186649599672</v>
+        <v>0.164072950427649</v>
       </c>
       <c r="N233" t="n">
-        <v>0.8352052285347308</v>
+        <v>0.7792234394779823</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2669601531543041</v>
+        <v>0.1640172120713496</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.04144239784865868</v>
+        <v>0.04866541357983666</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2678200077911577</v>
+        <v>0.04208967733415325</v>
       </c>
       <c r="J234" t="n">
-        <v>0.199193295720266</v>
+        <v>0.04866541357983666</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2685838114180343</v>
+        <v>0.04208967733415325</v>
       </c>
       <c r="L234" t="n">
-        <v>0.5131944940730806</v>
+        <v>0.4948571560013442</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2686080617752051</v>
+        <v>0.1650495751325755</v>
       </c>
       <c r="N234" t="n">
-        <v>0.8287111688353815</v>
+        <v>0.7763308736564482</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2685492016849845</v>
+        <v>0.1649935050003457</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03984903004444434</v>
+        <v>0.0469740306807485</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2694047415650698</v>
+        <v>0.04208085298082487</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1965421648919418</v>
+        <v>0.0469740306807485</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2701730647400344</v>
+        <v>0.04208085298082487</v>
       </c>
       <c r="L235" t="n">
-        <v>0.5065090235385334</v>
+        <v>0.4969677980752212</v>
       </c>
       <c r="M235" t="n">
-        <v>0.270197458590443</v>
+        <v>0.1660261998375019</v>
       </c>
       <c r="N235" t="n">
-        <v>0.8186983415156986</v>
+        <v>0.7799515545462649</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2701382502156648</v>
+        <v>0.1659697979293418</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.04029371226614585</v>
+        <v>0.04530229915640428</v>
       </c>
       <c r="G236" t="n">
-        <v>0.270989475338982</v>
+        <v>0.04207202862749649</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1944625699192963</v>
+        <v>0.04530229915640428</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2717623180620347</v>
+        <v>0.04207202862749649</v>
       </c>
       <c r="L236" t="n">
-        <v>0.4976649419970862</v>
+        <v>0.4932642071829639</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2717868554056809</v>
+        <v>0.1670028245424284</v>
       </c>
       <c r="N236" t="n">
-        <v>0.8073980297141227</v>
+        <v>0.7751862676221642</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2717272987463453</v>
+        <v>0.1669460908583379</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0397843219018602</v>
+        <v>0.04365047531830495</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2725742091128942</v>
+        <v>0.04206320427416811</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1924984252753718</v>
+        <v>0.04365047531830495</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2733515713840349</v>
+        <v>0.04206320427416811</v>
       </c>
       <c r="L237" t="n">
-        <v>0.4945758774788536</v>
+        <v>0.4922466275370493</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2733762522209188</v>
+        <v>0.1679794492473549</v>
       </c>
       <c r="N237" t="n">
-        <v>0.7962911834074503</v>
+        <v>0.7780357983588783</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2733163472770256</v>
+        <v>0.1679223837873341</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.04028447500420752</v>
+        <v>0.04201881547795146</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2741589428868063</v>
+        <v>0.04205437992083973</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1886918436143364</v>
+        <v>0.04201881547795146</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2749408247060351</v>
+        <v>0.04205437992083973</v>
       </c>
       <c r="L238" t="n">
-        <v>0.4866362092662991</v>
+        <v>0.4950153033499535</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2749656490361567</v>
+        <v>0.1689560739522814</v>
       </c>
       <c r="N238" t="n">
-        <v>0.788820511134077</v>
+        <v>0.7763009322311379</v>
       </c>
       <c r="O238" t="n">
-        <v>0.274905395807706</v>
+        <v>0.1688986767163302</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03878278970755208</v>
+        <v>0.04040757594684481</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2757436766607185</v>
+        <v>0.04204555556751135</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1856767617473885</v>
+        <v>0.04040757594684481</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2765300780280353</v>
+        <v>0.04204555556751135</v>
       </c>
       <c r="L239" t="n">
-        <v>0.4837746508418841</v>
+        <v>0.4927704788341533</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2765550458513946</v>
+        <v>0.1699326986572079</v>
       </c>
       <c r="N239" t="n">
-        <v>0.7742145722050878</v>
+        <v>0.7754824547136759</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2764944443383864</v>
+        <v>0.1698749696453263</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03927923755847941</v>
+        <v>0.03881596643118929</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2773284104346307</v>
+        <v>0.04203673121418296</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1834530475876799</v>
+        <v>0.03881596643118929</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2781193313500355</v>
+        <v>0.04203673121418296</v>
       </c>
       <c r="L240" t="n">
-        <v>0.4757908620049504</v>
+        <v>0.4939123982021245</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2781444426666326</v>
+        <v>0.1709093233621344</v>
       </c>
       <c r="N240" t="n">
-        <v>0.767372818702151</v>
+        <v>0.7764811512812232</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2780834928690668</v>
+        <v>0.1708512625743225</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03677379010357494</v>
+        <v>0.03723796361071445</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2789131442085429</v>
+        <v>0.04202790686085459</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1814205690483627</v>
+        <v>0.03723796361071445</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2797085846720357</v>
+        <v>0.04202790686085459</v>
       </c>
       <c r="L241" t="n">
-        <v>0.4713845025548404</v>
+        <v>0.4943413056663447</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2797338394818705</v>
+        <v>0.1718859480670608</v>
       </c>
       <c r="N241" t="n">
-        <v>0.7601947027069341</v>
+        <v>0.7774978074085127</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2796725413997472</v>
+        <v>0.1718275555033186</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03826641888942417</v>
+        <v>0.03567277719162465</v>
       </c>
       <c r="G242" t="n">
-        <v>0.280497877982455</v>
+        <v>0.04201908250752621</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1786791940425886</v>
+        <v>0.03567277719162465</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2812978379940358</v>
+        <v>0.04201908250752621</v>
       </c>
       <c r="L242" t="n">
-        <v>0.4603552322908968</v>
+        <v>0.4886574454392896</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2813232362971084</v>
+        <v>0.1728625727719873</v>
       </c>
       <c r="N242" t="n">
-        <v>0.744579676301106</v>
+        <v>0.7765332085702746</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2812615899304275</v>
+        <v>0.1728038484323147</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03775709546261252</v>
+        <v>0.03412066348542082</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2820826117563672</v>
+        <v>0.04201025815419783</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1767287904835097</v>
+        <v>0.03412066348542082</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2828870913160361</v>
+        <v>0.04201025815419783</v>
       </c>
       <c r="L243" t="n">
-        <v>0.4544027110124619</v>
+        <v>0.4889610617334359</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2829126331123463</v>
+        <v>0.1738391974769138</v>
       </c>
       <c r="N243" t="n">
-        <v>0.7387271915663347</v>
+        <v>0.7741881402412417</v>
       </c>
       <c r="O243" t="n">
-        <v>0.282850638461108</v>
+        <v>0.1737801413613108</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03524579136972553</v>
+        <v>0.03258187880360393</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2836673455302794</v>
+        <v>0.04200143380086945</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1759692262842779</v>
+        <v>0.03258187880360393</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2844763446380363</v>
+        <v>0.04200143380086945</v>
       </c>
       <c r="L244" t="n">
-        <v>0.4518265985188776</v>
+        <v>0.49015239876126</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2845020299275842</v>
+        <v>0.1748158221818403</v>
       </c>
       <c r="N244" t="n">
-        <v>0.7297367005842886</v>
+        <v>0.7710633878961456</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2844396869917883</v>
+        <v>0.174756434290307</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03773247815734859</v>
+        <v>0.03105667945767492</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2852520793041916</v>
+        <v>0.04199260944754107</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1720003693580452</v>
+        <v>0.03105667945767492</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2860655979600365</v>
+        <v>0.04199260944754107</v>
       </c>
       <c r="L245" t="n">
-        <v>0.4419265546094869</v>
+        <v>0.4898317007352387</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2860914267428221</v>
+        <v>0.1757924468867668</v>
       </c>
       <c r="N245" t="n">
-        <v>0.7205076554366356</v>
+        <v>0.7757597370097181</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2860287355224687</v>
+        <v>0.1757327272193031</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03721712737206724</v>
+        <v>0.02954532175913477</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2868368130781038</v>
+        <v>0.04198378509421269</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1700220876179634</v>
+        <v>0.02954532175913477</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2876548512820367</v>
+        <v>0.04198378509421269</v>
       </c>
       <c r="L246" t="n">
-        <v>0.4380022390836319</v>
+        <v>0.4860992118678485</v>
       </c>
       <c r="M246" t="n">
-        <v>0.28768082355806</v>
+        <v>0.1767690715916933</v>
       </c>
       <c r="N246" t="n">
-        <v>0.7027395082050446</v>
+        <v>0.7749779730566907</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2876177840531491</v>
+        <v>0.1767090201482992</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03669971056046689</v>
+        <v>0.02804806201948444</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2884215468520159</v>
+        <v>0.04197496074088431</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1677342489771846</v>
+        <v>0.02804806201948444</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2892441046040369</v>
+        <v>0.04197496074088431</v>
       </c>
       <c r="L247" t="n">
-        <v>0.4339533117406547</v>
+        <v>0.4887551763715657</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2892702203732979</v>
+        <v>0.1777456962966197</v>
       </c>
       <c r="N247" t="n">
-        <v>0.6941317109711831</v>
+        <v>0.7689188815117954</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2892068325838295</v>
+        <v>0.1776853130772953</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03218019926913306</v>
+        <v>0.02656515655022489</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2900062806259281</v>
+        <v>0.04196613638755593</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1647367213488605</v>
+        <v>0.02656515655022489</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2908333579260371</v>
+        <v>0.04196613638755593</v>
       </c>
       <c r="L248" t="n">
-        <v>0.4290794323798979</v>
+        <v>0.487299838458867</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2908596171885358</v>
+        <v>0.1787223210015462</v>
       </c>
       <c r="N248" t="n">
-        <v>0.6900837158167197</v>
+        <v>0.7661832478497638</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2907958811145099</v>
+        <v>0.1786616060062915</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03565856504465116</v>
+        <v>0.02509686166285706</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2915910143998403</v>
+        <v>0.04195731203422755</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1623293726461431</v>
+        <v>0.02509686166285706</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2924226112480373</v>
+        <v>0.04195731203422755</v>
       </c>
       <c r="L249" t="n">
-        <v>0.4187802608007039</v>
+        <v>0.4869334423422287</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2924490140037737</v>
+        <v>0.1796989457064727</v>
       </c>
       <c r="N249" t="n">
-        <v>0.6774949748233228</v>
+        <v>0.7677718575453275</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2923849296451902</v>
+        <v>0.1796378989352876</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03413477943360672</v>
+        <v>0.02364343366888193</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2931757481737525</v>
+        <v>0.04194848768089918</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1613120707821845</v>
+        <v>0.02364343366888193</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2940118645700375</v>
+        <v>0.04194848768089918</v>
       </c>
       <c r="L250" t="n">
-        <v>0.4159554568024149</v>
+        <v>0.4871562322341274</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2940384108190116</v>
+        <v>0.1806755704113992</v>
       </c>
       <c r="N250" t="n">
-        <v>0.6625649400726602</v>
+        <v>0.7685854960732185</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2939739781758706</v>
+        <v>0.1806141918642837</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03260881398258517</v>
+        <v>0.02220512887980045</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2947604819476646</v>
+        <v>0.0419396633275708</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1593846836701365</v>
+        <v>0.02220512887980045</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2956011178920377</v>
+        <v>0.0419396633275708</v>
       </c>
       <c r="L251" t="n">
-        <v>0.4077046801843734</v>
+        <v>0.4864684523470396</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2956278076342495</v>
+        <v>0.1816521951163257</v>
       </c>
       <c r="N251" t="n">
-        <v>0.6582930636464007</v>
+        <v>0.7678249489081687</v>
       </c>
       <c r="O251" t="n">
-        <v>0.295563026706551</v>
+        <v>0.1815904847932799</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03408064023817201</v>
+        <v>0.02078220360711357</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2963452157215768</v>
+        <v>0.04193083897424241</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1554470792231511</v>
+        <v>0.02078220360711357</v>
       </c>
       <c r="K252" t="n">
-        <v>0.2971903712140379</v>
+        <v>0.04193083897424241</v>
       </c>
       <c r="L252" t="n">
-        <v>0.4014275907459217</v>
+        <v>0.4856703468934418</v>
       </c>
       <c r="M252" t="n">
-        <v>0.2972172044494873</v>
+        <v>0.1826288198212521</v>
       </c>
       <c r="N252" t="n">
-        <v>0.6484787976262121</v>
+        <v>0.7707910015249099</v>
       </c>
       <c r="O252" t="n">
-        <v>0.2971520752372314</v>
+        <v>0.182566777722276</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02955022974695266</v>
+        <v>0.01937491416232227</v>
       </c>
       <c r="G253" t="n">
-        <v>0.297929949495489</v>
+        <v>0.04192201462091404</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1533991253543801</v>
+        <v>0.01937491416232227</v>
       </c>
       <c r="K253" t="n">
-        <v>0.2987796245360381</v>
+        <v>0.04192201462091404</v>
       </c>
       <c r="L253" t="n">
-        <v>0.3938238482864022</v>
+        <v>0.4808621600858107</v>
       </c>
       <c r="M253" t="n">
-        <v>0.2988066012647252</v>
+        <v>0.1836054445261786</v>
       </c>
       <c r="N253" t="n">
-        <v>0.6396215940937632</v>
+        <v>0.762884439398173</v>
       </c>
       <c r="O253" t="n">
-        <v>0.2987411237679117</v>
+        <v>0.1835430706512721</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03201755405551263</v>
+        <v>0.01798351685692751</v>
       </c>
       <c r="G254" t="n">
-        <v>0.2995146832694012</v>
+        <v>0.04191319026758566</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1515406899769755</v>
+        <v>0.01798351685692751</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3003688778580383</v>
+        <v>0.04191319026758566</v>
       </c>
       <c r="L254" t="n">
-        <v>0.386693112605157</v>
+        <v>0.4839441361366226</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3003959980799631</v>
+        <v>0.1845820692311051</v>
       </c>
       <c r="N254" t="n">
-        <v>0.6252209051307213</v>
+        <v>0.7614060480026906</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3003301722985922</v>
+        <v>0.1845193635802682</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03248258471043738</v>
+        <v>0.01660826800243023</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3010994170433133</v>
+        <v>0.04190436591425728</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1483716410040893</v>
+        <v>0.01660826800243023</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3019581311800385</v>
+        <v>0.04190436591425728</v>
       </c>
       <c r="L255" t="n">
-        <v>0.3794350435015287</v>
+        <v>0.4826165192583539</v>
       </c>
       <c r="M255" t="n">
-        <v>0.301985394895201</v>
+        <v>0.1855586939360316</v>
       </c>
       <c r="N255" t="n">
-        <v>0.6163761828187557</v>
+        <v>0.7628566128131945</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3019192208292725</v>
+        <v>0.1854956565092644</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03094529325831238</v>
+        <v>0.01524942391033139</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3026841508172255</v>
+        <v>0.0418955415609289</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1466918463488733</v>
+        <v>0.01524942391033139</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3035473845020387</v>
+        <v>0.0418955415609289</v>
       </c>
       <c r="L256" t="n">
-        <v>0.3766493007748598</v>
+        <v>0.4783795536634815</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3035747917104389</v>
+        <v>0.1865353186409581</v>
       </c>
       <c r="N256" t="n">
-        <v>0.6063868792395338</v>
+        <v>0.7694369193044163</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3035082693599529</v>
+        <v>0.1864719494382605</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02840565124572307</v>
+        <v>0.01390724089213197</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3042688845911377</v>
+        <v>0.04188671720760052</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1433011739244796</v>
+        <v>0.01390724089213197</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3051366378240389</v>
+        <v>0.04188671720760052</v>
       </c>
       <c r="L257" t="n">
-        <v>0.3684355442244923</v>
+        <v>0.4807334835644814</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3051641885256768</v>
+        <v>0.1875119433458846</v>
       </c>
       <c r="N257" t="n">
-        <v>0.5934524464747246</v>
+        <v>0.7663477529510873</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3050973178906333</v>
+        <v>0.1874482423672566</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02786363021925497</v>
+        <v>0.01258197525933291</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3058536183650499</v>
+        <v>0.04187789285427215</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1417994916440601</v>
+        <v>0.01258197525933291</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3067258911460391</v>
+        <v>0.04187789285427215</v>
       </c>
       <c r="L258" t="n">
-        <v>0.3646934336497688</v>
+        <v>0.4796785531738306</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3067535853409147</v>
+        <v>0.188488568050811</v>
       </c>
       <c r="N258" t="n">
-        <v>0.5850723366059956</v>
+        <v>0.7673898992279397</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3066863664213136</v>
+        <v>0.1884245352962528</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03031920172549351</v>
+        <v>0.01127388332343518</v>
       </c>
       <c r="G259" t="n">
-        <v>0.307438352138962</v>
+        <v>0.04186906850094376</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1384866674207666</v>
+        <v>0.01127388332343518</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3083151444680393</v>
+        <v>0.04186906850094376</v>
       </c>
       <c r="L259" t="n">
-        <v>0.3570226288500318</v>
+        <v>0.4763150067040054</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3083429821561527</v>
+        <v>0.1894651927557375</v>
       </c>
       <c r="N259" t="n">
-        <v>0.5711460017150154</v>
+        <v>0.7627641436097056</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3082754149519941</v>
+        <v>0.1894008282252489</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02877233731102418</v>
+        <v>0.009983221395939726</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3090230859128742</v>
+        <v>0.04186024414761538</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1349625691677511</v>
+        <v>0.009983221395939726</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3099043977900395</v>
+        <v>0.04186024414761538</v>
       </c>
       <c r="L260" t="n">
-        <v>0.349422789624623</v>
+        <v>0.4750430883674822</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3099323789713906</v>
+        <v>0.190441817460664</v>
       </c>
       <c r="N260" t="n">
-        <v>0.5636728938834527</v>
+        <v>0.7641712715711159</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3098644634826744</v>
+        <v>0.190377121154245</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02922300852243242</v>
+        <v>0.008710245788347531</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3106078196867864</v>
+        <v>0.04185141979428701</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1325270647981655</v>
+        <v>0.008710245788347531</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3114936511120397</v>
+        <v>0.04185141979428701</v>
       </c>
       <c r="L261" t="n">
-        <v>0.3422935757728853</v>
+        <v>0.4780630423767377</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3115217757866285</v>
+        <v>0.1914184421655905</v>
       </c>
       <c r="N261" t="n">
-        <v>0.5573524651929749</v>
+        <v>0.7611120685869027</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3114535120133548</v>
+        <v>0.1913534140832411</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02767118690630375</v>
+        <v>0.007455212812159537</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3121925534606986</v>
+        <v>0.04184259544095863</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1297800222251618</v>
+        <v>0.007455212812159537</v>
       </c>
       <c r="K262" t="n">
-        <v>0.31308290443404</v>
+        <v>0.04184259544095863</v>
       </c>
       <c r="L262" t="n">
-        <v>0.3382346470941612</v>
+        <v>0.4740751129442483</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3131111726018664</v>
+        <v>0.192395066870517</v>
       </c>
       <c r="N262" t="n">
-        <v>0.5438841677252509</v>
+        <v>0.7613873201317981</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3130425605440352</v>
+        <v>0.1923297070122373</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02711684400922358</v>
+        <v>0.00621837877887671</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3137772872346107</v>
+        <v>0.04183377108763025</v>
       </c>
       <c r="J263" t="n">
-        <v>0.129421309361892</v>
+        <v>0.00621837877887671</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3146721577560401</v>
+        <v>0.04183377108763025</v>
       </c>
       <c r="L263" t="n">
-        <v>0.3278456633877926</v>
+        <v>0.4754795442824905</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3147005694171043</v>
+        <v>0.1933716915754435</v>
       </c>
       <c r="N263" t="n">
-        <v>0.5312674535619485</v>
+        <v>0.7671978116805339</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3146316090747156</v>
+        <v>0.1933059999412334</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02455995137777741</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3153620210085229</v>
+        <v>0.04182494673430187</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1255507941215079</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3162614110780403</v>
+        <v>0.04182494673430187</v>
       </c>
       <c r="L264" t="n">
-        <v>0.3230262844531222</v>
+        <v>0.4747765806039408</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3162899662323422</v>
+        <v>0.1943483162803699</v>
       </c>
       <c r="N264" t="n">
-        <v>0.5188017747847362</v>
+        <v>0.7589443287078411</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3162206576053959</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1942822928702296</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04181178883956502</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.04181178883956502</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.006945572090759605</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04181205736802904</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.006945572090759605</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.04181205736802904</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.0088845190598211</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04181232589649306</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.0088845190598211</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.04181232589649306</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.01081680061277618</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04181259442495708</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.01081680061277618</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.04181259442495708</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.0127423764553851</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.0418128629534211</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.0127423764553851</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.0418128629534211</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.01466120629324021</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04181313148188511</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.01466120629324021</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.04181313148188511</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.01657324983210109</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04181340001034913</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.01657324983210109</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.04181340001034913</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.0184784667775607</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04181366853881315</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.0184784667775607</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.04181366853881315</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.02037681683537806</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04181393706727717</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.02037681683537806</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.04181393706727717</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.02226825971114668</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04181420559574118</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.02226825971114668</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.04181420559574118</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.02415275511062502</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.0418144741242052</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.02415275511062502</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.0418144741242052</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.02603026273940719</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04181474265266921</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.02603026273940719</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.04181474265266921</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.02790074230325101</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04181501118113323</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.02790074230325101</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.04181501118113323</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.02976415350775123</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04181527970959725</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.02976415350775123</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.04181527970959725</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.03162045605866506</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04181554823806127</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.03162045605866506</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.04181554823806127</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.03346960966158784</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04181581676652529</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.03346960966158784</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.04181581676652529</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.03531157402227617</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04181608529498931</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.03531157402227617</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.04181608529498931</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.03714630884632603</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04181635382345332</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.03714630884632603</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.04181635382345332</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.0389737738394537</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04181662235191733</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.0389737738394537</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.04181662235191733</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.04079392870737485</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04181689088038135</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.04079392870737485</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.04181689088038135</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.04260673315568637</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04181715940884537</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.04260673315568637</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.04181715940884537</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.04441214689014329</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04181742793730939</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.04441214689014329</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.04181742793730939</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.04621012961634317</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.0418176964657734</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.04621012961634317</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.0418176964657734</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.04800064104004038</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04181796499423742</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.04800064104004038</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.04181796499423742</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.04978364086683316</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04181823352270144</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.04978364086683316</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.04181823352270144</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.05155925333763099</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04181850205116546</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.05155925333763099</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.04181850205116546</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.05332842536896761</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04181877057962947</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.05332842536896761</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.04181877057962947</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.05509128120175194</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04181903910809349</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.05509128120175194</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.04181903910809349</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.05684778054158339</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04181930763655751</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.05684778054158339</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.04181930763655751</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.05859788309421457</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04181957616502153</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.05859788309421457</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.04181957616502153</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.06034154856524537</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04181984469348554</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.06034154856524537</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.04181984469348554</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.06207873666042789</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04182011322194956</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.06207873666042789</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.04182011322194956</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.06380940708536259</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04182038175041358</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.06380940708536259</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.04182038175041358</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.0655335195457635</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04182065027887759</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.0655335195457635</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.04182065027887759</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.06725103374734405</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04182091880734161</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.06725103374734405</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.04182091880734161</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.06896190939570558</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04182118733580562</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.06896190939570558</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.04182118733580562</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.07066610619659874</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04182145586426964</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.07066610619659874</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.04182145586426964</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.07236358385562544</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04182172439273366</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.07236358385562544</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.04182172439273366</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.07405430207853575</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04182199292119768</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.07405430207853575</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.04182199292119768</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.07573822057093213</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.0418222614496617</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.07573822057093213</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.0418222614496617</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.07741529903856403</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04182252997812572</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.07741529903856403</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.04182252997812572</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.07908549718703459</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04182279850658973</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.07908549718703459</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.04182279850658973</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.08074877472209266</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04182306703505375</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.08074877472209266</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.04182306703505375</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.08240509134934193</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04182333556351776</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.08240509134934193</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.04182333556351776</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.08405440677453063</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04182360409198178</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.08405440677453063</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.04182360409198178</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.08569668070326311</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.0418238726204458</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.08569668070326311</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.0418238726204458</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.08733187284128699</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04182414114890982</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.08733187284128699</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.04182414114890982</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.08895994289420722</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04182440967737383</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.08895994289420722</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.04182440967737383</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.09058085056777077</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04182467820583785</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.09058085056777077</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.04182467820583785</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.09219455556758324</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04182494673430187</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.09219455556758324</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.04182494673430187</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.09219455556758321</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04181178883956502</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.09219455556758321</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.04181178883956502</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.09406791731682665</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04182115024982144</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.09406791731682665</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.04182115024982144</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.09592993554090501</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04183051166007785</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.09592993554090501</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.04183051166007785</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.09778046404530158</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04183987307033427</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.09778046404530158</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.04183987307033427</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.0996193566354997</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04184923448059068</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.0996193566354997</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.04184923448059068</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.1014464671169827</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.0418585958908471</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.1014464671169827</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.0418585958908471</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.1032616492952337</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04186795730110351</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.1032616492952337</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.04186795730110351</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.105064756975736</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04187731871135993</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.105064756975736</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.04187731871135993</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.106855643963973</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04188668012161634</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.106855643963973</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.04188668012161634</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.1086341640654279</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04189604153187275</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.1086341640654279</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.04189604153187275</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.110400171085584</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04190540294212917</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.110400171085584</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.04190540294212917</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.1121535188299246</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04191476435238558</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.1121535188299246</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.04191476435238558</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.1138940611039329</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04192412576264199</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.1138940611039329</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.04192412576264199</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.1156216517130912</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.0419334871728984</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.1156216517130912</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.0419334871728984</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.1173361444628848</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04194284858315481</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.1173361444628848</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.04194284858315481</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.1190373931587962</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04195220999341123</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.1190373931587962</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.04195220999341123</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.1207252516063083</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04196157140366764</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.1207252516063083</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.04196157140366764</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.1223995736109046</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04197093281392406</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.1223995736109046</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.04197093281392406</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.1240602129780684</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04198029422418047</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.1240602129780684</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.04198029422418047</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.1257070235132828</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04198965563443689</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.1257070235132828</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.04198965563443689</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.1273398590220312</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.0419990170446933</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.1273398590220312</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.0419990170446933</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.128958573309797</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04200837845494971</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.128958573309797</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.04200837845494971</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.1305630201820632</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04201773986520613</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.1305630201820632</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.04201773986520613</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.1321530534443133</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04202710127546254</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.1321530534443133</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.04202710127546254</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.1337285269020305</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04203646268571895</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.1337285269020305</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.04203646268571895</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.1352898913216414</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04204582409597537</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.1352898913216414</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.04204582409597537</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.1368405822742888</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04205518550623178</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.1368405822742888</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.04205518550623178</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.1383810505263995</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04206454691648819</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.1383810505263995</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.04206454691648819</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.1399111498834565</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0420739083267446</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.1399111498834565</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.0420739083267446</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.1414307341509432</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04208326973700102</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.1414307341509432</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.04208326973700102</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.142939657134343</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04209263114725743</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.142939657134343</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.04209263114725743</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.144437772639139</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04210199255751385</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.144437772639139</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.04210199255751385</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.1459249344708145</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04211135396777026</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.1459249344708145</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.04211135396777026</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.1474009964348529</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04212071537802668</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.1474009964348529</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.04212071537802668</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.1488658123367373</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04213007678828309</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.1488658123367373</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.04213007678828309</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.1503192359819512</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04213943819853951</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.1503192359819512</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.04213943819853951</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.1517611211759777</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04214879960879592</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.1517611211759777</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.04214879960879592</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.1531913217242993</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04215816101905232</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.1531913217242993</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.04215816101905232</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.154609691432401</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04216752242930874</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.154609691432401</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.04216752242930874</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.1560160841057652</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04217688383956515</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.1560160841057652</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.04217688383956515</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.1574103535498752</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04218624524982156</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.1574103535498752</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.04218624524982156</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.1587923535702142</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04219560666007798</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.1587923535702142</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.04219560666007798</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.1601619379722656</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04220496807033439</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.1601619379722656</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.04220496807033439</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.1615189605615126</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04221432948059081</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.1615189605615126</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.04221432948059081</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.1628632751434385</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04222369089084722</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.1628632751434385</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.04222369089084722</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.1641947355235266</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04223305230110364</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.1641947355235266</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.04223305230110364</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.1655131955072602</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04224241371136005</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.1655131955072602</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.04224241371136005</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.1668185089001225</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04225177512161647</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.1668185089001225</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.04225177512161647</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.1681105295075968</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04226113653187288</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.1681105295075968</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.04226113653187288</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.1693891111351664</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04227049794212929</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.1693891111351664</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.04227049794212929</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.1693891111351664</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04227049794212929</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.1693891111351664</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.04227049794212929</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.166507273013996</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04545092429078839</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.166507273013996</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.04545092429078839</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.163964736839255</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.04863135063944748</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.163964736839255</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.04863135063944748</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.161741281703733</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05181177698810658</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.161741281703733</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.05181177698810658</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.1598166867002192</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05499220333676567</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.1598166867002192</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.05499220333676567</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.1581707309215032</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05817262968542477</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.1581707309215032</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.05817262968542477</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.1567831934603742</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06135305603408386</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.1567831934603742</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.06135305603408386</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.1556338534096218</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06453348238274297</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.1556338534096218</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.06453348238274297</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.1547024898620352</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06771390873140207</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.1547024898620352</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.06771390873140207</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.1539688819104039</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07089433508006115</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.1539688819104039</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.07089433508006115</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.1534128086475173</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07407476142872024</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.1534128086475173</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.07407476142872024</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.1530140491661648</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07725518777737934</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.1530140491661648</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.07725518777737934</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.1527523825591358</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08043561412603845</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.1527523825591358</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.08043561412603845</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.1526075879192196</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08361604047469753</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.1526075879192196</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.08361604047469753</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.1525594443392057</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08679646682335662</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.1525594443392057</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.08679646682335662</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.1530588732218916</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08997689317201572</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.1530588732218916</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.08997689317201572</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.154553674263589</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09315731952067483</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.154553674263589</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.09315731952067483</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.156722524007295</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09633774586933393</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.156722524007295</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.09633774586933393</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.1592394578951244</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09951817221799301</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.1592394578951244</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.09951817221799301</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.1617785113691921</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1026985985666521</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.1617785113691921</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1026985985666521</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.1640137198716131</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1058790249153112</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.1640137198716131</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1058790249153112</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.165619118844502</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1090594512639703</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.165619118844502</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1090594512639703</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.1662687437299739</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1122398776126294</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.1662687437299739</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1122398776126294</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.1659793392442538</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1154203039612885</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.1659793392442538</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1154203039612885</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.1650813265218576</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1186007303099476</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.1650813265218576</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1186007303099476</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.1636313501700363</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1217811566586067</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.1636313501700363</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1217811566586067</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.1616853006459676</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1249615830072658</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.1616853006459676</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1249615830072658</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.1592990684068292</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1281420093559249</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.1592990684068292</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1281420093559249</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.1565285439097991</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.131322435704584</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.1565285439097991</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.131322435704584</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.1534296176120548</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1345028620532431</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.1534296176120548</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1345028620532431</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.1500581799707743</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1376832884019022</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.1500581799707743</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1376832884019022</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.1464701214431353</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1408637147505613</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.1464701214431353</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.1408637147505613</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.1427213324863155</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1440441410992204</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.1427213324863155</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1440441410992204</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.1388677035574927</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1472245674478795</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.1388677035574927</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1472245674478795</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.134624799014779</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.134624799014779</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.127317350084935</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1535854201451977</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.127317350084935</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1535854201451977</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.1191559890784588</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1567658464938567</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.1191559890784588</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1567658464938567</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.1136420957464374</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1599462728425159</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.1136420957464374</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1599462728425159</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.1129627958961521</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1631266991911749</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.1129627958961521</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1631266991911749</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.1130038470789616</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.166307125539834</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.1130038470789616</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.166307125539834</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.1130863252321645</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1694875518884931</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.1130863252321645</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1694875518884931</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.113213053297944</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1726679782371522</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.113213053297944</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1726679782371522</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.1133868542184837</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1758484045858113</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.1133868542184837</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1758484045858113</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.1136105509359668</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1790288309344704</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.1136105509359668</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.1790288309344704</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.1138869663925767</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1822092572831295</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.1138869663925767</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.1822092572831295</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.1142189235304969</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1853896836317886</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.1142189235304969</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.1853896836317886</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.1148310281690443</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1885701099804477</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.1148310281690443</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.1885701099804477</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.1177224285948328</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1917505363291068</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.1177224285948328</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.1917505363291068</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.1217795416217037</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1949309626777659</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.1217795416217037</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.1949309626777659</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.12501758499431</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.198111389026425</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.12501758499431</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.198111389026425</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.1273386003488379</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2012918153750841</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.1273386003488379</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2012918153750841</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.1294318352920561</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2044722417237432</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.1294318352920561</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2044722417237432</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.1313605881659686</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2076526680724023</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.1313605881659686</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2076526680724023</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.1331881573125793</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2108330944210614</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.1331881573125793</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2108330944210614</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.134977841073892</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2140135207697205</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.134977841073892</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2140135207697205</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.1367690660144925</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2171939471183796</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.1367690660144925</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2171939471183796</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.1383662277823241</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2203743734670387</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.1383662277823241</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2203743734670387</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.1398805755351438</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2235547998156978</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.1398805755351438</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2235547998156978</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.1415267830594668</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2267352261643569</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.1415267830594668</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2267352261643569</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.1435195241418085</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2299156525130159</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.1435195241418085</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2299156525130159</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.1462104267973118</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.233096078861675</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.1462104267973118</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.233096078861675</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.1497591446019817</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2362765052103341</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.1497591446019817</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2362765052103341</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.154049444723659</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2394569315589932</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.154049444723659</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2394569315589932</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.1589648265881727</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2426373579076523</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.1589648265881727</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2426373579076523</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.1643887896213515</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2458177842563114</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.1643887896213515</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2458177842563114</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.1702048332490244</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2489982106049705</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.1702048332490244</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2489982106049705</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.1762964568970202</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2521786369536296</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.1762964568970202</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2521786369536296</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.1825471599911676</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2553590633022887</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.1825471599911676</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2553590633022887</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.1888404419572956</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2585394896509478</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.1888404419572956</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2585394896509478</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.1950598022212331</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2617199159996069</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.1950598022212331</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2617199159996069</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.2010887402088088</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.264900342348266</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.2010887402088088</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.264900342348266</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.2068107553458517</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2680807686969251</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.2068107553458517</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2680807686969251</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.2121093470581905</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2712611950455842</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.2121093470581905</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2712611950455842</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.2168680147716541</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2744416213942433</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.2168680147716541</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2744416213942433</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.2209702579120714</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2776220477429024</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.2209702579120714</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2776220477429024</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.2242995759052711</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2808024740915614</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.2242995759052711</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2808024740915614</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.2267394681770822</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2839829004402206</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.2267394681770822</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.2839829004402206</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.2285188148468886</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2871633267888796</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.2285188148468886</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2871633267888796</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.2282769001210807</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2903437531375387</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.2282769001210807</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.2903437531375387</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.2224063296171468</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2935241794861979</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.2224063296171468</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.2935241794861979</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.2102975592769527</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2967046058348569</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.2102975592769527</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.2967046058348569</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.1941005486774682</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.299885032183516</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.1941005486774682</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.299885032183516</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.1759652573956637</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3030654585321751</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.1759652573956637</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3030654585321751</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.1580416450085093</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3062458848808342</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.1580416450085093</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3062458848808342</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.142479671092975</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3094263112294933</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.142479671092975</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3094263112294933</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.1314292952260313</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3126067375781524</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.1314292952260313</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3126067375781524</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.1254778924427255</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3157871639268115</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.1254778924427255</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3157871639268115</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.1201978141810519</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3189675902754706</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.1201978141810519</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3189675902754706</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.1151596559497417</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3221480166241297</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.1151596559497417</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3221480166241297</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.1103948248654837</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3253284429727888</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.1103948248654837</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3253284429727888</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.1059347280449664</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3285088693214479</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.1059347280449664</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3285088693214479</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.1018107726048784</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.331689295670107</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.1018107726048784</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.331689295670107</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.09805436566190814</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3348697220187661</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.09805436566190814</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3348697220187661</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.09469691433274438</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3380501483674252</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.09469691433274438</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3380501483674252</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.09176982573407558</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3412305747160843</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.09176982573407558</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3412305747160843</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.0893045069825904</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3444110010647434</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.0893045069825904</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3444110010647434</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.08733236519497736</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3475914274134025</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.08733236519497736</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3475914274134025</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.08588480748792507</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3507718537620615</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.08588480748792507</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3507718537620615</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.08499324097812203</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3539522801107207</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.08499324097812203</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3539522801107207</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.0846890727822569</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3571327064593797</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.0846890727822569</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3571327064593797</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
